--- a/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
+++ b/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="3150"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA_FAMILIAS_2016" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1183">
   <si>
     <t>Sobrenome</t>
   </si>
@@ -286,6 +286,9 @@
     <t>José Arino</t>
   </si>
   <si>
+    <t>arino.jpg</t>
+  </si>
+  <si>
     <t>3891-0291</t>
   </si>
   <si>
@@ -1921,6 +1924,9 @@
     <t>Ramios</t>
   </si>
   <si>
+    <t>ramios.jpg</t>
+  </si>
+  <si>
     <t>Rua Planalto, 79, Jd. Sto Eduardo, cep: 06823-500, Embu das Artes - SP</t>
   </si>
   <si>
@@ -3554,15 +3560,15 @@
   </si>
   <si>
     <t>Al. dos Tupinás, 126 c. 20, Planalto Paulista, CEP: 04069-000 – S. Paulo – SP</t>
+  </si>
+  <si>
+    <t>JORGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4041,11 +4047,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4388,18 +4393,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN141"/>
+  <dimension ref="A1:BN149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:XFD164"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -4409,7 +4414,7 @@
     <col min="11" max="11" width="96.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
@@ -4420,7 +4425,7 @@
     <col min="22" max="22" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
@@ -4431,7 +4436,7 @@
     <col min="33" max="33" width="62.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
@@ -4442,7 +4447,7 @@
     <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
@@ -4452,7 +4457,7 @@
     <col min="55" max="55" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="15" bestFit="1" customWidth="1"/>
@@ -4469,10 +4474,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -4502,7 +4507,7 @@
       <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
       <c r="O1" t="s">
@@ -4535,7 +4540,7 @@
       <c r="X1" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" t="s">
@@ -4568,7 +4573,7 @@
       <c r="AI1" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" t="s">
         <v>2</v>
       </c>
       <c r="AK1" t="s">
@@ -4601,7 +4606,7 @@
       <c r="AT1" t="s">
         <v>1</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AU1" t="s">
         <v>2</v>
       </c>
       <c r="AV1" t="s">
@@ -4634,7 +4639,7 @@
       <c r="BE1" t="s">
         <v>1</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BF1" t="s">
         <v>2</v>
       </c>
       <c r="BG1" t="s">
@@ -4698,7 +4703,7 @@
       <c r="C3" s="1">
         <v>28076</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
@@ -4725,30 +4730,96 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>990</v>
-      </c>
-      <c r="G4" t="s">
-        <v>991</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="1">
+        <v>23095</v>
+      </c>
+      <c r="D4" s="1">
+        <v>31751</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>992</v>
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="1">
+        <v>24793</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>34961</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>993</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>842</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32216</v>
       </c>
       <c r="G5" t="s">
-        <v>994</v>
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>995</v>
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
+        <v>32115</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>41812</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -4756,5000 +4827,4944 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
-        <v>23095</v>
-      </c>
-      <c r="D6" s="3">
-        <v>31751</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
+        <v>33490</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="3">
-        <v>24793</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="T6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="X6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>34961</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>36</v>
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>42090</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
-        <v>32216</v>
+        <v>26510</v>
+      </c>
+      <c r="D7" s="1">
+        <v>35812</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="3">
-        <v>32115</v>
+        <v>58</v>
+      </c>
+      <c r="N7" s="1">
+        <v>24988</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="S7" t="s">
+        <v>20</v>
       </c>
       <c r="T7" t="s">
-        <v>43</v>
+        <v>60</v>
+      </c>
+      <c r="U7" t="s">
+        <v>61</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>41812</v>
+        <v>62</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>36355</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>37550</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1">
-        <v>33490</v>
+        <v>26546</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>70</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>72</v>
+      </c>
+      <c r="J8" t="s">
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27098</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
       </c>
       <c r="T8" t="s">
-        <v>49</v>
+        <v>77</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>42090</v>
+        <v>79</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>40876</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>41858</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1">
-        <v>26510</v>
-      </c>
-      <c r="D9" s="3">
-        <v>35812</v>
+        <v>17515</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25697</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="3">
-        <v>24988</v>
+        <v>86</v>
+      </c>
+      <c r="N9" s="1">
+        <v>18653</v>
       </c>
       <c r="R9" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
         <v>20</v>
       </c>
       <c r="T9" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s">
-        <v>61</v>
-      </c>
-      <c r="X9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>36355</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>37550</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1">
-        <v>26546</v>
-      </c>
-      <c r="D10" s="3">
-        <v>39270</v>
+        <v>23263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>75</v>
-      </c>
-      <c r="N10" s="3">
-        <v>27098</v>
-      </c>
-      <c r="R10" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="N10" s="1">
+        <v>35963</v>
       </c>
       <c r="U10" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>40876</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>41858</v>
+        <v>96</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>37561</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1">
-        <v>17515</v>
-      </c>
-      <c r="D11" s="3">
-        <v>25697</v>
+        <v>19579</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="3">
-        <v>18653</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1">
-        <v>23263</v>
-      </c>
-      <c r="D12" s="3" t="s">
+        <v>34146</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
+      <c r="E12" t="s">
+        <v>105</v>
+      </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
-      </c>
-      <c r="N12" s="3">
-        <v>35963</v>
-      </c>
-      <c r="U12" t="s">
-        <v>20</v>
+        <v>112</v>
+      </c>
+      <c r="N12" s="1">
+        <v>40099</v>
       </c>
       <c r="X12" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>37561</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>20</v>
+        <v>113</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>40099</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1">
-        <v>19579</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
+        <v>46324</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1">
-        <v>34146</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>42309</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="3">
-        <v>40099</v>
-      </c>
-      <c r="X14" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>40099</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1">
-        <v>46324</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
+        <v>42354</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15" s="1">
+        <v>42074</v>
+      </c>
+      <c r="R15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>996</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>997</v>
+        <v>135</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18401</v>
       </c>
       <c r="F16" t="s">
-        <v>998</v>
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>999</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s">
-        <v>1000</v>
+        <v>139</v>
+      </c>
+      <c r="N16" s="1">
+        <v>28723</v>
       </c>
       <c r="R16" t="s">
-        <v>1001</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1002</v>
+        <v>140</v>
+      </c>
+      <c r="U16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="C17" s="1">
-        <v>42309</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
+        <v>18221</v>
+      </c>
+      <c r="D17" s="1">
+        <v>29253</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>148</v>
+      </c>
+      <c r="M17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="1">
+        <v>20767</v>
+      </c>
+      <c r="R17" t="s">
+        <v>150</v>
+      </c>
+      <c r="S17" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" t="s">
+        <v>151</v>
+      </c>
+      <c r="U17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>30687</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>31435</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="C18" s="1">
-        <v>42354</v>
+        <v>28758</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37891</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="M18" t="s">
-        <v>131</v>
-      </c>
-      <c r="N18" s="3">
-        <v>42074</v>
-      </c>
-      <c r="R18" t="s">
-        <v>132</v>
+        <v>167</v>
+      </c>
+      <c r="N18" s="1">
+        <v>28001</v>
+      </c>
+      <c r="T18" t="s">
+        <v>168</v>
+      </c>
+      <c r="U18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>41251</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>42055</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1">
-        <v>18401</v>
+        <v>27925</v>
+      </c>
+      <c r="D19" s="1">
+        <v>36471</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="M19" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" s="3">
-        <v>28723</v>
+        <v>178</v>
+      </c>
+      <c r="N19" s="1">
+        <v>27702</v>
       </c>
       <c r="R19" t="s">
-        <v>139</v>
+        <v>179</v>
+      </c>
+      <c r="S19" t="s">
+        <v>180</v>
+      </c>
+      <c r="T19" t="s">
+        <v>181</v>
       </c>
       <c r="U19" t="s">
-        <v>140</v>
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>38775</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>41867</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1">
-        <v>18221</v>
-      </c>
-      <c r="D20" s="3">
-        <v>29253</v>
+        <v>13398</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21434</v>
       </c>
       <c r="F20" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
-      </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
-      </c>
-      <c r="M20" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" s="3">
-        <v>20767</v>
-      </c>
-      <c r="R20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S20" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s">
-        <v>150</v>
-      </c>
-      <c r="U20" t="s">
-        <v>151</v>
-      </c>
-      <c r="X20" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>30687</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>31435</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="C21" s="1">
-        <v>28758</v>
-      </c>
-      <c r="D21" s="3">
-        <v>37891</v>
+        <v>22953</v>
+      </c>
+      <c r="D21" s="1">
+        <v>36568</v>
+      </c>
+      <c r="E21" t="s">
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>195</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s">
-        <v>166</v>
-      </c>
-      <c r="N21" s="3">
-        <v>28001</v>
+        <v>199</v>
+      </c>
+      <c r="N21" s="1">
+        <v>20210</v>
+      </c>
+      <c r="R21" t="s">
+        <v>200</v>
+      </c>
+      <c r="S21" t="s">
+        <v>201</v>
       </c>
       <c r="T21" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="U21" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>41251</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>42055</v>
+        <v>204</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>41358</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C22" s="1">
-        <v>27925</v>
-      </c>
-      <c r="D22" s="3">
-        <v>36471</v>
+        <v>15258</v>
+      </c>
+      <c r="D22" s="1">
+        <v>26796</v>
+      </c>
+      <c r="E22" t="s">
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s">
-        <v>177</v>
-      </c>
-      <c r="N22" s="3">
-        <v>27702</v>
+        <v>211</v>
+      </c>
+      <c r="N22" s="1">
+        <v>18108</v>
       </c>
       <c r="R22" t="s">
-        <v>178</v>
-      </c>
-      <c r="S22" t="s">
-        <v>179</v>
-      </c>
-      <c r="T22" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="U22" t="s">
-        <v>181</v>
-      </c>
-      <c r="X22" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>38775</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>41867</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="C23" s="1">
-        <v>13398</v>
-      </c>
-      <c r="D23" s="3">
-        <v>21434</v>
+        <v>42305</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" t="s">
-        <v>187</v>
+        <v>216</v>
+      </c>
+      <c r="H23" t="s">
+        <v>217</v>
+      </c>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+      <c r="J23" t="s">
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="M23" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="1">
+        <v>42160</v>
+      </c>
+      <c r="R23" t="s">
+        <v>222</v>
+      </c>
+      <c r="U23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1003</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>1004</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1005</v>
+        <v>225</v>
+      </c>
+      <c r="C24" s="1">
+        <v>21243</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24">
+        <v>986716621</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="M24" t="s">
+        <v>229</v>
+      </c>
+      <c r="X24" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="C25" s="1">
-        <v>22953</v>
-      </c>
-      <c r="D25" s="3">
-        <v>36568</v>
-      </c>
-      <c r="E25" t="s">
-        <v>191</v>
+        <v>18250</v>
       </c>
       <c r="F25" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>194</v>
-      </c>
-      <c r="I25" t="s">
-        <v>195</v>
-      </c>
-      <c r="J25" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>197</v>
-      </c>
-      <c r="M25" t="s">
-        <v>198</v>
-      </c>
-      <c r="N25" s="3">
-        <v>20210</v>
-      </c>
-      <c r="R25" t="s">
-        <v>199</v>
-      </c>
-      <c r="S25" t="s">
-        <v>200</v>
-      </c>
-      <c r="T25" t="s">
-        <v>201</v>
-      </c>
-      <c r="U25" t="s">
-        <v>202</v>
-      </c>
-      <c r="X25" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>41358</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="C26" s="1">
-        <v>15258</v>
-      </c>
-      <c r="D26" s="3">
-        <v>26796</v>
-      </c>
-      <c r="E26" t="s">
-        <v>205</v>
+        <v>31513</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41564</v>
       </c>
       <c r="F26" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>207</v>
+        <v>239</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s">
-        <v>210</v>
-      </c>
-      <c r="N26" s="3">
-        <v>18108</v>
+        <v>242</v>
+      </c>
+      <c r="N26" s="1">
+        <v>29980</v>
       </c>
       <c r="R26" t="s">
-        <v>211</v>
+        <v>243</v>
+      </c>
+      <c r="T26" t="s">
+        <v>244</v>
       </c>
       <c r="U26" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="C27" s="1">
-        <v>42305</v>
+        <v>23284</v>
+      </c>
+      <c r="D27" s="1">
+        <v>36414</v>
+      </c>
+      <c r="E27" t="s">
+        <v>247</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
-      </c>
-      <c r="H27" t="s">
-        <v>216</v>
-      </c>
-      <c r="I27" t="s">
-        <v>217</v>
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>249</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s">
-        <v>220</v>
-      </c>
-      <c r="N27" s="3">
-        <v>42160</v>
+        <v>252</v>
+      </c>
+      <c r="N27" s="1">
+        <v>25053</v>
       </c>
       <c r="R27" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="U27" t="s">
-        <v>222</v>
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>38348</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C28" s="1">
-        <v>21243</v>
+        <v>42219</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28">
-        <v>986716621</v>
-      </c>
-      <c r="I28" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s">
-        <v>228</v>
-      </c>
-      <c r="X28" t="s">
-        <v>229</v>
+        <v>259</v>
+      </c>
+      <c r="N28" s="1">
+        <v>42066</v>
+      </c>
+      <c r="R28" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C29" s="1">
-        <v>18250</v>
+        <v>11637</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1">
-        <v>31513</v>
-      </c>
-      <c r="D30" s="3">
-        <v>41564</v>
+        <v>33382</v>
+      </c>
+      <c r="E30" t="s">
+        <v>268</v>
       </c>
       <c r="F30" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
-      </c>
-      <c r="N30" s="3">
-        <v>29980</v>
+        <v>274</v>
+      </c>
+      <c r="N30" s="1">
+        <v>35981</v>
       </c>
       <c r="R30" t="s">
-        <v>242</v>
-      </c>
-      <c r="T30" t="s">
-        <v>243</v>
+        <v>275</v>
+      </c>
+      <c r="S30" t="s">
+        <v>20</v>
       </c>
       <c r="U30" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="C31" s="1">
-        <v>23284</v>
-      </c>
-      <c r="D31" s="3">
-        <v>36414</v>
+        <v>32052</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
-      </c>
-      <c r="F31" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>280</v>
+      </c>
+      <c r="H31" t="s">
+        <v>281</v>
+      </c>
+      <c r="I31" t="s">
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
-      </c>
-      <c r="M31" t="s">
-        <v>251</v>
-      </c>
-      <c r="N31" s="3">
-        <v>25053</v>
-      </c>
-      <c r="R31" t="s">
-        <v>252</v>
-      </c>
-      <c r="U31" t="s">
-        <v>253</v>
-      </c>
-      <c r="X31" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>38348</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C32" s="1">
-        <v>42219</v>
+        <v>21407</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
+      </c>
+      <c r="G32" t="s">
+        <v>288</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s">
-        <v>258</v>
-      </c>
-      <c r="N32" s="3">
-        <v>42066</v>
+        <v>292</v>
+      </c>
+      <c r="N32" s="1">
+        <v>30933</v>
       </c>
       <c r="R32" t="s">
-        <v>259</v>
+        <v>293</v>
+      </c>
+      <c r="U32" t="s">
+        <v>294</v>
+      </c>
+      <c r="V32" t="s">
+        <v>295</v>
+      </c>
+      <c r="X32" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>32237</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1007</v>
+        <v>301</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31472</v>
       </c>
       <c r="G33" t="s">
-        <v>1008</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1009</v>
+        <v>302</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1010</v>
+        <v>306</v>
       </c>
       <c r="B34" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D34" s="3">
-        <v>28461</v>
+        <v>307</v>
+      </c>
+      <c r="C34" s="1">
+        <v>16825</v>
+      </c>
+      <c r="D34" s="1">
+        <v>27726</v>
       </c>
       <c r="F34" t="s">
-        <v>1012</v>
+        <v>308</v>
       </c>
       <c r="G34" t="s">
-        <v>1013</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1014</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>1015</v>
+        <v>310</v>
       </c>
       <c r="M34" t="s">
-        <v>1016</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1017</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1018</v>
-      </c>
-      <c r="U34" t="s">
-        <v>1019</v>
+        <v>311</v>
+      </c>
+      <c r="N34" s="1">
+        <v>18443</v>
+      </c>
+      <c r="X34" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>30554</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>27921</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>315</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1020</v>
+        <v>306</v>
       </c>
       <c r="B35" t="s">
-        <v>1021</v>
+        <v>317</v>
+      </c>
+      <c r="C35" s="1">
+        <v>46112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>318</v>
       </c>
       <c r="F35" t="s">
-        <v>1022</v>
+        <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>1023</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>260</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>322</v>
       </c>
       <c r="C36" s="1">
-        <v>11637</v>
+        <v>17599</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
-      </c>
-      <c r="G36" t="s">
-        <v>263</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>325</v>
       </c>
       <c r="C37" s="1">
-        <v>33382</v>
-      </c>
-      <c r="E37" t="s">
-        <v>267</v>
+        <v>25722</v>
       </c>
       <c r="F37" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" t="s">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
-      </c>
-      <c r="J37" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
-      </c>
-      <c r="M37" t="s">
-        <v>273</v>
-      </c>
-      <c r="N37" s="3">
-        <v>35981</v>
-      </c>
-      <c r="R37" t="s">
-        <v>274</v>
-      </c>
-      <c r="S37" t="s">
-        <v>20</v>
-      </c>
-      <c r="U37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C38" s="1">
-        <v>32052</v>
-      </c>
-      <c r="E38" t="s">
-        <v>278</v>
-      </c>
-      <c r="G38" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" t="s">
-        <v>280</v>
-      </c>
-      <c r="I38" t="s">
-        <v>281</v>
-      </c>
-      <c r="J38" t="s">
-        <v>282</v>
-      </c>
-      <c r="K38" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="C39" s="1">
-        <v>21407</v>
+        <v>27548</v>
+      </c>
+      <c r="D39" s="1">
+        <v>36062</v>
+      </c>
+      <c r="E39" t="s">
+        <v>331</v>
       </c>
       <c r="F39" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="G39" t="s">
-        <v>287</v>
-      </c>
-      <c r="I39" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="M39" t="s">
-        <v>291</v>
-      </c>
-      <c r="N39" s="3">
-        <v>30933</v>
+        <v>336</v>
+      </c>
+      <c r="N39" s="1">
+        <v>28319</v>
       </c>
       <c r="R39" t="s">
-        <v>292</v>
+        <v>337</v>
+      </c>
+      <c r="T39" t="s">
+        <v>338</v>
       </c>
       <c r="U39" t="s">
-        <v>293</v>
-      </c>
-      <c r="V39" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="X39" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>32237</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>297</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>299</v>
+        <v>340</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>35504</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>36834</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="B40" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="C40" s="1">
-        <v>31472</v>
+        <v>30504</v>
       </c>
       <c r="G40" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="J40" t="s">
-        <v>303</v>
+        <v>347</v>
+      </c>
+      <c r="K40" t="s">
+        <v>348</v>
       </c>
       <c r="M40" t="s">
-        <v>304</v>
+        <v>349</v>
+      </c>
+      <c r="N40" s="1">
+        <v>40928</v>
+      </c>
+      <c r="X40" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>41443</v>
       </c>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="C41" s="1">
-        <v>16825</v>
-      </c>
-      <c r="D41" s="3">
-        <v>27726</v>
+        <v>27665</v>
+      </c>
+      <c r="D41" s="1">
+        <v>40084</v>
+      </c>
+      <c r="E41" t="s">
+        <v>352</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s">
-        <v>310</v>
-      </c>
-      <c r="N41" s="3">
-        <v>18443</v>
+        <v>357</v>
+      </c>
+      <c r="N41" s="1">
+        <v>28088</v>
+      </c>
+      <c r="R41" t="s">
+        <v>358</v>
+      </c>
+      <c r="S41" t="s">
+        <v>359</v>
+      </c>
+      <c r="U41" t="s">
+        <v>360</v>
       </c>
       <c r="X41" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>30554</v>
+        <v>361</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>41343</v>
       </c>
       <c r="AI41" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>27921</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>313</v>
-      </c>
-      <c r="AP41" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ41" t="s">
-        <v>315</v>
+        <v>362</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>41343</v>
       </c>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="C42" s="1">
-        <v>46112</v>
-      </c>
-      <c r="E42" t="s">
-        <v>317</v>
-      </c>
-      <c r="F42" t="s">
-        <v>318</v>
+        <v>42285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>365</v>
       </c>
       <c r="K42" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1024</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D43" s="3">
-        <v>41971</v>
+        <v>368</v>
+      </c>
+      <c r="C43" s="1">
+        <v>29314</v>
+      </c>
+      <c r="E43" t="s">
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>1026</v>
+        <v>370</v>
+      </c>
+      <c r="I43" t="s">
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>1027</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M43" t="s">
-        <v>1029</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1030</v>
-      </c>
-      <c r="U43" t="s">
-        <v>1031</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>374</v>
       </c>
       <c r="C44" s="1">
-        <v>17599</v>
+        <v>42369</v>
       </c>
       <c r="F44" t="s">
-        <v>322</v>
+        <v>375</v>
       </c>
       <c r="K44" t="s">
-        <v>323</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="B45" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="C45" s="1">
-        <v>25722</v>
+        <v>23504</v>
+      </c>
+      <c r="D45" s="1">
+        <v>31976</v>
       </c>
       <c r="F45" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="G45" t="s">
-        <v>326</v>
+        <v>380</v>
+      </c>
+      <c r="H45" t="s">
+        <v>381</v>
       </c>
       <c r="I45" t="s">
-        <v>327</v>
+        <v>382</v>
+      </c>
+      <c r="J45" t="s">
+        <v>383</v>
       </c>
       <c r="K45" t="s">
-        <v>328</v>
+        <v>384</v>
+      </c>
+      <c r="M45" t="s">
+        <v>385</v>
+      </c>
+      <c r="N45" s="1">
+        <v>23454</v>
+      </c>
+      <c r="R45" t="s">
+        <v>386</v>
+      </c>
+      <c r="T45" t="s">
+        <v>387</v>
+      </c>
+      <c r="U45" t="s">
+        <v>388</v>
+      </c>
+      <c r="X45" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>38637</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>16075</v>
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
-      </c>
-      <c r="C46" s="1">
-        <v>27548</v>
-      </c>
-      <c r="D46" s="3">
-        <v>36062</v>
+        <v>392</v>
       </c>
       <c r="E46" t="s">
-        <v>330</v>
+        <v>393</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>332</v>
+        <v>395</v>
+      </c>
+      <c r="H46" t="s">
+        <v>396</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>334</v>
-      </c>
-      <c r="M46" t="s">
-        <v>335</v>
-      </c>
-      <c r="N46" s="3">
-        <v>28319</v>
-      </c>
-      <c r="R46" t="s">
-        <v>336</v>
-      </c>
-      <c r="T46" t="s">
-        <v>337</v>
-      </c>
-      <c r="U46" t="s">
-        <v>338</v>
-      </c>
-      <c r="X46" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>35504</v>
-      </c>
-      <c r="AI46" t="s">
-        <v>340</v>
-      </c>
-      <c r="AJ46" s="3">
-        <v>36834</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>341</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="B47" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D47" s="3">
-        <v>36603</v>
+        <v>401</v>
+      </c>
+      <c r="C47" s="1">
+        <v>19516</v>
+      </c>
+      <c r="F47" t="s">
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>1033</v>
+        <v>403</v>
+      </c>
+      <c r="I47" t="s">
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>1034</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>1035</v>
+        <v>406</v>
       </c>
       <c r="M47" t="s">
-        <v>1036</v>
-      </c>
-      <c r="X47" t="s">
-        <v>1037</v>
+        <v>407</v>
+      </c>
+      <c r="N47" s="1">
+        <v>33007</v>
+      </c>
+      <c r="R47" t="s">
+        <v>408</v>
+      </c>
+      <c r="T47" t="s">
+        <v>409</v>
+      </c>
+      <c r="U47" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="C48" s="1">
-        <v>30504</v>
+        <v>23312</v>
+      </c>
+      <c r="D48" s="1">
+        <v>31493</v>
+      </c>
+      <c r="F48" t="s">
+        <v>413</v>
       </c>
       <c r="G48" t="s">
-        <v>344</v>
+        <v>414</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="J48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K48" t="s">
+        <v>417</v>
+      </c>
+      <c r="M48" t="s">
+        <v>418</v>
+      </c>
+      <c r="N48" s="1">
+        <v>24372</v>
+      </c>
+      <c r="R48" t="s">
+        <v>419</v>
+      </c>
+      <c r="S48" t="s">
+        <v>20</v>
+      </c>
+      <c r="T48" t="s">
+        <v>420</v>
+      </c>
+      <c r="U48" t="s">
+        <v>421</v>
+      </c>
+      <c r="X48" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>32806</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>387</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>424</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>425</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>33551</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>426</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>427</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>429</v>
+      </c>
+      <c r="B49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" s="1">
+        <v>23063</v>
+      </c>
+      <c r="D49" s="1">
+        <v>32907</v>
+      </c>
+      <c r="F49" t="s">
+        <v>431</v>
+      </c>
+      <c r="G49" t="s">
+        <v>432</v>
+      </c>
+      <c r="H49" t="s">
+        <v>433</v>
+      </c>
+      <c r="I49" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="M49" t="s">
+        <v>436</v>
+      </c>
+      <c r="N49" s="1">
+        <v>22718</v>
+      </c>
+      <c r="R49" t="s">
+        <v>437</v>
+      </c>
+      <c r="T49" t="s">
+        <v>438</v>
+      </c>
+      <c r="U49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>440</v>
+      </c>
+      <c r="B50" t="s">
+        <v>441</v>
+      </c>
+      <c r="C50" s="1">
+        <v>21157</v>
+      </c>
+      <c r="D50" s="1">
+        <v>35791</v>
+      </c>
+      <c r="F50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
+        <v>443</v>
+      </c>
+      <c r="H50" t="s">
+        <v>444</v>
+      </c>
+      <c r="I50" t="s">
+        <v>445</v>
+      </c>
+      <c r="J50" t="s">
+        <v>446</v>
+      </c>
+      <c r="K50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>448</v>
+      </c>
+      <c r="B51" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="1">
+        <v>16925</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>450</v>
+      </c>
+      <c r="F51" t="s">
+        <v>451</v>
+      </c>
+      <c r="G51" t="s">
+        <v>452</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C52" s="1">
+        <v>26871</v>
+      </c>
+      <c r="D52" s="1">
+        <v>36050</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>458</v>
+      </c>
+      <c r="I52" t="s">
+        <v>459</v>
+      </c>
+      <c r="J52" t="s">
+        <v>460</v>
+      </c>
+      <c r="K52" t="s">
+        <v>461</v>
+      </c>
+      <c r="M52" t="s">
+        <v>462</v>
+      </c>
+      <c r="N52" s="1">
+        <v>26032</v>
+      </c>
+      <c r="R52" t="s">
+        <v>463</v>
+      </c>
+      <c r="T52" t="s">
+        <v>464</v>
+      </c>
+      <c r="U52" t="s">
+        <v>465</v>
+      </c>
+      <c r="X52" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>39707</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>467</v>
+      </c>
+      <c r="B53" t="s">
+        <v>468</v>
+      </c>
+      <c r="C53" s="1">
+        <v>35532</v>
+      </c>
+      <c r="E53" t="s">
+        <v>469</v>
+      </c>
+      <c r="F53" t="s">
+        <v>470</v>
+      </c>
+      <c r="G53" t="s">
+        <v>471</v>
+      </c>
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" t="s">
+        <v>474</v>
+      </c>
+      <c r="M53" t="s">
+        <v>475</v>
+      </c>
+      <c r="N53" s="1">
+        <v>17867</v>
+      </c>
+      <c r="R53" t="s">
+        <v>476</v>
+      </c>
+      <c r="T53" t="s">
+        <v>477</v>
+      </c>
+      <c r="U53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" t="s">
+        <v>480</v>
+      </c>
+      <c r="C54" s="1">
+        <v>32973</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42070</v>
+      </c>
+      <c r="G54" t="s">
+        <v>481</v>
+      </c>
+      <c r="I54" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" t="s">
+        <v>484</v>
+      </c>
+      <c r="M54" t="s">
+        <v>485</v>
+      </c>
+      <c r="N54" s="1">
+        <v>33515</v>
+      </c>
+      <c r="R54" t="s">
+        <v>486</v>
+      </c>
+      <c r="T54" t="s">
+        <v>487</v>
+      </c>
+      <c r="U54" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>479</v>
+      </c>
+      <c r="B55" t="s">
+        <v>489</v>
+      </c>
+      <c r="C55" s="1">
+        <v>31705</v>
+      </c>
+      <c r="D55" s="1">
+        <v>40578</v>
+      </c>
+      <c r="F55" t="s">
+        <v>490</v>
+      </c>
+      <c r="G55" t="s">
+        <v>491</v>
+      </c>
+      <c r="H55" t="s">
+        <v>492</v>
+      </c>
+      <c r="I55" t="s">
+        <v>493</v>
+      </c>
+      <c r="J55" t="s">
+        <v>494</v>
+      </c>
+      <c r="K55" t="s">
+        <v>495</v>
+      </c>
+      <c r="M55" t="s">
+        <v>496</v>
+      </c>
+      <c r="N55" s="1">
+        <v>31506</v>
+      </c>
+      <c r="R55" t="s">
+        <v>497</v>
+      </c>
+      <c r="U55" t="s">
+        <v>498</v>
+      </c>
+      <c r="X55" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B56" t="s">
+        <v>501</v>
+      </c>
+      <c r="C56" s="1">
+        <v>30076</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42239</v>
+      </c>
+      <c r="E56" t="s">
+        <v>502</v>
+      </c>
+      <c r="F56" t="s">
+        <v>503</v>
+      </c>
+      <c r="G56" t="s">
+        <v>504</v>
+      </c>
+      <c r="H56" t="s">
+        <v>505</v>
+      </c>
+      <c r="I56" t="s">
+        <v>506</v>
+      </c>
+      <c r="J56" t="s">
+        <v>507</v>
+      </c>
+      <c r="K56" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" t="s">
+        <v>509</v>
+      </c>
+      <c r="N56" s="1">
+        <v>29812</v>
+      </c>
+      <c r="R56" t="s">
+        <v>510</v>
+      </c>
+      <c r="T56" t="s">
+        <v>506</v>
+      </c>
+      <c r="U56" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>512</v>
+      </c>
+      <c r="B57" t="s">
+        <v>513</v>
+      </c>
+      <c r="C57" s="1">
+        <v>17106</v>
+      </c>
+      <c r="F57" s="2">
+        <v>58427037</v>
+      </c>
+      <c r="G57" t="s">
+        <v>514</v>
+      </c>
+      <c r="I57" t="s">
+        <v>515</v>
+      </c>
+      <c r="J57" t="s">
+        <v>516</v>
+      </c>
+      <c r="K57" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>518</v>
+      </c>
+      <c r="B58" t="s">
+        <v>519</v>
+      </c>
+      <c r="E58" t="s">
+        <v>520</v>
+      </c>
+      <c r="F58" t="s">
+        <v>521</v>
+      </c>
+      <c r="G58" t="s">
+        <v>522</v>
+      </c>
+      <c r="H58" t="s">
+        <v>523</v>
+      </c>
+      <c r="I58" t="s">
+        <v>524</v>
+      </c>
+      <c r="J58" t="s">
+        <v>525</v>
+      </c>
+      <c r="K58" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>527</v>
+      </c>
+      <c r="B59" t="s">
+        <v>528</v>
+      </c>
+      <c r="C59" s="1">
+        <v>19846</v>
+      </c>
+      <c r="E59" t="s">
+        <v>529</v>
+      </c>
+      <c r="F59" t="s">
+        <v>530</v>
+      </c>
+      <c r="G59" t="s">
+        <v>531</v>
+      </c>
+      <c r="H59" t="s">
+        <v>532</v>
+      </c>
+      <c r="I59" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" t="s">
+        <v>534</v>
+      </c>
+      <c r="K59" t="s">
+        <v>535</v>
+      </c>
+      <c r="M59" t="s">
+        <v>536</v>
+      </c>
+      <c r="N59" s="1">
+        <v>11947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>537</v>
+      </c>
+      <c r="B60" t="s">
+        <v>538</v>
+      </c>
+      <c r="C60" s="1">
+        <v>23452</v>
+      </c>
+      <c r="D60" s="1">
+        <v>34944</v>
+      </c>
+      <c r="E60" t="s">
+        <v>539</v>
+      </c>
+      <c r="F60" t="s">
+        <v>540</v>
+      </c>
+      <c r="G60">
+        <v>952793807</v>
+      </c>
+      <c r="I60" t="s">
+        <v>541</v>
+      </c>
+      <c r="J60" t="s">
+        <v>542</v>
+      </c>
+      <c r="K60" t="s">
+        <v>543</v>
+      </c>
+      <c r="M60" t="s">
+        <v>544</v>
+      </c>
+      <c r="N60" s="1">
+        <v>25707</v>
+      </c>
+      <c r="X60" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>35118</v>
+      </c>
+      <c r="AC60">
+        <v>983976750</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>546</v>
+      </c>
+      <c r="AJ60" s="1">
+        <v>39731</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>547</v>
+      </c>
+      <c r="B61" t="s">
+        <v>548</v>
+      </c>
+      <c r="C61" s="1">
+        <v>23347</v>
+      </c>
+      <c r="D61" s="1">
+        <v>31892</v>
+      </c>
+      <c r="E61" t="s">
+        <v>549</v>
+      </c>
+      <c r="F61" t="s">
+        <v>550</v>
+      </c>
+      <c r="G61" t="s">
+        <v>551</v>
+      </c>
+      <c r="H61" t="s">
+        <v>552</v>
+      </c>
+      <c r="I61" t="s">
+        <v>553</v>
+      </c>
+      <c r="J61" t="s">
+        <v>554</v>
+      </c>
+      <c r="K61" t="s">
+        <v>555</v>
+      </c>
+      <c r="M61" t="s">
+        <v>556</v>
+      </c>
+      <c r="N61" s="1">
+        <v>22588</v>
+      </c>
+      <c r="R61" t="s">
+        <v>557</v>
+      </c>
+      <c r="X61" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>32831</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>559</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>560</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>562</v>
+      </c>
+      <c r="B62" t="s">
+        <v>563</v>
+      </c>
+      <c r="C62" s="1">
+        <v>13624</v>
+      </c>
+      <c r="F62" t="s">
+        <v>564</v>
+      </c>
+      <c r="G62" t="s">
+        <v>565</v>
+      </c>
+      <c r="J62" t="s">
+        <v>566</v>
+      </c>
+      <c r="K62" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>568</v>
+      </c>
+      <c r="B63" t="s">
+        <v>569</v>
+      </c>
+      <c r="C63" s="1">
+        <v>19365</v>
+      </c>
+      <c r="F63" t="s">
+        <v>570</v>
+      </c>
+      <c r="G63" t="s">
+        <v>571</v>
+      </c>
+      <c r="K63" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>568</v>
+      </c>
+      <c r="B64" t="s">
+        <v>573</v>
+      </c>
+      <c r="C64" s="1">
+        <v>11437</v>
+      </c>
+      <c r="E64" t="s">
+        <v>574</v>
+      </c>
+      <c r="K64" t="s">
+        <v>575</v>
+      </c>
+      <c r="M64" t="s">
+        <v>576</v>
+      </c>
+      <c r="N64" s="1">
+        <v>21074</v>
+      </c>
+      <c r="R64" t="s">
+        <v>577</v>
+      </c>
+      <c r="T64" t="s">
+        <v>578</v>
+      </c>
+      <c r="U64" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>580</v>
+      </c>
+      <c r="B65" t="s">
+        <v>581</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42276</v>
+      </c>
+      <c r="D65" s="1">
+        <v>32914</v>
+      </c>
+      <c r="E65" t="s">
+        <v>582</v>
+      </c>
+      <c r="G65" t="s">
+        <v>583</v>
+      </c>
+      <c r="I65" t="s">
+        <v>584</v>
+      </c>
+      <c r="K65" t="s">
+        <v>585</v>
+      </c>
+      <c r="M65" t="s">
+        <v>586</v>
+      </c>
+      <c r="N65" s="1">
+        <v>42029</v>
+      </c>
+      <c r="R65" t="s">
+        <v>587</v>
+      </c>
+      <c r="T65" t="s">
+        <v>588</v>
+      </c>
+      <c r="X65" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>42041</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="66" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>591</v>
+      </c>
+      <c r="B66" t="s">
+        <v>592</v>
+      </c>
+      <c r="C66" s="1">
+        <v>25312</v>
+      </c>
+      <c r="D66" s="1">
+        <v>33812</v>
+      </c>
+      <c r="E66" t="s">
+        <v>593</v>
+      </c>
+      <c r="F66" t="s">
+        <v>594</v>
+      </c>
+      <c r="G66" t="s">
+        <v>595</v>
+      </c>
+      <c r="I66" t="s">
+        <v>596</v>
+      </c>
+      <c r="J66" t="s">
+        <v>597</v>
+      </c>
+      <c r="K66" t="s">
+        <v>598</v>
+      </c>
+      <c r="M66" t="s">
+        <v>599</v>
+      </c>
+      <c r="N66" s="1">
+        <v>26723</v>
+      </c>
+      <c r="R66" t="s">
+        <v>600</v>
+      </c>
+      <c r="X66" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>34674</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>602</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>37786</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>603</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>38503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>604</v>
+      </c>
+      <c r="B67" t="s">
+        <v>605</v>
+      </c>
+      <c r="F67" t="s">
+        <v>606</v>
+      </c>
+      <c r="G67" t="s">
+        <v>607</v>
+      </c>
+      <c r="K67" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>609</v>
+      </c>
+      <c r="B69" t="s">
+        <v>610</v>
+      </c>
+      <c r="C69" s="1">
+        <v>25901</v>
+      </c>
+      <c r="E69" t="s">
+        <v>611</v>
+      </c>
+      <c r="F69">
+        <v>37390051</v>
+      </c>
+      <c r="G69">
+        <v>956485154</v>
+      </c>
+      <c r="H69">
+        <v>37391224</v>
+      </c>
+      <c r="I69" t="s">
+        <v>612</v>
+      </c>
+      <c r="J69" t="s">
+        <v>613</v>
+      </c>
+      <c r="K69" t="s">
+        <v>614</v>
+      </c>
+      <c r="M69" t="s">
+        <v>615</v>
+      </c>
+      <c r="N69" s="1">
+        <v>34671</v>
+      </c>
+      <c r="R69">
+        <v>977852423</v>
+      </c>
+      <c r="U69" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>609</v>
+      </c>
+      <c r="B70" t="s">
+        <v>617</v>
+      </c>
+      <c r="C70" s="1">
+        <v>26933</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34251</v>
+      </c>
+      <c r="F70" t="s">
+        <v>618</v>
+      </c>
+      <c r="G70" t="s">
+        <v>619</v>
+      </c>
+      <c r="H70" t="s">
+        <v>620</v>
+      </c>
+      <c r="I70" t="s">
+        <v>621</v>
+      </c>
+      <c r="J70" t="s">
+        <v>622</v>
+      </c>
+      <c r="K70" t="s">
+        <v>623</v>
+      </c>
+      <c r="M70" t="s">
+        <v>624</v>
+      </c>
+      <c r="N70" s="1">
+        <v>24393</v>
+      </c>
+      <c r="R70" t="s">
+        <v>625</v>
+      </c>
+      <c r="T70" t="s">
+        <v>515</v>
+      </c>
+      <c r="U70" t="s">
+        <v>626</v>
+      </c>
+      <c r="X70" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>34412</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ70" s="1">
+        <v>37057</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>630</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>631</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>632</v>
+      </c>
+      <c r="AU70" s="1">
+        <v>37678</v>
+      </c>
+      <c r="AY70" t="s">
+        <v>633</v>
+      </c>
+      <c r="BB70" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="71" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>609</v>
+      </c>
+      <c r="B71" t="s">
+        <v>635</v>
+      </c>
+      <c r="C71" s="1">
+        <v>13397</v>
+      </c>
+      <c r="E71" t="s">
+        <v>636</v>
+      </c>
+      <c r="F71">
+        <v>47823061</v>
+      </c>
+      <c r="K71" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>638</v>
+      </c>
+      <c r="B72" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72" s="1">
+        <v>29829</v>
+      </c>
+      <c r="F72" t="s">
+        <v>640</v>
+      </c>
+      <c r="G72" t="s">
+        <v>641</v>
+      </c>
+      <c r="I72" t="s">
+        <v>642</v>
+      </c>
+      <c r="K72" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="73" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>644</v>
+      </c>
+      <c r="B73" t="s">
+        <v>645</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42045</v>
+      </c>
+      <c r="D73" s="1">
+        <v>32760</v>
+      </c>
+      <c r="F73" t="s">
+        <v>646</v>
+      </c>
+      <c r="I73" t="s">
         <v>346</v>
       </c>
-      <c r="K48" t="s">
-        <v>347</v>
-      </c>
-      <c r="M48" t="s">
-        <v>348</v>
-      </c>
-      <c r="N48" s="3">
-        <v>40928</v>
-      </c>
-      <c r="X48" t="s">
-        <v>349</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>41443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>342</v>
-      </c>
-      <c r="B49" t="s">
-        <v>350</v>
-      </c>
-      <c r="C49" s="1">
-        <v>27665</v>
-      </c>
-      <c r="D49" s="3">
-        <v>40084</v>
-      </c>
-      <c r="E49" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" t="s">
-        <v>353</v>
-      </c>
-      <c r="J49" t="s">
-        <v>354</v>
-      </c>
-      <c r="K49" t="s">
-        <v>355</v>
-      </c>
-      <c r="M49" t="s">
-        <v>356</v>
-      </c>
-      <c r="N49" s="3">
-        <v>28088</v>
-      </c>
-      <c r="R49" t="s">
-        <v>357</v>
-      </c>
-      <c r="S49" t="s">
-        <v>358</v>
-      </c>
-      <c r="U49" t="s">
-        <v>359</v>
-      </c>
-      <c r="X49" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>41343</v>
-      </c>
-      <c r="AI49" t="s">
-        <v>361</v>
-      </c>
-      <c r="AJ49" s="3">
-        <v>41343</v>
-      </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" s="1">
-        <v>42285</v>
-      </c>
-      <c r="G50" t="s">
-        <v>364</v>
-      </c>
-      <c r="K50" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>366</v>
-      </c>
-      <c r="B51" t="s">
-        <v>367</v>
-      </c>
-      <c r="C51" s="1">
-        <v>29314</v>
-      </c>
-      <c r="E51" t="s">
-        <v>368</v>
-      </c>
-      <c r="G51" t="s">
-        <v>369</v>
-      </c>
-      <c r="I51" t="s">
-        <v>370</v>
-      </c>
-      <c r="J51" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>372</v>
-      </c>
-      <c r="B52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" s="1">
-        <v>42369</v>
-      </c>
-      <c r="F52" t="s">
-        <v>374</v>
-      </c>
-      <c r="K52" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>376</v>
-      </c>
-      <c r="B53" t="s">
-        <v>377</v>
-      </c>
-      <c r="C53" s="1">
-        <v>23504</v>
-      </c>
-      <c r="D53" s="3">
-        <v>31976</v>
-      </c>
-      <c r="F53" t="s">
-        <v>378</v>
-      </c>
-      <c r="G53" t="s">
-        <v>379</v>
-      </c>
-      <c r="H53" t="s">
-        <v>380</v>
-      </c>
-      <c r="I53" t="s">
-        <v>381</v>
-      </c>
-      <c r="J53" t="s">
-        <v>382</v>
-      </c>
-      <c r="K53" t="s">
-        <v>383</v>
-      </c>
-      <c r="M53" t="s">
-        <v>384</v>
-      </c>
-      <c r="N53" s="3">
-        <v>23454</v>
-      </c>
-      <c r="R53" t="s">
-        <v>385</v>
-      </c>
-      <c r="T53" t="s">
-        <v>386</v>
-      </c>
-      <c r="U53" t="s">
+      <c r="K73" t="s">
+        <v>647</v>
+      </c>
+      <c r="M73" t="s">
+        <v>648</v>
+      </c>
+      <c r="N73" s="1">
+        <v>42272</v>
+      </c>
+      <c r="R73" t="s">
+        <v>649</v>
+      </c>
+      <c r="T73" t="s">
+        <v>346</v>
+      </c>
+      <c r="U73" t="s">
+        <v>650</v>
+      </c>
+      <c r="X73" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>33030</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>654</v>
+      </c>
+      <c r="AJ73" s="1">
+        <v>35415</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>655</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>656</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>657</v>
+      </c>
+      <c r="AU73" s="1">
+        <v>40203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>658</v>
+      </c>
+      <c r="B74" t="s">
+        <v>659</v>
+      </c>
+      <c r="C74" s="1">
+        <v>30541</v>
+      </c>
+      <c r="D74" s="1">
+        <v>40153</v>
+      </c>
+      <c r="F74" t="s">
+        <v>660</v>
+      </c>
+      <c r="G74" t="s">
+        <v>661</v>
+      </c>
+      <c r="J74" t="s">
+        <v>662</v>
+      </c>
+      <c r="K74" t="s">
+        <v>663</v>
+      </c>
+      <c r="M74" t="s">
+        <v>664</v>
+      </c>
+      <c r="R74" t="s">
+        <v>665</v>
+      </c>
+      <c r="U74" t="s">
+        <v>666</v>
+      </c>
+      <c r="X74" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>658</v>
+      </c>
+      <c r="B75" t="s">
+        <v>668</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42168</v>
+      </c>
+      <c r="D75" s="1">
+        <v>29449</v>
+      </c>
+      <c r="G75" t="s">
+        <v>669</v>
+      </c>
+      <c r="I75" t="s">
+        <v>670</v>
+      </c>
+      <c r="J75" t="s">
+        <v>671</v>
+      </c>
+      <c r="K75" t="s">
+        <v>672</v>
+      </c>
+      <c r="M75" t="s">
+        <v>673</v>
+      </c>
+      <c r="N75" s="1">
+        <v>42109</v>
+      </c>
+      <c r="T75" t="s">
+        <v>674</v>
+      </c>
+      <c r="U75" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>676</v>
+      </c>
+      <c r="B76" t="s">
+        <v>677</v>
+      </c>
+      <c r="C76" s="1">
+        <v>17961</v>
+      </c>
+      <c r="D76" s="1">
+        <v>25901</v>
+      </c>
+      <c r="F76" t="s">
+        <v>678</v>
+      </c>
+      <c r="G76" t="s">
+        <v>679</v>
+      </c>
+      <c r="I76" t="s">
+        <v>158</v>
+      </c>
+      <c r="J76" t="s">
+        <v>680</v>
+      </c>
+      <c r="K76" t="s">
+        <v>681</v>
+      </c>
+      <c r="M76" t="s">
+        <v>682</v>
+      </c>
+      <c r="N76" s="1">
+        <v>27432</v>
+      </c>
+      <c r="R76" t="s">
+        <v>683</v>
+      </c>
+      <c r="T76" t="s">
+        <v>684</v>
+      </c>
+      <c r="X76" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>30506</v>
+      </c>
+      <c r="Z76" s="1">
+        <v>39613</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>688</v>
+      </c>
+      <c r="B77" t="s">
+        <v>689</v>
+      </c>
+      <c r="C77" s="1">
+        <v>16662</v>
+      </c>
+      <c r="D77" s="1">
+        <v>29344</v>
+      </c>
+      <c r="F77" t="s">
+        <v>690</v>
+      </c>
+      <c r="G77" t="s">
+        <v>691</v>
+      </c>
+      <c r="I77" t="s">
+        <v>692</v>
+      </c>
+      <c r="J77" t="s">
+        <v>693</v>
+      </c>
+      <c r="K77" t="s">
+        <v>694</v>
+      </c>
+      <c r="M77" t="s">
+        <v>695</v>
+      </c>
+      <c r="N77" s="1">
+        <v>19975</v>
+      </c>
+      <c r="R77" t="s">
+        <v>696</v>
+      </c>
+      <c r="U77" t="s">
+        <v>697</v>
+      </c>
+      <c r="X77" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>30035</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>700</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>701</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>702</v>
+      </c>
+      <c r="AJ77" s="1">
+        <v>31533</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>703</v>
+      </c>
+      <c r="AP77" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>688</v>
+      </c>
+      <c r="B78" t="s">
+        <v>705</v>
+      </c>
+      <c r="C78" s="1">
+        <v>30939</v>
+      </c>
+      <c r="D78" s="1">
+        <v>41237</v>
+      </c>
+      <c r="G78" t="s">
+        <v>706</v>
+      </c>
+      <c r="I78" t="s">
+        <v>707</v>
+      </c>
+      <c r="J78" t="s">
+        <v>708</v>
+      </c>
+      <c r="K78" t="s">
+        <v>709</v>
+      </c>
+      <c r="M78" t="s">
+        <v>710</v>
+      </c>
+      <c r="N78" s="1">
+        <v>31271</v>
+      </c>
+      <c r="R78" t="s">
+        <v>711</v>
+      </c>
+      <c r="T78" t="s">
+        <v>707</v>
+      </c>
+      <c r="U78" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="79" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>713</v>
+      </c>
+      <c r="B79" t="s">
+        <v>714</v>
+      </c>
+      <c r="C79" s="1">
+        <v>13306</v>
+      </c>
+      <c r="D79" s="1">
+        <v>25907</v>
+      </c>
+      <c r="E79" t="s">
+        <v>715</v>
+      </c>
+      <c r="F79" t="s">
+        <v>716</v>
+      </c>
+      <c r="G79" t="s">
+        <v>717</v>
+      </c>
+      <c r="K79" t="s">
+        <v>718</v>
+      </c>
+      <c r="M79" t="s">
+        <v>719</v>
+      </c>
+      <c r="N79" s="1">
+        <v>14608</v>
+      </c>
+      <c r="X79" t="s">
+        <v>720</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>36213</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>721</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>722</v>
+      </c>
+      <c r="AJ79" s="1">
+        <v>36811</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="80" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>713</v>
+      </c>
+      <c r="B80" t="s">
+        <v>724</v>
+      </c>
+      <c r="C80" s="1">
+        <v>11194</v>
+      </c>
+      <c r="D80" s="1">
+        <v>22309</v>
+      </c>
+      <c r="F80" t="s">
+        <v>550</v>
+      </c>
+      <c r="G80" t="s">
+        <v>725</v>
+      </c>
+      <c r="K80" t="s">
+        <v>555</v>
+      </c>
+      <c r="M80" t="s">
+        <v>726</v>
+      </c>
+      <c r="N80" s="1">
+        <v>11421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>727</v>
+      </c>
+      <c r="B81" t="s">
+        <v>728</v>
+      </c>
+      <c r="C81" s="1">
+        <v>30670</v>
+      </c>
+      <c r="D81" s="1">
+        <v>41930</v>
+      </c>
+      <c r="F81" t="s">
+        <v>729</v>
+      </c>
+      <c r="G81" t="s">
+        <v>730</v>
+      </c>
+      <c r="I81" t="s">
+        <v>533</v>
+      </c>
+      <c r="J81" t="s">
+        <v>731</v>
+      </c>
+      <c r="K81" t="s">
+        <v>732</v>
+      </c>
+      <c r="M81" t="s">
+        <v>733</v>
+      </c>
+      <c r="N81" s="1">
+        <v>32052</v>
+      </c>
+      <c r="R81" t="s">
+        <v>734</v>
+      </c>
+      <c r="T81" t="s">
+        <v>533</v>
+      </c>
+      <c r="U81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>736</v>
+      </c>
+      <c r="B82" t="s">
+        <v>737</v>
+      </c>
+      <c r="C82" s="1">
+        <v>15251</v>
+      </c>
+      <c r="E82" t="s">
+        <v>738</v>
+      </c>
+      <c r="F82" t="s">
+        <v>739</v>
+      </c>
+      <c r="G82" t="s">
+        <v>740</v>
+      </c>
+      <c r="H82" t="s">
+        <v>741</v>
+      </c>
+      <c r="I82" t="s">
         <v>387</v>
       </c>
-      <c r="X53" t="s">
-        <v>388</v>
-      </c>
-      <c r="Y53" s="3">
-        <v>38637</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>389</v>
-      </c>
-      <c r="AJ53" s="3">
-        <v>16075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="J82" t="s">
+        <v>742</v>
+      </c>
+      <c r="K82" t="s">
+        <v>743</v>
+      </c>
+      <c r="M82" t="s">
+        <v>744</v>
+      </c>
+      <c r="N82" s="1">
+        <v>24594</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>745</v>
+      </c>
+      <c r="R82" t="s">
+        <v>746</v>
+      </c>
+      <c r="S82" t="s">
+        <v>747</v>
+      </c>
+      <c r="T82" t="s">
+        <v>748</v>
+      </c>
+      <c r="U82" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>736</v>
+      </c>
+      <c r="B83" t="s">
+        <v>750</v>
+      </c>
+      <c r="C83" s="1">
+        <v>17916</v>
+      </c>
+      <c r="D83" s="1">
+        <v>27047</v>
+      </c>
+      <c r="E83" t="s">
+        <v>751</v>
+      </c>
+      <c r="F83" t="s">
+        <v>752</v>
+      </c>
+      <c r="G83" t="s">
+        <v>753</v>
+      </c>
+      <c r="I83" t="s">
+        <v>282</v>
+      </c>
+      <c r="J83" t="s">
+        <v>754</v>
+      </c>
+      <c r="K83" t="s">
+        <v>755</v>
+      </c>
+      <c r="M83" t="s">
+        <v>756</v>
+      </c>
+      <c r="N83" s="1">
+        <v>17605</v>
+      </c>
+      <c r="R83" t="s">
+        <v>757</v>
+      </c>
+      <c r="T83" t="s">
+        <v>758</v>
+      </c>
+      <c r="U83" t="s">
+        <v>759</v>
+      </c>
+      <c r="X83" t="s">
+        <v>760</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>31239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>736</v>
+      </c>
+      <c r="B84" t="s">
+        <v>761</v>
+      </c>
+      <c r="C84" s="1">
+        <v>28667</v>
+      </c>
+      <c r="D84" s="1">
+        <v>39627</v>
+      </c>
+      <c r="F84" t="s">
+        <v>762</v>
+      </c>
+      <c r="G84" t="s">
+        <v>763</v>
+      </c>
+      <c r="I84" t="s">
+        <v>764</v>
+      </c>
+      <c r="J84" t="s">
+        <v>765</v>
+      </c>
+      <c r="K84" t="s">
+        <v>766</v>
+      </c>
+      <c r="M84" t="s">
+        <v>767</v>
+      </c>
+      <c r="N84" s="1">
+        <v>29845</v>
+      </c>
+      <c r="R84" t="s">
+        <v>768</v>
+      </c>
+      <c r="U84" t="s">
+        <v>769</v>
+      </c>
+      <c r="X84" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>40347</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>771</v>
+      </c>
+      <c r="AJ84" s="1">
+        <v>41733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>772</v>
+      </c>
+      <c r="B85" t="s">
+        <v>773</v>
+      </c>
+      <c r="C85" s="1">
+        <v>22238</v>
+      </c>
+      <c r="E85" t="s">
+        <v>774</v>
+      </c>
+      <c r="F85" t="s">
+        <v>775</v>
+      </c>
+      <c r="G85" t="s">
+        <v>776</v>
+      </c>
+      <c r="I85" t="s">
+        <v>60</v>
+      </c>
+      <c r="J85" t="s">
+        <v>777</v>
+      </c>
+      <c r="K85" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>779</v>
+      </c>
+      <c r="B86" t="s">
+        <v>780</v>
+      </c>
+      <c r="C86" s="1">
+        <v>22754</v>
+      </c>
+      <c r="D86" s="1">
+        <v>31115</v>
+      </c>
+      <c r="E86" t="s">
+        <v>781</v>
+      </c>
+      <c r="F86" t="s">
+        <v>782</v>
+      </c>
+      <c r="J86" t="s">
+        <v>783</v>
+      </c>
+      <c r="K86" t="s">
+        <v>784</v>
+      </c>
+      <c r="M86" t="s">
+        <v>785</v>
+      </c>
+      <c r="N86" s="1">
+        <v>24122</v>
+      </c>
+      <c r="R86" t="s">
+        <v>786</v>
+      </c>
+      <c r="U86" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>779</v>
+      </c>
+      <c r="B87" t="s">
+        <v>788</v>
+      </c>
+      <c r="C87" s="1">
+        <v>27175</v>
+      </c>
+      <c r="D87" s="1">
+        <v>34826</v>
+      </c>
+      <c r="F87" t="s">
+        <v>789</v>
+      </c>
+      <c r="G87" t="s">
+        <v>790</v>
+      </c>
+      <c r="H87" t="s">
+        <v>791</v>
+      </c>
+      <c r="I87" t="s">
+        <v>792</v>
+      </c>
+      <c r="J87" t="s">
+        <v>793</v>
+      </c>
+      <c r="K87" t="s">
+        <v>794</v>
+      </c>
+      <c r="M87" t="s">
+        <v>795</v>
+      </c>
+      <c r="N87" s="1">
+        <v>28678</v>
+      </c>
+      <c r="R87" t="s">
+        <v>796</v>
+      </c>
+      <c r="T87" t="s">
+        <v>387</v>
+      </c>
+      <c r="U87" t="s">
+        <v>797</v>
+      </c>
+      <c r="X87" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>36345</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>799</v>
+      </c>
+      <c r="AF87" t="s">
+        <v>800</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>801</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>37638</v>
+      </c>
+      <c r="AN87" t="s">
+        <v>802</v>
+      </c>
+      <c r="AQ87" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>779</v>
+      </c>
+      <c r="B89" t="s">
+        <v>804</v>
+      </c>
+      <c r="C89" s="1">
+        <v>16047</v>
+      </c>
+      <c r="E89" t="s">
+        <v>805</v>
+      </c>
+      <c r="F89">
+        <v>37842984</v>
+      </c>
+      <c r="K89" t="s">
+        <v>806</v>
+      </c>
+      <c r="M89" t="s">
+        <v>807</v>
+      </c>
+      <c r="N89" s="1">
+        <v>11547</v>
+      </c>
+      <c r="R89">
+        <v>952039239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>808</v>
+      </c>
+      <c r="B90" t="s">
+        <v>809</v>
+      </c>
+      <c r="C90" s="1">
+        <v>18577</v>
+      </c>
+      <c r="D90" s="1">
+        <v>29384</v>
+      </c>
+      <c r="F90" t="s">
+        <v>810</v>
+      </c>
+      <c r="G90" t="s">
+        <v>811</v>
+      </c>
+      <c r="I90" t="s">
+        <v>303</v>
+      </c>
+      <c r="K90" t="s">
+        <v>812</v>
+      </c>
+      <c r="M90" t="s">
+        <v>813</v>
+      </c>
+      <c r="N90" s="1">
+        <v>20410</v>
+      </c>
+      <c r="R90" t="s">
+        <v>814</v>
+      </c>
+      <c r="S90" t="s">
+        <v>815</v>
+      </c>
+      <c r="T90" t="s">
+        <v>816</v>
+      </c>
+      <c r="U90" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>808</v>
+      </c>
+      <c r="B91" t="s">
+        <v>818</v>
+      </c>
+      <c r="C91" s="1">
+        <v>32214</v>
+      </c>
+      <c r="I91" t="s">
+        <v>298</v>
+      </c>
+      <c r="J91" t="s">
+        <v>819</v>
+      </c>
+      <c r="K91" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>808</v>
+      </c>
+      <c r="B92" t="s">
+        <v>821</v>
+      </c>
+      <c r="C92" s="1">
+        <v>30176</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42266</v>
+      </c>
+      <c r="G92" t="s">
+        <v>822</v>
+      </c>
+      <c r="I92" t="s">
+        <v>303</v>
+      </c>
+      <c r="J92" t="s">
+        <v>823</v>
+      </c>
+      <c r="M92" t="s">
+        <v>824</v>
+      </c>
+      <c r="R92" t="s">
+        <v>825</v>
+      </c>
+      <c r="T92" t="s">
+        <v>289</v>
+      </c>
+      <c r="U92" t="s">
+        <v>826</v>
+      </c>
+      <c r="X92" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>828</v>
+      </c>
+      <c r="B93" t="s">
+        <v>829</v>
+      </c>
+      <c r="C93" s="1">
+        <v>31160</v>
+      </c>
+      <c r="D93" s="1">
+        <v>41601</v>
+      </c>
+      <c r="G93" t="s">
+        <v>830</v>
+      </c>
+      <c r="I93" t="s">
+        <v>831</v>
+      </c>
+      <c r="J93" t="s">
+        <v>832</v>
+      </c>
+      <c r="K93" t="s">
+        <v>833</v>
+      </c>
+      <c r="M93" t="s">
+        <v>834</v>
+      </c>
+      <c r="N93" s="1">
+        <v>31764</v>
+      </c>
+      <c r="R93" t="s">
+        <v>835</v>
+      </c>
+      <c r="X93" t="s">
+        <v>836</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>39489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>828</v>
+      </c>
+      <c r="B95" t="s">
+        <v>837</v>
+      </c>
+      <c r="C95" s="1">
+        <v>30026</v>
+      </c>
+      <c r="G95" t="s">
+        <v>838</v>
+      </c>
+      <c r="I95" t="s">
+        <v>839</v>
+      </c>
+      <c r="J95" t="s">
+        <v>840</v>
+      </c>
+      <c r="K95" t="s">
+        <v>841</v>
+      </c>
+      <c r="M95" t="s">
+        <v>842</v>
+      </c>
+      <c r="N95" s="1">
+        <v>38008</v>
+      </c>
+      <c r="R95" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>828</v>
+      </c>
+      <c r="B96" t="s">
+        <v>844</v>
+      </c>
+      <c r="C96" s="1">
+        <v>29399</v>
+      </c>
+      <c r="D96" s="1">
+        <v>37401</v>
+      </c>
+      <c r="F96" t="s">
+        <v>845</v>
+      </c>
+      <c r="G96" t="s">
+        <v>846</v>
+      </c>
+      <c r="I96" t="s">
+        <v>328</v>
+      </c>
+      <c r="J96" t="s">
+        <v>847</v>
+      </c>
+      <c r="K96" t="s">
+        <v>848</v>
+      </c>
+      <c r="M96" t="s">
+        <v>849</v>
+      </c>
+      <c r="N96" s="1">
+        <v>26837</v>
+      </c>
+      <c r="R96" t="s">
+        <v>850</v>
+      </c>
+      <c r="X96" t="s">
+        <v>851</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>38634</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>852</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>41073</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>828</v>
+      </c>
+      <c r="B97" t="s">
+        <v>853</v>
+      </c>
+      <c r="C97" s="1">
+        <v>17959</v>
+      </c>
+      <c r="F97" t="s">
+        <v>854</v>
+      </c>
+      <c r="G97" t="s">
+        <v>264</v>
+      </c>
+      <c r="I97" t="s">
+        <v>515</v>
+      </c>
+      <c r="J97" t="s">
+        <v>855</v>
+      </c>
+      <c r="K97" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>828</v>
+      </c>
+      <c r="B98" t="s">
+        <v>857</v>
+      </c>
+      <c r="C98" s="1">
+        <v>17714</v>
+      </c>
+      <c r="D98" s="1">
+        <v>30786</v>
+      </c>
+      <c r="E98" t="s">
+        <v>858</v>
+      </c>
+      <c r="F98" t="s">
+        <v>859</v>
+      </c>
+      <c r="G98" t="s">
+        <v>860</v>
+      </c>
+      <c r="I98" t="s">
+        <v>861</v>
+      </c>
+      <c r="J98" t="s">
+        <v>862</v>
+      </c>
+      <c r="K98" t="s">
+        <v>863</v>
+      </c>
+      <c r="M98" t="s">
+        <v>864</v>
+      </c>
+      <c r="N98" s="1">
+        <v>22730</v>
+      </c>
+      <c r="R98" t="s">
+        <v>865</v>
+      </c>
+      <c r="S98" t="s">
+        <v>866</v>
+      </c>
+      <c r="T98" t="s">
+        <v>867</v>
+      </c>
+      <c r="U98" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>828</v>
+      </c>
+      <c r="B99" t="s">
+        <v>869</v>
+      </c>
+      <c r="C99" s="1">
+        <v>13107</v>
+      </c>
+      <c r="E99" t="s">
+        <v>870</v>
+      </c>
+      <c r="F99" t="s">
+        <v>871</v>
+      </c>
+      <c r="G99">
+        <v>999080022</v>
+      </c>
+      <c r="K99" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>828</v>
+      </c>
+      <c r="B100" t="s">
+        <v>873</v>
+      </c>
+      <c r="C100" s="1">
+        <v>22722</v>
+      </c>
+      <c r="D100" s="1">
+        <v>32795</v>
+      </c>
+      <c r="E100" t="s">
+        <v>874</v>
+      </c>
+      <c r="F100" t="s">
+        <v>875</v>
+      </c>
+      <c r="G100" t="s">
+        <v>876</v>
+      </c>
+      <c r="I100" t="s">
+        <v>877</v>
+      </c>
+      <c r="J100" t="s">
+        <v>878</v>
+      </c>
+      <c r="K100" t="s">
+        <v>879</v>
+      </c>
+      <c r="M100" t="s">
+        <v>880</v>
+      </c>
+      <c r="N100" s="1">
+        <v>25857</v>
+      </c>
+      <c r="R100" t="s">
+        <v>881</v>
+      </c>
+      <c r="T100" t="s">
+        <v>882</v>
+      </c>
+      <c r="U100" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>884</v>
+      </c>
+      <c r="B101" t="s">
+        <v>885</v>
+      </c>
+      <c r="C101" s="1">
+        <v>23348</v>
+      </c>
+      <c r="D101" s="1">
+        <v>30058</v>
+      </c>
+      <c r="E101" t="s">
+        <v>886</v>
+      </c>
+      <c r="F101" t="s">
+        <v>887</v>
+      </c>
+      <c r="G101" t="s">
+        <v>888</v>
+      </c>
+      <c r="I101" t="s">
+        <v>889</v>
+      </c>
+      <c r="K101" t="s">
+        <v>890</v>
+      </c>
+      <c r="M101" t="s">
+        <v>891</v>
+      </c>
+      <c r="N101" s="1">
+        <v>37224</v>
+      </c>
+      <c r="R101">
+        <v>945455929</v>
+      </c>
+      <c r="U101" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>893</v>
+      </c>
+      <c r="B102" t="s">
+        <v>894</v>
+      </c>
+      <c r="C102" s="1">
+        <v>24305</v>
+      </c>
+      <c r="D102" s="1">
+        <v>35882</v>
+      </c>
+      <c r="F102" t="s">
+        <v>895</v>
+      </c>
+      <c r="G102" t="s">
+        <v>896</v>
+      </c>
+      <c r="H102" t="s">
+        <v>897</v>
+      </c>
+      <c r="I102" t="s">
+        <v>898</v>
+      </c>
+      <c r="J102" t="s">
+        <v>899</v>
+      </c>
+      <c r="K102" t="s">
+        <v>900</v>
+      </c>
+      <c r="M102" t="s">
+        <v>901</v>
+      </c>
+      <c r="N102" s="1">
+        <v>26724</v>
+      </c>
+      <c r="R102" t="s">
+        <v>902</v>
+      </c>
+      <c r="T102" t="s">
+        <v>684</v>
+      </c>
+      <c r="U102" t="s">
+        <v>903</v>
+      </c>
+      <c r="X102" t="s">
+        <v>904</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>37514</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>905</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>38596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>893</v>
+      </c>
+      <c r="B103" t="s">
+        <v>906</v>
+      </c>
+      <c r="C103" s="1">
+        <v>25918</v>
+      </c>
+      <c r="D103" s="1">
+        <v>36267</v>
+      </c>
+      <c r="F103" t="s">
+        <v>907</v>
+      </c>
+      <c r="G103" t="s">
+        <v>908</v>
+      </c>
+      <c r="I103" t="s">
+        <v>909</v>
+      </c>
+      <c r="J103" t="s">
+        <v>910</v>
+      </c>
+      <c r="K103" t="s">
+        <v>911</v>
+      </c>
+      <c r="M103" t="s">
+        <v>912</v>
+      </c>
+      <c r="N103" s="1">
+        <v>27189</v>
+      </c>
+      <c r="R103" t="s">
+        <v>913</v>
+      </c>
+      <c r="T103" t="s">
+        <v>515</v>
+      </c>
+      <c r="U103" t="s">
+        <v>914</v>
+      </c>
+      <c r="X103" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>38790</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>916</v>
+      </c>
+      <c r="AJ103" s="1">
+        <v>41029</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>893</v>
+      </c>
+      <c r="B104" t="s">
+        <v>917</v>
+      </c>
+      <c r="C104" s="1">
+        <v>27889</v>
+      </c>
+      <c r="D104" s="1">
+        <v>38619</v>
+      </c>
+      <c r="F104" t="s">
+        <v>918</v>
+      </c>
+      <c r="G104" t="s">
+        <v>919</v>
+      </c>
+      <c r="H104" t="s">
+        <v>920</v>
+      </c>
+      <c r="I104" t="s">
+        <v>921</v>
+      </c>
+      <c r="J104" t="s">
+        <v>922</v>
+      </c>
+      <c r="K104" t="s">
+        <v>923</v>
+      </c>
+      <c r="M104" t="s">
+        <v>924</v>
+      </c>
+      <c r="N104" s="1">
+        <v>30358</v>
+      </c>
+      <c r="R104" t="s">
+        <v>925</v>
+      </c>
+      <c r="T104" t="s">
+        <v>926</v>
+      </c>
+      <c r="U104" t="s">
+        <v>927</v>
+      </c>
+      <c r="X104" t="s">
+        <v>928</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>39937</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>929</v>
+      </c>
+      <c r="B105" t="s">
+        <v>930</v>
+      </c>
+      <c r="C105" s="1">
+        <v>19413</v>
+      </c>
+      <c r="E105" t="s">
+        <v>931</v>
+      </c>
+      <c r="F105" t="s">
+        <v>932</v>
+      </c>
+      <c r="G105" t="s">
+        <v>933</v>
+      </c>
+      <c r="H105" t="s">
+        <v>934</v>
+      </c>
+      <c r="I105" t="s">
+        <v>935</v>
+      </c>
+      <c r="J105" t="s">
+        <v>936</v>
+      </c>
+      <c r="K105" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>938</v>
+      </c>
+      <c r="B106" t="s">
+        <v>939</v>
+      </c>
+      <c r="C106" s="1">
+        <v>24071</v>
+      </c>
+      <c r="D106" s="1">
+        <v>41363</v>
+      </c>
+      <c r="E106" t="s">
+        <v>940</v>
+      </c>
+      <c r="F106" t="s">
+        <v>941</v>
+      </c>
+      <c r="G106" t="s">
+        <v>942</v>
+      </c>
+      <c r="I106" t="s">
+        <v>943</v>
+      </c>
+      <c r="J106" t="s">
+        <v>944</v>
+      </c>
+      <c r="K106" t="s">
+        <v>945</v>
+      </c>
+      <c r="M106" t="s">
+        <v>946</v>
+      </c>
+      <c r="N106" s="1">
+        <v>24306</v>
+      </c>
+      <c r="R106" t="s">
+        <v>947</v>
+      </c>
+      <c r="S106" t="s">
+        <v>948</v>
+      </c>
+      <c r="T106" t="s">
+        <v>949</v>
+      </c>
+      <c r="U106" t="s">
+        <v>950</v>
+      </c>
+      <c r="X106" t="s">
+        <v>951</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>36624</v>
+      </c>
+      <c r="AC106" t="s">
+        <v>952</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>953</v>
+      </c>
+      <c r="AJ106" s="1">
+        <v>40119</v>
+      </c>
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>954</v>
+      </c>
+      <c r="B110" t="s">
+        <v>955</v>
+      </c>
+      <c r="C110" s="1">
+        <v>29422</v>
+      </c>
+      <c r="D110" s="1">
+        <v>40110</v>
+      </c>
+      <c r="G110" t="s">
+        <v>956</v>
+      </c>
+      <c r="H110" t="s">
+        <v>957</v>
+      </c>
+      <c r="I110" t="s">
+        <v>493</v>
+      </c>
+      <c r="J110" t="s">
+        <v>958</v>
+      </c>
+      <c r="K110" t="s">
+        <v>959</v>
+      </c>
+      <c r="M110" t="s">
+        <v>960</v>
+      </c>
+      <c r="N110" s="1">
+        <v>30129</v>
+      </c>
+      <c r="R110" t="s">
+        <v>961</v>
+      </c>
+      <c r="T110" t="s">
+        <v>962</v>
+      </c>
+      <c r="U110" t="s">
+        <v>963</v>
+      </c>
+      <c r="X110" t="s">
+        <v>964</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>40303</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>965</v>
+      </c>
+      <c r="AJ110" s="1">
+        <v>41422</v>
+      </c>
+    </row>
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>966</v>
+      </c>
+      <c r="B111" t="s">
+        <v>967</v>
+      </c>
+      <c r="C111" s="1">
+        <v>31442</v>
+      </c>
+      <c r="D111" s="1">
+        <v>41258</v>
+      </c>
+      <c r="F111" t="s">
+        <v>968</v>
+      </c>
+      <c r="G111" t="s">
+        <v>969</v>
+      </c>
+      <c r="H111" t="s">
+        <v>970</v>
+      </c>
+      <c r="I111" t="s">
+        <v>971</v>
+      </c>
+      <c r="J111" t="s">
+        <v>972</v>
+      </c>
+      <c r="K111" t="s">
+        <v>973</v>
+      </c>
+      <c r="M111" t="s">
+        <v>974</v>
+      </c>
+      <c r="N111" s="1">
+        <v>32355</v>
+      </c>
+      <c r="R111" t="s">
+        <v>975</v>
+      </c>
+      <c r="T111" t="s">
+        <v>976</v>
+      </c>
+      <c r="U111" t="s">
+        <v>977</v>
+      </c>
+      <c r="X111" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>966</v>
+      </c>
+      <c r="B112" t="s">
+        <v>979</v>
+      </c>
+      <c r="C112" s="1">
+        <v>28308</v>
+      </c>
+      <c r="D112" s="1">
+        <v>40005</v>
+      </c>
+      <c r="F112" t="s">
+        <v>980</v>
+      </c>
+      <c r="G112" t="s">
+        <v>981</v>
+      </c>
+      <c r="I112" t="s">
+        <v>196</v>
+      </c>
+      <c r="J112" t="s">
+        <v>982</v>
+      </c>
+      <c r="K112" t="s">
+        <v>983</v>
+      </c>
+      <c r="M112" t="s">
+        <v>984</v>
+      </c>
+      <c r="N112" s="1">
+        <v>27705</v>
+      </c>
+      <c r="R112" t="s">
+        <v>985</v>
+      </c>
+      <c r="T112" t="s">
+        <v>935</v>
+      </c>
+      <c r="U112" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>987</v>
+      </c>
+      <c r="B113" t="s">
+        <v>988</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42233</v>
+      </c>
+      <c r="G113" t="s">
+        <v>989</v>
+      </c>
+      <c r="K113" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>991</v>
+      </c>
+      <c r="B114" t="s">
+        <v>992</v>
+      </c>
+      <c r="G114" t="s">
+        <v>993</v>
+      </c>
+      <c r="K114" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>995</v>
+      </c>
+      <c r="B115" t="s">
+        <v>844</v>
+      </c>
+      <c r="G115" t="s">
+        <v>996</v>
+      </c>
+      <c r="K115" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>998</v>
+      </c>
+      <c r="B116" t="s">
+        <v>999</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K116" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R116" t="s">
+        <v>1003</v>
+      </c>
+      <c r="S116" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K118" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D119" s="1">
+        <v>28461</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K119" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1018</v>
+      </c>
+      <c r="R119" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S119" t="s">
+        <v>1020</v>
+      </c>
+      <c r="U119" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K120" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D121" s="1">
+        <v>41971</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K121" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U121" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D122" s="1">
+        <v>36603</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K122" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M122" t="s">
         <v>1038</v>
       </c>
-      <c r="B54" t="s">
+      <c r="X122" t="s">
         <v>1039</v>
       </c>
-      <c r="F54" t="s">
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>1040</v>
       </c>
-      <c r="G54" t="s">
+      <c r="B123" t="s">
         <v>1041</v>
       </c>
-      <c r="H54" t="s">
+      <c r="F123" t="s">
         <v>1042</v>
       </c>
-      <c r="J54" t="s">
+      <c r="G123" t="s">
         <v>1043</v>
       </c>
-      <c r="K54" t="s">
+      <c r="H123" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>390</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="J123" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K123" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>391</v>
       </c>
-      <c r="E55" t="s">
-        <v>392</v>
-      </c>
-      <c r="F55" t="s">
-        <v>393</v>
-      </c>
-      <c r="G55" t="s">
-        <v>394</v>
-      </c>
-      <c r="H55" t="s">
-        <v>395</v>
-      </c>
-      <c r="I55" t="s">
-        <v>396</v>
-      </c>
-      <c r="J55" t="s">
-        <v>397</v>
-      </c>
-      <c r="K55" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>390</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1045</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1046</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="B124" t="s">
         <v>1047</v>
       </c>
-      <c r="M56" t="s">
+      <c r="F124" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="K124" t="s">
         <v>1049</v>
       </c>
-      <c r="B57" t="s">
+      <c r="M124" t="s">
         <v>1050</v>
       </c>
-      <c r="D57" s="3">
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D125" s="1">
         <v>40467</v>
       </c>
-      <c r="F57" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1052</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="F125" t="s">
         <v>1053</v>
       </c>
-      <c r="K57" t="s">
+      <c r="G125" t="s">
         <v>1054</v>
       </c>
-      <c r="M57" t="s">
+      <c r="J125" t="s">
         <v>1055</v>
       </c>
-      <c r="X57" t="s">
+      <c r="K125" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="M125" t="s">
         <v>1057</v>
       </c>
-      <c r="B58" t="s">
+      <c r="X125" t="s">
         <v>1058</v>
       </c>
-      <c r="F58" t="s">
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>1059</v>
       </c>
-      <c r="K58" t="s">
+      <c r="B126" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>399</v>
-      </c>
-      <c r="B59" t="s">
-        <v>400</v>
-      </c>
-      <c r="C59" s="1">
-        <v>19516</v>
-      </c>
-      <c r="F59" t="s">
-        <v>401</v>
-      </c>
-      <c r="G59" t="s">
-        <v>402</v>
-      </c>
-      <c r="I59" t="s">
-        <v>403</v>
-      </c>
-      <c r="J59" t="s">
-        <v>404</v>
-      </c>
-      <c r="K59" t="s">
-        <v>405</v>
-      </c>
-      <c r="M59" t="s">
-        <v>406</v>
-      </c>
-      <c r="N59" s="3">
-        <v>33007</v>
-      </c>
-      <c r="R59" t="s">
-        <v>407</v>
-      </c>
-      <c r="T59" t="s">
-        <v>408</v>
-      </c>
-      <c r="U59" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>410</v>
-      </c>
-      <c r="B60" t="s">
-        <v>411</v>
-      </c>
-      <c r="C60" s="1">
-        <v>23312</v>
-      </c>
-      <c r="D60" s="3">
-        <v>31493</v>
-      </c>
-      <c r="F60" t="s">
-        <v>412</v>
-      </c>
-      <c r="G60" t="s">
-        <v>413</v>
-      </c>
-      <c r="H60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s">
-        <v>414</v>
-      </c>
-      <c r="J60" t="s">
-        <v>415</v>
-      </c>
-      <c r="K60" t="s">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s">
-        <v>417</v>
-      </c>
-      <c r="N60" s="3">
-        <v>24372</v>
-      </c>
-      <c r="R60" t="s">
-        <v>418</v>
-      </c>
-      <c r="S60" t="s">
-        <v>20</v>
-      </c>
-      <c r="T60" t="s">
-        <v>419</v>
-      </c>
-      <c r="U60" t="s">
-        <v>420</v>
-      </c>
-      <c r="X60" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>32806</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>386</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>423</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>424</v>
-      </c>
-      <c r="AJ60" s="3">
-        <v>33551</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>425</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>426</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F126" t="s">
         <v>1061</v>
       </c>
-      <c r="B61" t="s">
+      <c r="K126" t="s">
         <v>1062</v>
       </c>
-      <c r="G61" t="s">
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>1063</v>
       </c>
-      <c r="K61" t="s">
+      <c r="B127" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>428</v>
-      </c>
-      <c r="B62" t="s">
-        <v>429</v>
-      </c>
-      <c r="C62" s="1">
-        <v>23063</v>
-      </c>
-      <c r="D62" s="3">
-        <v>32907</v>
-      </c>
-      <c r="F62" t="s">
-        <v>430</v>
-      </c>
-      <c r="G62" t="s">
-        <v>431</v>
-      </c>
-      <c r="H62" t="s">
-        <v>432</v>
-      </c>
-      <c r="I62" t="s">
-        <v>174</v>
-      </c>
-      <c r="J62" t="s">
-        <v>433</v>
-      </c>
-      <c r="K62" t="s">
-        <v>434</v>
-      </c>
-      <c r="M62" t="s">
-        <v>435</v>
-      </c>
-      <c r="N62" s="3">
-        <v>22718</v>
-      </c>
-      <c r="R62" t="s">
-        <v>436</v>
-      </c>
-      <c r="T62" t="s">
-        <v>437</v>
-      </c>
-      <c r="U62" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>439</v>
-      </c>
-      <c r="B63" t="s">
-        <v>440</v>
-      </c>
-      <c r="C63" s="1">
-        <v>21157</v>
-      </c>
-      <c r="D63" s="3">
-        <v>35791</v>
-      </c>
-      <c r="F63" t="s">
-        <v>441</v>
-      </c>
-      <c r="G63" t="s">
-        <v>442</v>
-      </c>
-      <c r="H63" t="s">
-        <v>443</v>
-      </c>
-      <c r="I63" t="s">
-        <v>444</v>
-      </c>
-      <c r="J63" t="s">
-        <v>445</v>
-      </c>
-      <c r="K63" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>447</v>
-      </c>
-      <c r="B64" t="s">
-        <v>448</v>
-      </c>
-      <c r="C64" s="1">
-        <v>16925</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" t="s">
-        <v>449</v>
-      </c>
-      <c r="F64" t="s">
-        <v>450</v>
-      </c>
-      <c r="G64" t="s">
-        <v>451</v>
-      </c>
-      <c r="I64" t="s">
-        <v>452</v>
-      </c>
-      <c r="K64" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>454</v>
-      </c>
-      <c r="B65" t="s">
-        <v>455</v>
-      </c>
-      <c r="C65" s="1">
-        <v>26871</v>
-      </c>
-      <c r="D65" s="3">
-        <v>36050</v>
-      </c>
-      <c r="F65" t="s">
-        <v>456</v>
-      </c>
-      <c r="G65" t="s">
-        <v>457</v>
-      </c>
-      <c r="I65" t="s">
-        <v>458</v>
-      </c>
-      <c r="J65" t="s">
-        <v>459</v>
-      </c>
-      <c r="K65" t="s">
-        <v>460</v>
-      </c>
-      <c r="M65" t="s">
-        <v>461</v>
-      </c>
-      <c r="N65" s="3">
-        <v>26032</v>
-      </c>
-      <c r="R65" t="s">
-        <v>462</v>
-      </c>
-      <c r="T65" t="s">
-        <v>463</v>
-      </c>
-      <c r="U65" t="s">
-        <v>464</v>
-      </c>
-      <c r="X65" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y65" s="3">
-        <v>39707</v>
-      </c>
-    </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>466</v>
-      </c>
-      <c r="B66" t="s">
-        <v>467</v>
-      </c>
-      <c r="C66" s="1">
-        <v>35532</v>
-      </c>
-      <c r="E66" t="s">
-        <v>468</v>
-      </c>
-      <c r="F66" t="s">
-        <v>469</v>
-      </c>
-      <c r="G66" t="s">
-        <v>470</v>
-      </c>
-      <c r="I66" t="s">
-        <v>471</v>
-      </c>
-      <c r="J66" t="s">
-        <v>472</v>
-      </c>
-      <c r="K66" t="s">
-        <v>473</v>
-      </c>
-      <c r="M66" t="s">
-        <v>474</v>
-      </c>
-      <c r="N66" s="3">
-        <v>17867</v>
-      </c>
-      <c r="R66" t="s">
-        <v>475</v>
-      </c>
-      <c r="T66" t="s">
-        <v>476</v>
-      </c>
-      <c r="U66" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>478</v>
-      </c>
-      <c r="B67" t="s">
-        <v>479</v>
-      </c>
-      <c r="C67" s="1">
-        <v>32973</v>
-      </c>
-      <c r="D67" s="3">
-        <v>42070</v>
-      </c>
-      <c r="G67" t="s">
-        <v>480</v>
-      </c>
-      <c r="I67" t="s">
-        <v>481</v>
-      </c>
-      <c r="J67" t="s">
-        <v>482</v>
-      </c>
-      <c r="K67" t="s">
-        <v>483</v>
-      </c>
-      <c r="M67" t="s">
-        <v>484</v>
-      </c>
-      <c r="N67" s="3">
-        <v>33515</v>
-      </c>
-      <c r="R67" t="s">
-        <v>485</v>
-      </c>
-      <c r="T67" t="s">
-        <v>486</v>
-      </c>
-      <c r="U67" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>478</v>
-      </c>
-      <c r="B68" t="s">
-        <v>488</v>
-      </c>
-      <c r="C68" s="1">
-        <v>31705</v>
-      </c>
-      <c r="D68" s="3">
-        <v>40578</v>
-      </c>
-      <c r="F68" t="s">
-        <v>489</v>
-      </c>
-      <c r="G68" t="s">
-        <v>490</v>
-      </c>
-      <c r="H68" t="s">
-        <v>491</v>
-      </c>
-      <c r="I68" t="s">
-        <v>492</v>
-      </c>
-      <c r="J68" t="s">
-        <v>493</v>
-      </c>
-      <c r="K68" t="s">
-        <v>494</v>
-      </c>
-      <c r="M68" t="s">
-        <v>495</v>
-      </c>
-      <c r="N68" s="3">
-        <v>31506</v>
-      </c>
-      <c r="R68" t="s">
-        <v>496</v>
-      </c>
-      <c r="U68" t="s">
-        <v>497</v>
-      </c>
-      <c r="X68" t="s">
-        <v>498</v>
-      </c>
-      <c r="Y68" s="3">
-        <v>42007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>499</v>
-      </c>
-      <c r="B69" t="s">
-        <v>500</v>
-      </c>
-      <c r="C69" s="1">
-        <v>30076</v>
-      </c>
-      <c r="D69" s="3">
-        <v>42239</v>
-      </c>
-      <c r="E69" t="s">
-        <v>501</v>
-      </c>
-      <c r="F69" t="s">
-        <v>502</v>
-      </c>
-      <c r="G69" t="s">
-        <v>503</v>
-      </c>
-      <c r="H69" t="s">
-        <v>504</v>
-      </c>
-      <c r="I69" t="s">
-        <v>505</v>
-      </c>
-      <c r="J69" t="s">
-        <v>506</v>
-      </c>
-      <c r="K69" t="s">
-        <v>507</v>
-      </c>
-      <c r="M69" t="s">
-        <v>508</v>
-      </c>
-      <c r="N69" s="3">
-        <v>29812</v>
-      </c>
-      <c r="R69" t="s">
-        <v>509</v>
-      </c>
-      <c r="T69" t="s">
-        <v>505</v>
-      </c>
-      <c r="U69" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>511</v>
-      </c>
-      <c r="B70" t="s">
-        <v>512</v>
-      </c>
-      <c r="C70" s="1">
-        <v>17106</v>
-      </c>
-      <c r="F70" s="2">
-        <v>58427037</v>
-      </c>
-      <c r="G70" t="s">
-        <v>513</v>
-      </c>
-      <c r="I70" t="s">
-        <v>514</v>
-      </c>
-      <c r="J70" t="s">
-        <v>515</v>
-      </c>
-      <c r="K70" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>517</v>
-      </c>
-      <c r="B71" t="s">
-        <v>518</v>
-      </c>
-      <c r="E71" t="s">
-        <v>519</v>
-      </c>
-      <c r="F71" t="s">
-        <v>520</v>
-      </c>
-      <c r="G71" t="s">
-        <v>521</v>
-      </c>
-      <c r="H71" t="s">
-        <v>522</v>
-      </c>
-      <c r="I71" t="s">
-        <v>523</v>
-      </c>
-      <c r="J71" t="s">
-        <v>524</v>
-      </c>
-      <c r="K71" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="G127" t="s">
         <v>1065</v>
       </c>
-      <c r="B72" t="s">
+      <c r="K127" t="s">
         <v>1066</v>
       </c>
-      <c r="F72" t="s">
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>1067</v>
       </c>
-      <c r="K72" t="s">
+      <c r="B128" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>526</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="F128" t="s">
+        <v>1069</v>
+      </c>
+      <c r="K128" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>527</v>
       </c>
-      <c r="C73" s="1">
-        <v>19846</v>
-      </c>
-      <c r="E73" t="s">
-        <v>528</v>
-      </c>
-      <c r="F73" t="s">
-        <v>529</v>
-      </c>
-      <c r="G73" t="s">
-        <v>530</v>
-      </c>
-      <c r="H73" t="s">
-        <v>531</v>
-      </c>
-      <c r="I73" t="s">
-        <v>532</v>
-      </c>
-      <c r="J73" t="s">
-        <v>533</v>
-      </c>
-      <c r="K73" t="s">
-        <v>534</v>
-      </c>
-      <c r="M73" t="s">
-        <v>535</v>
-      </c>
-      <c r="N73" s="3">
-        <v>11947</v>
-      </c>
-    </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>526</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="B129" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D129" s="1">
         <v>31199</v>
       </c>
-      <c r="F74" t="s">
-        <v>1070</v>
-      </c>
-      <c r="K74" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M74" t="s">
+      <c r="F129" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>536</v>
-      </c>
-      <c r="B75" t="s">
-        <v>537</v>
-      </c>
-      <c r="C75" s="1">
-        <v>23452</v>
-      </c>
-      <c r="D75" s="3">
-        <v>34944</v>
-      </c>
-      <c r="E75" t="s">
-        <v>538</v>
-      </c>
-      <c r="F75" t="s">
-        <v>539</v>
-      </c>
-      <c r="G75">
-        <v>952793807</v>
-      </c>
-      <c r="I75" t="s">
-        <v>540</v>
-      </c>
-      <c r="J75" t="s">
-        <v>541</v>
-      </c>
-      <c r="K75" t="s">
-        <v>542</v>
-      </c>
-      <c r="M75" t="s">
-        <v>543</v>
-      </c>
-      <c r="N75" s="3">
-        <v>25707</v>
-      </c>
-      <c r="X75" t="s">
-        <v>544</v>
-      </c>
-      <c r="Y75" s="3">
-        <v>35118</v>
-      </c>
-      <c r="AC75">
-        <v>983976750</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>545</v>
-      </c>
-      <c r="AJ75" s="3">
-        <v>39731</v>
-      </c>
-    </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>546</v>
-      </c>
-      <c r="B76" t="s">
-        <v>547</v>
-      </c>
-      <c r="C76" s="1">
-        <v>23347</v>
-      </c>
-      <c r="D76" s="3">
-        <v>31892</v>
-      </c>
-      <c r="E76" t="s">
-        <v>548</v>
-      </c>
-      <c r="F76" t="s">
-        <v>549</v>
-      </c>
-      <c r="G76" t="s">
-        <v>550</v>
-      </c>
-      <c r="H76" t="s">
-        <v>551</v>
-      </c>
-      <c r="I76" t="s">
-        <v>552</v>
-      </c>
-      <c r="J76" t="s">
-        <v>553</v>
-      </c>
-      <c r="K76" t="s">
-        <v>554</v>
-      </c>
-      <c r="M76" t="s">
-        <v>555</v>
-      </c>
-      <c r="N76" s="3">
-        <v>22588</v>
-      </c>
-      <c r="R76" t="s">
-        <v>556</v>
-      </c>
-      <c r="X76" t="s">
-        <v>557</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>32831</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>558</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>559</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="K129" t="s">
         <v>1073</v>
       </c>
-      <c r="B77" t="s">
+      <c r="M129" t="s">
         <v>1074</v>
       </c>
-      <c r="F77" s="2">
+    </row>
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F130" s="2">
         <v>55798251</v>
       </c>
-      <c r="G77" t="s">
-        <v>1075</v>
-      </c>
-      <c r="K77" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>567</v>
-      </c>
-      <c r="B78" t="s">
-        <v>568</v>
-      </c>
-      <c r="C78" s="1">
-        <v>19365</v>
-      </c>
-      <c r="F78" t="s">
-        <v>569</v>
-      </c>
-      <c r="G78" t="s">
-        <v>570</v>
-      </c>
-      <c r="K78" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>567</v>
-      </c>
-      <c r="B79" t="s">
-        <v>572</v>
-      </c>
-      <c r="C79" s="1">
-        <v>11437</v>
-      </c>
-      <c r="E79" t="s">
-        <v>573</v>
-      </c>
-      <c r="K79" t="s">
-        <v>574</v>
-      </c>
-      <c r="M79" t="s">
-        <v>575</v>
-      </c>
-      <c r="N79" s="3">
-        <v>21074</v>
-      </c>
-      <c r="R79" t="s">
-        <v>576</v>
-      </c>
-      <c r="T79" t="s">
-        <v>577</v>
-      </c>
-      <c r="U79" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>561</v>
-      </c>
-      <c r="B80" t="s">
-        <v>562</v>
-      </c>
-      <c r="C80" s="1">
-        <v>13624</v>
-      </c>
-      <c r="F80" t="s">
-        <v>563</v>
-      </c>
-      <c r="G80" t="s">
-        <v>564</v>
-      </c>
-      <c r="J80" t="s">
-        <v>565</v>
-      </c>
-      <c r="K80" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="81" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>579</v>
-      </c>
-      <c r="B81" t="s">
-        <v>580</v>
-      </c>
-      <c r="C81" s="1">
-        <v>42276</v>
-      </c>
-      <c r="D81" s="3">
-        <v>32914</v>
-      </c>
-      <c r="E81" t="s">
-        <v>581</v>
-      </c>
-      <c r="G81" t="s">
-        <v>582</v>
-      </c>
-      <c r="I81" t="s">
-        <v>583</v>
-      </c>
-      <c r="K81" t="s">
-        <v>584</v>
-      </c>
-      <c r="M81" t="s">
-        <v>585</v>
-      </c>
-      <c r="N81" s="3">
-        <v>42029</v>
-      </c>
-      <c r="R81" t="s">
-        <v>586</v>
-      </c>
-      <c r="T81" t="s">
-        <v>587</v>
-      </c>
-      <c r="X81" t="s">
-        <v>588</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>42041</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="82" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="G130" t="s">
         <v>1077</v>
       </c>
-      <c r="B82" t="s">
+      <c r="K130" t="s">
         <v>1078</v>
       </c>
-      <c r="G82" t="s">
+    </row>
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>1079</v>
       </c>
-      <c r="J82" t="s">
+      <c r="B131" t="s">
         <v>1080</v>
       </c>
-      <c r="K82" t="s">
+      <c r="G131" t="s">
         <v>1081</v>
       </c>
-      <c r="M82" t="s">
+      <c r="J131" t="s">
         <v>1082</v>
       </c>
-      <c r="R82" t="s">
+      <c r="K131" t="s">
         <v>1083</v>
       </c>
-      <c r="U82" t="s">
+      <c r="M131" t="s">
         <v>1084</v>
       </c>
-      <c r="X82" t="s">
+      <c r="R131" t="s">
         <v>1085</v>
       </c>
-      <c r="AI82" t="s">
+      <c r="U131" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="83" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>590</v>
-      </c>
-      <c r="B83" t="s">
-        <v>591</v>
-      </c>
-      <c r="C83" s="1">
-        <v>25312</v>
-      </c>
-      <c r="D83" s="3">
-        <v>33812</v>
-      </c>
-      <c r="E83" t="s">
-        <v>592</v>
-      </c>
-      <c r="F83" t="s">
-        <v>593</v>
-      </c>
-      <c r="G83" t="s">
-        <v>594</v>
-      </c>
-      <c r="I83" t="s">
-        <v>595</v>
-      </c>
-      <c r="J83" t="s">
-        <v>596</v>
-      </c>
-      <c r="K83" t="s">
-        <v>597</v>
-      </c>
-      <c r="M83" t="s">
-        <v>598</v>
-      </c>
-      <c r="N83" s="3">
-        <v>26723</v>
-      </c>
-      <c r="R83" t="s">
-        <v>599</v>
-      </c>
-      <c r="X83" t="s">
-        <v>600</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>34674</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>601</v>
-      </c>
-      <c r="AJ83" s="3">
-        <v>37786</v>
-      </c>
-      <c r="AT83" t="s">
-        <v>602</v>
-      </c>
-      <c r="AU83" s="3">
-        <v>38503</v>
-      </c>
-    </row>
-    <row r="84" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>603</v>
-      </c>
-      <c r="B84" t="s">
-        <v>604</v>
-      </c>
-      <c r="F84" t="s">
-        <v>605</v>
-      </c>
-      <c r="G84" t="s">
-        <v>606</v>
-      </c>
-      <c r="K84" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="85" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>608</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="X131" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>609</v>
       </c>
-      <c r="C85" s="1">
-        <v>25901</v>
-      </c>
-      <c r="E85" t="s">
-        <v>610</v>
-      </c>
-      <c r="F85">
-        <v>37390051</v>
-      </c>
-      <c r="G85">
-        <v>956485154</v>
-      </c>
-      <c r="H85">
-        <v>37391224</v>
-      </c>
-      <c r="I85" t="s">
-        <v>611</v>
-      </c>
-      <c r="J85" t="s">
-        <v>612</v>
-      </c>
-      <c r="K85" t="s">
-        <v>613</v>
-      </c>
-      <c r="M85" t="s">
-        <v>614</v>
-      </c>
-      <c r="N85" s="3">
-        <v>34671</v>
-      </c>
-      <c r="R85">
-        <v>977852423</v>
-      </c>
-      <c r="U85" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="86" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>608</v>
-      </c>
-      <c r="B86" t="s">
-        <v>616</v>
-      </c>
-      <c r="C86" s="1">
-        <v>26933</v>
-      </c>
-      <c r="D86" s="3">
-        <v>34251</v>
-      </c>
-      <c r="F86" t="s">
-        <v>617</v>
-      </c>
-      <c r="G86" t="s">
-        <v>618</v>
-      </c>
-      <c r="H86" t="s">
-        <v>619</v>
-      </c>
-      <c r="I86" t="s">
-        <v>620</v>
-      </c>
-      <c r="J86" t="s">
-        <v>621</v>
-      </c>
-      <c r="K86" t="s">
-        <v>622</v>
-      </c>
-      <c r="M86" t="s">
-        <v>623</v>
-      </c>
-      <c r="N86" s="3">
-        <v>24393</v>
-      </c>
-      <c r="R86" t="s">
-        <v>624</v>
-      </c>
-      <c r="T86" t="s">
-        <v>514</v>
-      </c>
-      <c r="U86" t="s">
-        <v>625</v>
-      </c>
-      <c r="X86" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>34412</v>
-      </c>
-      <c r="AF86" t="s">
-        <v>627</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>628</v>
-      </c>
-      <c r="AJ86" s="3">
-        <v>37057</v>
-      </c>
-      <c r="AN86" t="s">
-        <v>629</v>
-      </c>
-      <c r="AQ86" t="s">
-        <v>630</v>
-      </c>
-      <c r="AT86" t="s">
-        <v>631</v>
-      </c>
-      <c r="AU86" s="3">
-        <v>37678</v>
-      </c>
-      <c r="AY86" t="s">
-        <v>632</v>
-      </c>
-      <c r="BB86" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="87" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>608</v>
-      </c>
-      <c r="B87" t="s">
-        <v>634</v>
-      </c>
-      <c r="C87" s="1">
-        <v>13397</v>
-      </c>
-      <c r="F87">
-        <v>47823061</v>
-      </c>
-      <c r="K87" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="88" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>608</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D88" s="3">
+      <c r="B132" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D132" s="1">
         <v>30933</v>
       </c>
-      <c r="F88" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H88" t="s">
+      <c r="F132" t="s">
         <v>1090</v>
       </c>
-      <c r="J88" t="s">
+      <c r="G132" t="s">
         <v>1091</v>
       </c>
-      <c r="K88" t="s">
+      <c r="H132" t="s">
         <v>1092</v>
       </c>
-      <c r="M88" t="s">
+      <c r="J132" t="s">
         <v>1093</v>
       </c>
-      <c r="R88" t="s">
+      <c r="K132" t="s">
         <v>1094</v>
       </c>
-      <c r="U88" t="s">
+      <c r="M132" t="s">
         <v>1095</v>
       </c>
-      <c r="X88" t="s">
+      <c r="R132" t="s">
         <v>1096</v>
       </c>
-      <c r="AI88" t="s">
+      <c r="U132" t="s">
         <v>1097</v>
       </c>
-      <c r="AQ88" t="s">
+      <c r="X132" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="89" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>636</v>
-      </c>
-      <c r="B89" t="s">
-        <v>637</v>
-      </c>
-      <c r="C89" s="1">
-        <v>29829</v>
-      </c>
-      <c r="F89" t="s">
-        <v>638</v>
-      </c>
-      <c r="G89" t="s">
-        <v>639</v>
-      </c>
-      <c r="I89" t="s">
-        <v>640</v>
-      </c>
-      <c r="K89" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="90" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>642</v>
-      </c>
-      <c r="B90" t="s">
-        <v>643</v>
-      </c>
-      <c r="C90" s="1">
-        <v>42045</v>
-      </c>
-      <c r="D90" s="3">
-        <v>32760</v>
-      </c>
-      <c r="F90" t="s">
-        <v>644</v>
-      </c>
-      <c r="I90" t="s">
-        <v>345</v>
-      </c>
-      <c r="K90" t="s">
-        <v>645</v>
-      </c>
-      <c r="M90" t="s">
-        <v>646</v>
-      </c>
-      <c r="N90" s="3">
-        <v>42272</v>
-      </c>
-      <c r="R90" t="s">
-        <v>647</v>
-      </c>
-      <c r="T90" t="s">
-        <v>345</v>
-      </c>
-      <c r="U90" t="s">
-        <v>648</v>
-      </c>
-      <c r="X90" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y90" s="3">
-        <v>33030</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>650</v>
-      </c>
-      <c r="AF90" t="s">
-        <v>651</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>652</v>
-      </c>
-      <c r="AJ90" s="3">
-        <v>35415</v>
-      </c>
-      <c r="AN90" t="s">
-        <v>653</v>
-      </c>
-      <c r="AQ90" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT90" t="s">
-        <v>655</v>
-      </c>
-      <c r="AU90" s="3">
-        <v>40203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>656</v>
-      </c>
-      <c r="B91" t="s">
-        <v>657</v>
-      </c>
-      <c r="C91" s="1">
-        <v>30541</v>
-      </c>
-      <c r="D91" s="3">
-        <v>40153</v>
-      </c>
-      <c r="F91" t="s">
-        <v>658</v>
-      </c>
-      <c r="G91" t="s">
-        <v>659</v>
-      </c>
-      <c r="J91" t="s">
-        <v>660</v>
-      </c>
-      <c r="K91" t="s">
-        <v>661</v>
-      </c>
-      <c r="M91" t="s">
-        <v>662</v>
-      </c>
-      <c r="R91" t="s">
-        <v>663</v>
-      </c>
-      <c r="U91" t="s">
-        <v>664</v>
-      </c>
-      <c r="X91" t="s">
-        <v>665</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>41995</v>
-      </c>
-    </row>
-    <row r="92" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>656</v>
-      </c>
-      <c r="B92" t="s">
-        <v>666</v>
-      </c>
-      <c r="C92" s="1">
-        <v>42168</v>
-      </c>
-      <c r="D92" s="3">
-        <v>29449</v>
-      </c>
-      <c r="G92" t="s">
-        <v>667</v>
-      </c>
-      <c r="I92" t="s">
-        <v>668</v>
-      </c>
-      <c r="J92" t="s">
-        <v>669</v>
-      </c>
-      <c r="K92" t="s">
-        <v>670</v>
-      </c>
-      <c r="M92" t="s">
-        <v>671</v>
-      </c>
-      <c r="N92" s="3">
-        <v>42109</v>
-      </c>
-      <c r="T92" t="s">
-        <v>672</v>
-      </c>
-      <c r="U92" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="AI132" t="s">
         <v>1099</v>
       </c>
-      <c r="B93" t="s">
+      <c r="AQ132" t="s">
         <v>1100</v>
       </c>
-      <c r="D93" s="3">
+    </row>
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D133" s="1">
         <v>31962</v>
       </c>
-      <c r="F93" t="s">
-        <v>1101</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1102</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="F133" t="s">
         <v>1103</v>
       </c>
-      <c r="U93" t="s">
+      <c r="K133" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="94" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>674</v>
-      </c>
-      <c r="B94" t="s">
-        <v>675</v>
-      </c>
-      <c r="C94" s="1">
-        <v>17961</v>
-      </c>
-      <c r="D94" s="3">
-        <v>25901</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="M133" t="s">
+        <v>1105</v>
+      </c>
+      <c r="U133" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>676</v>
       </c>
-      <c r="G94" t="s">
-        <v>677</v>
-      </c>
-      <c r="I94" t="s">
-        <v>157</v>
-      </c>
-      <c r="J94" t="s">
-        <v>678</v>
-      </c>
-      <c r="K94" t="s">
-        <v>679</v>
-      </c>
-      <c r="M94" t="s">
-        <v>680</v>
-      </c>
-      <c r="N94" s="3">
-        <v>27432</v>
-      </c>
-      <c r="R94" t="s">
-        <v>681</v>
-      </c>
-      <c r="T94" t="s">
-        <v>682</v>
-      </c>
-      <c r="X94" t="s">
-        <v>683</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>30506</v>
-      </c>
-      <c r="Z94" s="1">
-        <v>39613</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>674</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G95" t="s">
-        <v>1106</v>
-      </c>
-      <c r="K95" t="s">
+      <c r="B134" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="96" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>686</v>
-      </c>
-      <c r="B96" t="s">
-        <v>687</v>
-      </c>
-      <c r="C96" s="1">
-        <v>16662</v>
-      </c>
-      <c r="D96" s="3">
-        <v>29344</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="G134" t="s">
+        <v>1108</v>
+      </c>
+      <c r="K134" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>688</v>
       </c>
-      <c r="G96" t="s">
-        <v>689</v>
-      </c>
-      <c r="I96" t="s">
-        <v>690</v>
-      </c>
-      <c r="J96" t="s">
-        <v>691</v>
-      </c>
-      <c r="K96" t="s">
-        <v>692</v>
-      </c>
-      <c r="M96" t="s">
-        <v>693</v>
-      </c>
-      <c r="N96" s="3">
-        <v>19975</v>
-      </c>
-      <c r="R96" t="s">
-        <v>694</v>
-      </c>
-      <c r="U96" t="s">
-        <v>695</v>
-      </c>
-      <c r="X96" t="s">
-        <v>696</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>30035</v>
-      </c>
-      <c r="AC96" t="s">
-        <v>697</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>698</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>699</v>
-      </c>
-      <c r="AI96" t="s">
-        <v>700</v>
-      </c>
-      <c r="AJ96" s="3">
-        <v>31533</v>
-      </c>
-      <c r="AN96" t="s">
-        <v>701</v>
-      </c>
-      <c r="AP96" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>686</v>
-      </c>
-      <c r="B97" t="s">
-        <v>703</v>
-      </c>
-      <c r="C97" s="1">
-        <v>30939</v>
-      </c>
-      <c r="D97" s="3">
-        <v>41237</v>
-      </c>
-      <c r="G97" t="s">
-        <v>704</v>
-      </c>
-      <c r="I97" t="s">
-        <v>705</v>
-      </c>
-      <c r="J97" t="s">
-        <v>706</v>
-      </c>
-      <c r="K97" t="s">
-        <v>707</v>
-      </c>
-      <c r="M97" t="s">
-        <v>708</v>
-      </c>
-      <c r="N97" s="3">
-        <v>31271</v>
-      </c>
-      <c r="R97" t="s">
-        <v>709</v>
-      </c>
-      <c r="T97" t="s">
-        <v>705</v>
-      </c>
-      <c r="U97" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>686</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1108</v>
-      </c>
-      <c r="F98" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G98" t="s">
+      <c r="B135" t="s">
         <v>1110</v>
       </c>
-      <c r="H98" t="s">
+      <c r="F135" t="s">
         <v>1111</v>
       </c>
-      <c r="K98" t="s">
+      <c r="G135" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>711</v>
-      </c>
-      <c r="B99" t="s">
-        <v>712</v>
-      </c>
-      <c r="C99" s="1">
-        <v>13306</v>
-      </c>
-      <c r="D99" s="3">
-        <v>25907</v>
-      </c>
-      <c r="E99" t="s">
-        <v>713</v>
-      </c>
-      <c r="F99" t="s">
-        <v>714</v>
-      </c>
-      <c r="G99" t="s">
-        <v>715</v>
-      </c>
-      <c r="K99" t="s">
-        <v>716</v>
-      </c>
-      <c r="M99" t="s">
-        <v>717</v>
-      </c>
-      <c r="N99" s="3">
-        <v>14608</v>
-      </c>
-      <c r="X99" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y99" s="3">
-        <v>36213</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>719</v>
-      </c>
-      <c r="AI99" t="s">
-        <v>720</v>
-      </c>
-      <c r="AJ99" s="3">
-        <v>36811</v>
-      </c>
-      <c r="AN99" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>711</v>
-      </c>
-      <c r="B100" t="s">
-        <v>722</v>
-      </c>
-      <c r="C100" s="1">
-        <v>11194</v>
-      </c>
-      <c r="D100" s="3">
-        <v>22309</v>
-      </c>
-      <c r="F100" t="s">
-        <v>549</v>
-      </c>
-      <c r="G100" t="s">
-        <v>723</v>
-      </c>
-      <c r="K100" t="s">
-        <v>554</v>
-      </c>
-      <c r="M100" t="s">
-        <v>724</v>
-      </c>
-      <c r="N100" s="3">
-        <v>11421</v>
-      </c>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>725</v>
-      </c>
-      <c r="B101" t="s">
-        <v>726</v>
-      </c>
-      <c r="C101" s="1">
-        <v>30670</v>
-      </c>
-      <c r="D101" s="3">
-        <v>41930</v>
-      </c>
-      <c r="F101" t="s">
-        <v>727</v>
-      </c>
-      <c r="G101" t="s">
-        <v>728</v>
-      </c>
-      <c r="I101" t="s">
-        <v>532</v>
-      </c>
-      <c r="J101" t="s">
-        <v>729</v>
-      </c>
-      <c r="K101" t="s">
-        <v>730</v>
-      </c>
-      <c r="M101" t="s">
-        <v>731</v>
-      </c>
-      <c r="N101" s="3">
-        <v>32052</v>
-      </c>
-      <c r="R101" t="s">
-        <v>732</v>
-      </c>
-      <c r="T101" t="s">
-        <v>532</v>
-      </c>
-      <c r="U101" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>734</v>
-      </c>
-      <c r="B102" t="s">
-        <v>735</v>
-      </c>
-      <c r="C102" s="1">
-        <v>15251</v>
-      </c>
-      <c r="E102" t="s">
-        <v>736</v>
-      </c>
-      <c r="F102" t="s">
-        <v>737</v>
-      </c>
-      <c r="G102" t="s">
-        <v>738</v>
-      </c>
-      <c r="H102" t="s">
-        <v>739</v>
-      </c>
-      <c r="I102" t="s">
-        <v>386</v>
-      </c>
-      <c r="J102" t="s">
-        <v>740</v>
-      </c>
-      <c r="K102" t="s">
-        <v>741</v>
-      </c>
-      <c r="M102" t="s">
-        <v>742</v>
-      </c>
-      <c r="N102" s="3">
-        <v>24594</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>743</v>
-      </c>
-      <c r="R102" t="s">
-        <v>744</v>
-      </c>
-      <c r="S102" t="s">
-        <v>745</v>
-      </c>
-      <c r="T102" t="s">
-        <v>746</v>
-      </c>
-      <c r="U102" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>734</v>
-      </c>
-      <c r="B103" t="s">
-        <v>748</v>
-      </c>
-      <c r="C103" s="1">
-        <v>17916</v>
-      </c>
-      <c r="D103" s="3">
-        <v>27047</v>
-      </c>
-      <c r="E103" t="s">
-        <v>749</v>
-      </c>
-      <c r="F103" t="s">
-        <v>750</v>
-      </c>
-      <c r="G103" t="s">
-        <v>751</v>
-      </c>
-      <c r="I103" t="s">
-        <v>281</v>
-      </c>
-      <c r="J103" t="s">
-        <v>752</v>
-      </c>
-      <c r="K103" t="s">
-        <v>753</v>
-      </c>
-      <c r="M103" t="s">
-        <v>754</v>
-      </c>
-      <c r="N103" s="3">
-        <v>17605</v>
-      </c>
-      <c r="R103" t="s">
-        <v>755</v>
-      </c>
-      <c r="T103" t="s">
-        <v>756</v>
-      </c>
-      <c r="U103" t="s">
-        <v>757</v>
-      </c>
-      <c r="X103" t="s">
-        <v>758</v>
-      </c>
-      <c r="Y103" s="3">
-        <v>31239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>734</v>
-      </c>
-      <c r="B104" t="s">
-        <v>759</v>
-      </c>
-      <c r="C104" s="1">
-        <v>28667</v>
-      </c>
-      <c r="D104" s="3">
-        <v>39627</v>
-      </c>
-      <c r="F104" t="s">
-        <v>760</v>
-      </c>
-      <c r="G104" t="s">
-        <v>761</v>
-      </c>
-      <c r="I104" t="s">
-        <v>762</v>
-      </c>
-      <c r="J104" t="s">
-        <v>763</v>
-      </c>
-      <c r="K104" t="s">
-        <v>764</v>
-      </c>
-      <c r="M104" t="s">
-        <v>765</v>
-      </c>
-      <c r="N104" s="3">
-        <v>29845</v>
-      </c>
-      <c r="R104" t="s">
-        <v>766</v>
-      </c>
-      <c r="U104" t="s">
-        <v>767</v>
-      </c>
-      <c r="X104" t="s">
-        <v>768</v>
-      </c>
-      <c r="Y104" s="3">
-        <v>40347</v>
-      </c>
-      <c r="AI104" t="s">
-        <v>769</v>
-      </c>
-      <c r="AJ104" s="3">
-        <v>41733</v>
-      </c>
-    </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>770</v>
-      </c>
-      <c r="B105" t="s">
-        <v>771</v>
-      </c>
-      <c r="C105" s="1">
-        <v>22238</v>
-      </c>
-      <c r="E105" t="s">
-        <v>772</v>
-      </c>
-      <c r="F105" t="s">
-        <v>773</v>
-      </c>
-      <c r="G105" t="s">
-        <v>774</v>
-      </c>
-      <c r="I105" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" t="s">
-        <v>775</v>
-      </c>
-      <c r="K105" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>777</v>
-      </c>
-      <c r="B106" t="s">
-        <v>778</v>
-      </c>
-      <c r="C106" s="1">
-        <v>22754</v>
-      </c>
-      <c r="D106" s="3">
-        <v>31115</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="H135" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K135" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>779</v>
       </c>
-      <c r="F106" t="s">
-        <v>780</v>
-      </c>
-      <c r="J106" t="s">
-        <v>781</v>
-      </c>
-      <c r="K106" t="s">
-        <v>782</v>
-      </c>
-      <c r="M106" t="s">
-        <v>783</v>
-      </c>
-      <c r="N106" s="3">
-        <v>24122</v>
-      </c>
-      <c r="R106" t="s">
-        <v>784</v>
-      </c>
-      <c r="U106" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>777</v>
-      </c>
-      <c r="B107" t="s">
-        <v>786</v>
-      </c>
-      <c r="C107" s="1">
-        <v>27175</v>
-      </c>
-      <c r="D107" s="3">
-        <v>34826</v>
-      </c>
-      <c r="F107" t="s">
-        <v>787</v>
-      </c>
-      <c r="G107" t="s">
-        <v>788</v>
-      </c>
-      <c r="H107" t="s">
-        <v>789</v>
-      </c>
-      <c r="I107" t="s">
-        <v>790</v>
-      </c>
-      <c r="J107" t="s">
-        <v>791</v>
-      </c>
-      <c r="K107" t="s">
-        <v>792</v>
-      </c>
-      <c r="M107" t="s">
-        <v>793</v>
-      </c>
-      <c r="N107" s="3">
-        <v>28678</v>
-      </c>
-      <c r="R107" t="s">
-        <v>794</v>
-      </c>
-      <c r="T107" t="s">
-        <v>386</v>
-      </c>
-      <c r="U107" t="s">
-        <v>795</v>
-      </c>
-      <c r="X107" t="s">
-        <v>796</v>
-      </c>
-      <c r="Y107" s="3">
-        <v>36345</v>
-      </c>
-      <c r="AC107" t="s">
-        <v>797</v>
-      </c>
-      <c r="AF107" t="s">
-        <v>798</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>799</v>
-      </c>
-      <c r="AJ107" s="3">
-        <v>37638</v>
-      </c>
-      <c r="AN107" t="s">
-        <v>800</v>
-      </c>
-      <c r="AQ107" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>777</v>
-      </c>
-      <c r="B108" t="s">
-        <v>802</v>
-      </c>
-      <c r="C108" s="1">
-        <v>16047</v>
-      </c>
-      <c r="E108" t="s">
-        <v>803</v>
-      </c>
-      <c r="F108">
-        <v>37842984</v>
-      </c>
-      <c r="K108" t="s">
-        <v>804</v>
-      </c>
-      <c r="M108" t="s">
-        <v>805</v>
-      </c>
-      <c r="N108" s="3">
-        <v>11547</v>
-      </c>
-      <c r="R108">
-        <v>952039239</v>
-      </c>
-    </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>777</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F109" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="B136" t="s">
         <v>1115</v>
       </c>
-      <c r="H109" t="s">
+      <c r="F136" t="s">
         <v>1116</v>
       </c>
-      <c r="J109" t="s">
+      <c r="G136" t="s">
         <v>1117</v>
       </c>
-      <c r="K109" t="s">
+      <c r="H136" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>777</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="J136" t="s">
         <v>1119</v>
       </c>
-      <c r="D110" s="3">
+      <c r="K136" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>779</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D137" s="1">
         <v>26235</v>
       </c>
-      <c r="E110" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F110" t="s">
-        <v>1121</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="E137" t="s">
         <v>1122</v>
       </c>
-      <c r="J110" t="s">
+      <c r="F137" t="s">
         <v>1123</v>
       </c>
-      <c r="K110" t="s">
+      <c r="G137" t="s">
         <v>1124</v>
       </c>
-      <c r="M110" t="s">
+      <c r="J137" t="s">
         <v>1125</v>
       </c>
-      <c r="R110" t="s">
+      <c r="K137" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>806</v>
-      </c>
-      <c r="B111" t="s">
-        <v>807</v>
-      </c>
-      <c r="C111" s="1">
-        <v>18577</v>
-      </c>
-      <c r="D111" s="3">
-        <v>29384</v>
-      </c>
-      <c r="F111" t="s">
-        <v>808</v>
-      </c>
-      <c r="G111" t="s">
-        <v>809</v>
-      </c>
-      <c r="I111" t="s">
-        <v>302</v>
-      </c>
-      <c r="K111" t="s">
-        <v>810</v>
-      </c>
-      <c r="M111" t="s">
-        <v>811</v>
-      </c>
-      <c r="N111" s="3">
-        <v>20410</v>
-      </c>
-      <c r="R111" t="s">
-        <v>812</v>
-      </c>
-      <c r="S111" t="s">
-        <v>813</v>
-      </c>
-      <c r="T111" t="s">
-        <v>814</v>
-      </c>
-      <c r="U111" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>806</v>
-      </c>
-      <c r="B112" t="s">
-        <v>816</v>
-      </c>
-      <c r="C112" s="1">
-        <v>32214</v>
-      </c>
-      <c r="I112" t="s">
-        <v>297</v>
-      </c>
-      <c r="J112" t="s">
-        <v>817</v>
-      </c>
-      <c r="K112" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>806</v>
-      </c>
-      <c r="B113" t="s">
-        <v>819</v>
-      </c>
-      <c r="C113" s="1">
-        <v>30176</v>
-      </c>
-      <c r="D113" s="3">
-        <v>42266</v>
-      </c>
-      <c r="G113" t="s">
-        <v>820</v>
-      </c>
-      <c r="I113" t="s">
-        <v>302</v>
-      </c>
-      <c r="J113" t="s">
-        <v>821</v>
-      </c>
-      <c r="M113" t="s">
-        <v>822</v>
-      </c>
-      <c r="R113" t="s">
-        <v>823</v>
-      </c>
-      <c r="T113" t="s">
-        <v>288</v>
-      </c>
-      <c r="U113" t="s">
-        <v>824</v>
-      </c>
-      <c r="X113" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>826</v>
-      </c>
-      <c r="B114" t="s">
-        <v>827</v>
-      </c>
-      <c r="C114" s="1">
-        <v>31160</v>
-      </c>
-      <c r="D114" s="3">
-        <v>41601</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="M137" t="s">
+        <v>1127</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>828</v>
       </c>
-      <c r="I114" t="s">
-        <v>829</v>
-      </c>
-      <c r="J114" t="s">
-        <v>830</v>
-      </c>
-      <c r="K114" t="s">
-        <v>831</v>
-      </c>
-      <c r="M114" t="s">
-        <v>832</v>
-      </c>
-      <c r="N114" s="3">
-        <v>31764</v>
-      </c>
-      <c r="R114" t="s">
-        <v>833</v>
-      </c>
-      <c r="X114" t="s">
-        <v>834</v>
-      </c>
-      <c r="Y114" s="3">
-        <v>39489</v>
-      </c>
-    </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>826</v>
-      </c>
-      <c r="B115" t="s">
-        <v>835</v>
-      </c>
-      <c r="C115" s="1">
-        <v>30026</v>
-      </c>
-      <c r="G115" t="s">
-        <v>836</v>
-      </c>
-      <c r="I115" t="s">
-        <v>837</v>
-      </c>
-      <c r="J115" t="s">
-        <v>838</v>
-      </c>
-      <c r="K115" t="s">
-        <v>839</v>
-      </c>
-      <c r="M115" t="s">
-        <v>840</v>
-      </c>
-      <c r="N115" s="3">
-        <v>38008</v>
-      </c>
-      <c r="R115" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>826</v>
-      </c>
-      <c r="B116" t="s">
-        <v>842</v>
-      </c>
-      <c r="C116" s="1">
-        <v>29399</v>
-      </c>
-      <c r="D116" s="3">
-        <v>37401</v>
-      </c>
-      <c r="F116" t="s">
-        <v>843</v>
-      </c>
-      <c r="G116" t="s">
-        <v>844</v>
-      </c>
-      <c r="I116" t="s">
-        <v>327</v>
-      </c>
-      <c r="J116" t="s">
-        <v>845</v>
-      </c>
-      <c r="K116" t="s">
-        <v>846</v>
-      </c>
-      <c r="M116" t="s">
-        <v>847</v>
-      </c>
-      <c r="N116" s="3">
-        <v>26837</v>
-      </c>
-      <c r="R116" t="s">
-        <v>848</v>
-      </c>
-      <c r="X116" t="s">
-        <v>849</v>
-      </c>
-      <c r="Y116" s="3">
-        <v>38634</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>850</v>
-      </c>
-      <c r="AJ116" s="3">
-        <v>41073</v>
-      </c>
-    </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>826</v>
-      </c>
-      <c r="B117" t="s">
-        <v>851</v>
-      </c>
-      <c r="C117" s="1">
-        <v>17959</v>
-      </c>
-      <c r="F117" t="s">
-        <v>852</v>
-      </c>
-      <c r="G117" t="s">
-        <v>263</v>
-      </c>
-      <c r="I117" t="s">
-        <v>514</v>
-      </c>
-      <c r="J117" t="s">
-        <v>853</v>
-      </c>
-      <c r="K117" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>826</v>
-      </c>
-      <c r="B118" t="s">
-        <v>855</v>
-      </c>
-      <c r="C118" s="1">
-        <v>17714</v>
-      </c>
-      <c r="D118" s="3">
-        <v>30786</v>
-      </c>
-      <c r="E118" t="s">
-        <v>856</v>
-      </c>
-      <c r="F118" t="s">
-        <v>857</v>
-      </c>
-      <c r="G118" t="s">
-        <v>858</v>
-      </c>
-      <c r="I118" t="s">
-        <v>859</v>
-      </c>
-      <c r="J118" t="s">
-        <v>860</v>
-      </c>
-      <c r="K118" t="s">
-        <v>861</v>
-      </c>
-      <c r="M118" t="s">
-        <v>862</v>
-      </c>
-      <c r="N118" s="3">
-        <v>22730</v>
-      </c>
-      <c r="R118" t="s">
-        <v>863</v>
-      </c>
-      <c r="S118" t="s">
-        <v>864</v>
-      </c>
-      <c r="T118" t="s">
-        <v>865</v>
-      </c>
-      <c r="U118" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>826</v>
-      </c>
-      <c r="B119" t="s">
-        <v>867</v>
-      </c>
-      <c r="C119" s="1">
-        <v>13107</v>
-      </c>
-      <c r="E119" t="s">
-        <v>868</v>
-      </c>
-      <c r="F119" t="s">
-        <v>869</v>
-      </c>
-      <c r="G119">
-        <v>999080022</v>
-      </c>
-      <c r="K119" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>826</v>
-      </c>
-      <c r="B120" t="s">
-        <v>871</v>
-      </c>
-      <c r="C120" s="1">
-        <v>22722</v>
-      </c>
-      <c r="D120" s="3">
-        <v>32795</v>
-      </c>
-      <c r="E120" t="s">
-        <v>872</v>
-      </c>
-      <c r="F120" t="s">
-        <v>873</v>
-      </c>
-      <c r="G120" t="s">
-        <v>874</v>
-      </c>
-      <c r="I120" t="s">
-        <v>875</v>
-      </c>
-      <c r="J120" t="s">
-        <v>876</v>
-      </c>
-      <c r="K120" t="s">
-        <v>877</v>
-      </c>
-      <c r="M120" t="s">
-        <v>878</v>
-      </c>
-      <c r="N120" s="3">
-        <v>25857</v>
-      </c>
-      <c r="R120" t="s">
-        <v>879</v>
-      </c>
-      <c r="T120" t="s">
-        <v>880</v>
-      </c>
-      <c r="U120" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>826</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F121" t="s">
-        <v>1128</v>
-      </c>
-      <c r="H121" t="s">
+      <c r="B138" t="s">
         <v>1129</v>
       </c>
-      <c r="K121" t="s">
+      <c r="F138" t="s">
         <v>1130</v>
       </c>
-      <c r="M121" t="s">
+      <c r="H138" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="K138" t="s">
         <v>1132</v>
       </c>
-      <c r="B122" t="s">
+      <c r="M138" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>882</v>
-      </c>
-      <c r="B123" t="s">
-        <v>883</v>
-      </c>
-      <c r="C123" s="1">
-        <v>23348</v>
-      </c>
-      <c r="D123" s="3">
-        <v>30058</v>
-      </c>
-      <c r="E123" t="s">
-        <v>884</v>
-      </c>
-      <c r="F123" t="s">
-        <v>885</v>
-      </c>
-      <c r="G123" t="s">
-        <v>886</v>
-      </c>
-      <c r="I123" t="s">
-        <v>887</v>
-      </c>
-      <c r="K123" t="s">
-        <v>888</v>
-      </c>
-      <c r="M123" t="s">
-        <v>889</v>
-      </c>
-      <c r="N123" s="3">
-        <v>37224</v>
-      </c>
-      <c r="R123">
-        <v>945455929</v>
-      </c>
-      <c r="U123" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>1134</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B139" t="s">
         <v>1135</v>
       </c>
-      <c r="G124" t="s">
+    </row>
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>1136</v>
       </c>
-      <c r="K124" t="s">
+      <c r="B140" t="s">
         <v>1137</v>
       </c>
-      <c r="M124" t="s">
+      <c r="G140" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="K140" t="s">
         <v>1139</v>
       </c>
-      <c r="B125" t="s">
+      <c r="M140" t="s">
         <v>1140</v>
       </c>
-      <c r="D125" s="3">
+    </row>
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D141" s="1">
         <v>40096</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G141" t="s">
+        <v>1143</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1146</v>
+      </c>
+      <c r="R141" t="s">
+        <v>1147</v>
+      </c>
+      <c r="U141" t="s">
+        <v>1148</v>
+      </c>
+      <c r="X141" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AT141" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>1141</v>
       </c>
-      <c r="J125" t="s">
-        <v>1142</v>
-      </c>
-      <c r="K125" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M125" t="s">
-        <v>1144</v>
-      </c>
-      <c r="R125" t="s">
-        <v>1145</v>
-      </c>
-      <c r="U125" t="s">
-        <v>1146</v>
-      </c>
-      <c r="X125" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AI125" t="s">
-        <v>1148</v>
-      </c>
-      <c r="AT125" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B126" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D126" s="3">
+      <c r="B142" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D142" s="1">
         <v>33117</v>
       </c>
-      <c r="F126" t="s">
-        <v>1151</v>
-      </c>
-      <c r="G126" t="s">
-        <v>1152</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="F142" t="s">
         <v>1153</v>
       </c>
-      <c r="K126" t="s">
+      <c r="G142" t="s">
         <v>1154</v>
       </c>
-      <c r="M126" t="s">
+      <c r="J142" t="s">
         <v>1155</v>
       </c>
-      <c r="X126" t="s">
+      <c r="K142" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>891</v>
-      </c>
-      <c r="B127" t="s">
-        <v>892</v>
-      </c>
-      <c r="C127" s="1">
-        <v>24305</v>
-      </c>
-      <c r="D127" s="3">
-        <v>35882</v>
-      </c>
-      <c r="F127" t="s">
+      <c r="M142" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X142" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>893</v>
       </c>
-      <c r="G127" t="s">
-        <v>894</v>
-      </c>
-      <c r="H127" t="s">
-        <v>895</v>
-      </c>
-      <c r="I127" t="s">
-        <v>896</v>
-      </c>
-      <c r="J127" t="s">
-        <v>897</v>
-      </c>
-      <c r="K127" t="s">
-        <v>898</v>
-      </c>
-      <c r="M127" t="s">
-        <v>899</v>
-      </c>
-      <c r="N127" s="3">
-        <v>26724</v>
-      </c>
-      <c r="R127" t="s">
-        <v>900</v>
-      </c>
-      <c r="T127" t="s">
-        <v>682</v>
-      </c>
-      <c r="U127" t="s">
-        <v>901</v>
-      </c>
-      <c r="X127" t="s">
-        <v>902</v>
-      </c>
-      <c r="Y127" s="3">
-        <v>37514</v>
-      </c>
-      <c r="AI127" t="s">
-        <v>903</v>
-      </c>
-      <c r="AJ127" s="3">
-        <v>38596</v>
-      </c>
-    </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>891</v>
-      </c>
-      <c r="B128" t="s">
-        <v>904</v>
-      </c>
-      <c r="C128" s="1">
-        <v>25918</v>
-      </c>
-      <c r="D128" s="3">
-        <v>36267</v>
-      </c>
-      <c r="F128" t="s">
-        <v>905</v>
-      </c>
-      <c r="G128" t="s">
-        <v>906</v>
-      </c>
-      <c r="I128" t="s">
-        <v>907</v>
-      </c>
-      <c r="J128" t="s">
-        <v>908</v>
-      </c>
-      <c r="K128" t="s">
-        <v>909</v>
-      </c>
-      <c r="M128" t="s">
-        <v>910</v>
-      </c>
-      <c r="N128" s="3">
-        <v>27189</v>
-      </c>
-      <c r="R128" t="s">
-        <v>911</v>
-      </c>
-      <c r="T128" t="s">
-        <v>514</v>
-      </c>
-      <c r="U128" t="s">
-        <v>912</v>
-      </c>
-      <c r="X128" t="s">
-        <v>913</v>
-      </c>
-      <c r="Y128" s="3">
-        <v>38790</v>
-      </c>
-      <c r="AI128" t="s">
-        <v>914</v>
-      </c>
-      <c r="AJ128" s="3">
-        <v>41029</v>
-      </c>
-    </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>891</v>
-      </c>
-      <c r="B129" t="s">
-        <v>915</v>
-      </c>
-      <c r="C129" s="1">
-        <v>27889</v>
-      </c>
-      <c r="D129" s="3">
-        <v>38619</v>
-      </c>
-      <c r="F129" t="s">
-        <v>916</v>
-      </c>
-      <c r="G129" t="s">
-        <v>917</v>
-      </c>
-      <c r="H129" t="s">
-        <v>918</v>
-      </c>
-      <c r="I129" t="s">
-        <v>919</v>
-      </c>
-      <c r="J129" t="s">
-        <v>920</v>
-      </c>
-      <c r="K129" t="s">
-        <v>921</v>
-      </c>
-      <c r="M129" t="s">
-        <v>922</v>
-      </c>
-      <c r="N129" s="3">
-        <v>30358</v>
-      </c>
-      <c r="R129" t="s">
-        <v>923</v>
-      </c>
-      <c r="T129" t="s">
-        <v>924</v>
-      </c>
-      <c r="U129" t="s">
-        <v>925</v>
-      </c>
-      <c r="X129" t="s">
-        <v>926</v>
-      </c>
-      <c r="Y129" s="3">
-        <v>39937</v>
-      </c>
-    </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>891</v>
-      </c>
-      <c r="B130" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1158</v>
-      </c>
-      <c r="K130" t="s">
+      <c r="B143" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>891</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="F143" t="s">
         <v>1160</v>
       </c>
-      <c r="G131" t="s">
+      <c r="K143" t="s">
         <v>1161</v>
       </c>
-      <c r="J131" t="s">
+    </row>
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>893</v>
+      </c>
+      <c r="B144" t="s">
         <v>1162</v>
       </c>
-      <c r="K131" t="s">
+      <c r="G144" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>927</v>
-      </c>
-      <c r="B132" t="s">
-        <v>928</v>
-      </c>
-      <c r="C132" s="1">
-        <v>19413</v>
-      </c>
-      <c r="E132" t="s">
-        <v>929</v>
-      </c>
-      <c r="F132" t="s">
-        <v>930</v>
-      </c>
-      <c r="G132" t="s">
-        <v>931</v>
-      </c>
-      <c r="H132" t="s">
-        <v>932</v>
-      </c>
-      <c r="I132" t="s">
-        <v>933</v>
-      </c>
-      <c r="J132" t="s">
-        <v>934</v>
-      </c>
-      <c r="K132" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="J144" t="s">
         <v>1164</v>
       </c>
-      <c r="B133" t="s">
+      <c r="K144" t="s">
         <v>1165</v>
       </c>
-      <c r="F133" t="s">
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>1166</v>
       </c>
-      <c r="K133" t="s">
+      <c r="B145" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>936</v>
-      </c>
-      <c r="B134" t="s">
-        <v>937</v>
-      </c>
-      <c r="C134" s="1">
-        <v>24071</v>
-      </c>
-      <c r="D134" s="3">
-        <v>41363</v>
-      </c>
-      <c r="E134" t="s">
-        <v>938</v>
-      </c>
-      <c r="F134" t="s">
-        <v>939</v>
-      </c>
-      <c r="G134" t="s">
-        <v>940</v>
-      </c>
-      <c r="I134" t="s">
-        <v>941</v>
-      </c>
-      <c r="J134" t="s">
-        <v>942</v>
-      </c>
-      <c r="K134" t="s">
-        <v>943</v>
-      </c>
-      <c r="M134" t="s">
-        <v>944</v>
-      </c>
-      <c r="N134" s="3">
-        <v>24306</v>
-      </c>
-      <c r="R134" t="s">
-        <v>945</v>
-      </c>
-      <c r="S134" t="s">
-        <v>946</v>
-      </c>
-      <c r="T134" t="s">
-        <v>947</v>
-      </c>
-      <c r="U134" t="s">
-        <v>948</v>
-      </c>
-      <c r="X134" t="s">
-        <v>949</v>
-      </c>
-      <c r="Y134" s="3">
-        <v>36624</v>
-      </c>
-      <c r="AC134" t="s">
-        <v>950</v>
-      </c>
-      <c r="AI134" t="s">
-        <v>951</v>
-      </c>
-      <c r="AJ134" s="3">
-        <v>40119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>952</v>
-      </c>
-      <c r="B135" t="s">
-        <v>953</v>
-      </c>
-      <c r="C135" s="1">
-        <v>29422</v>
-      </c>
-      <c r="D135" s="3">
-        <v>40110</v>
-      </c>
-      <c r="G135" t="s">
-        <v>954</v>
-      </c>
-      <c r="H135" t="s">
-        <v>955</v>
-      </c>
-      <c r="I135" t="s">
-        <v>492</v>
-      </c>
-      <c r="J135" t="s">
-        <v>956</v>
-      </c>
-      <c r="K135" t="s">
-        <v>957</v>
-      </c>
-      <c r="M135" t="s">
-        <v>958</v>
-      </c>
-      <c r="N135" s="3">
-        <v>30129</v>
-      </c>
-      <c r="R135" t="s">
-        <v>959</v>
-      </c>
-      <c r="T135" t="s">
-        <v>960</v>
-      </c>
-      <c r="U135" t="s">
-        <v>961</v>
-      </c>
-      <c r="X135" t="s">
-        <v>962</v>
-      </c>
-      <c r="Y135" s="3">
-        <v>40303</v>
-      </c>
-      <c r="AI135" t="s">
-        <v>963</v>
-      </c>
-      <c r="AJ135" s="3">
-        <v>41422</v>
-      </c>
-    </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="F145" t="s">
         <v>1168</v>
       </c>
-      <c r="B136" t="s">
+      <c r="K145" t="s">
         <v>1169</v>
       </c>
-      <c r="F136" t="s">
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>1170</v>
       </c>
-      <c r="K136" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="B146" t="s">
         <v>1171</v>
       </c>
-      <c r="B137" t="s">
+      <c r="F146" t="s">
         <v>1172</v>
       </c>
-      <c r="F137" t="s">
+      <c r="K146" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>1173</v>
       </c>
-      <c r="G137" t="s">
+      <c r="B147" t="s">
         <v>1174</v>
       </c>
-      <c r="K137" t="s">
+      <c r="F147" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>964</v>
-      </c>
-      <c r="B138" t="s">
-        <v>965</v>
-      </c>
-      <c r="C138" s="1">
-        <v>31442</v>
-      </c>
-      <c r="D138" s="3">
-        <v>41258</v>
-      </c>
-      <c r="F138" t="s">
-        <v>966</v>
-      </c>
-      <c r="G138" t="s">
-        <v>967</v>
-      </c>
-      <c r="H138" t="s">
-        <v>968</v>
-      </c>
-      <c r="I138" t="s">
-        <v>969</v>
-      </c>
-      <c r="J138" t="s">
-        <v>970</v>
-      </c>
-      <c r="K138" t="s">
-        <v>971</v>
-      </c>
-      <c r="M138" t="s">
-        <v>972</v>
-      </c>
-      <c r="N138" s="3">
-        <v>32355</v>
-      </c>
-      <c r="R138" t="s">
-        <v>973</v>
-      </c>
-      <c r="T138" t="s">
-        <v>974</v>
-      </c>
-      <c r="U138" t="s">
-        <v>975</v>
-      </c>
-      <c r="X138" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>964</v>
-      </c>
-      <c r="B139" t="s">
-        <v>977</v>
-      </c>
-      <c r="C139" s="1">
-        <v>28308</v>
-      </c>
-      <c r="D139" s="3">
-        <v>40005</v>
-      </c>
-      <c r="F139" t="s">
-        <v>978</v>
-      </c>
-      <c r="G139" t="s">
-        <v>979</v>
-      </c>
-      <c r="I139" t="s">
-        <v>195</v>
-      </c>
-      <c r="J139" t="s">
-        <v>980</v>
-      </c>
-      <c r="K139" t="s">
-        <v>981</v>
-      </c>
-      <c r="M139" t="s">
-        <v>982</v>
-      </c>
-      <c r="N139" s="3">
-        <v>27705</v>
-      </c>
-      <c r="R139" t="s">
-        <v>983</v>
-      </c>
-      <c r="T139" t="s">
-        <v>933</v>
-      </c>
-      <c r="U139" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="G147" t="s">
         <v>1176</v>
       </c>
-      <c r="B140" t="s">
+      <c r="K147" t="s">
         <v>1177</v>
       </c>
-      <c r="F140" t="s">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>1178</v>
       </c>
-      <c r="K140" t="s">
+      <c r="B148" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>985</v>
-      </c>
-      <c r="B141" t="s">
-        <v>986</v>
-      </c>
-      <c r="C141" s="1">
-        <v>42233</v>
-      </c>
-      <c r="G141" t="s">
-        <v>987</v>
-      </c>
-      <c r="K141" t="s">
-        <v>988</v>
+      <c r="F148" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K148" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1182</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:BN146">
-    <sortCondition ref="A146"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
+++ b/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1199">
   <si>
     <t>Sobrenome</t>
   </si>
@@ -694,6 +694,9 @@
     <t>Ana Virgínia R. Pereira</t>
   </si>
   <si>
+    <t>anaVirginia.jpg</t>
+  </si>
+  <si>
     <t>5506-5455</t>
   </si>
   <si>
@@ -877,6 +880,9 @@
     <t>Siok Ina Kolar</t>
   </si>
   <si>
+    <t>ina.jpg</t>
+  </si>
+  <si>
     <t>4413-1026</t>
   </si>
   <si>
@@ -1141,6 +1147,9 @@
     <t>Mercedes Franco Joaquim</t>
   </si>
   <si>
+    <t>mercedes.jpg</t>
+  </si>
+  <si>
     <t>3673-4918</t>
   </si>
   <si>
@@ -1954,6 +1963,9 @@
     <t xml:space="preserve">Paulo José Cesar </t>
   </si>
   <si>
+    <t>pestana.jpg</t>
+  </si>
+  <si>
     <t>4587-7543</t>
   </si>
   <si>
@@ -2134,6 +2146,9 @@
     <t>Guilherme Bottaro da Rocha</t>
   </si>
   <si>
+    <t>guilherme.jpg</t>
+  </si>
+  <si>
     <t>99958-5311</t>
   </si>
   <si>
@@ -2446,6 +2461,9 @@
     <t>Marcos</t>
   </si>
   <si>
+    <t>bwee.jpg</t>
+  </si>
+  <si>
     <t>4412-9792</t>
   </si>
   <si>
@@ -2737,6 +2755,9 @@
     <t>Clayton Batista de</t>
   </si>
   <si>
+    <t>tereza.jpg</t>
+  </si>
+  <si>
     <t>2640-7188</t>
   </si>
   <si>
@@ -2956,6 +2977,9 @@
     <t>Edson Luís</t>
   </si>
   <si>
+    <t>edson.jpg</t>
+  </si>
+  <si>
     <t>2532-6296</t>
   </si>
   <si>
@@ -2983,6 +3007,9 @@
     <t>Mako</t>
   </si>
   <si>
+    <t>mako.jpg</t>
+  </si>
+  <si>
     <t>96438-5453</t>
   </si>
   <si>
@@ -3121,6 +3148,9 @@
     <t>Nélio Ferreira</t>
   </si>
   <si>
+    <t>sandrinha.jpg</t>
+  </si>
+  <si>
     <t>98470-0930</t>
   </si>
   <si>
@@ -3563,6 +3593,24 @@
   </si>
   <si>
     <t>JORGE</t>
+  </si>
+  <si>
+    <t>DÉBORA VIVIANE DE OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>debora.jpg</t>
+  </si>
+  <si>
+    <t>2774-2525</t>
+  </si>
+  <si>
+    <t>97690-1641</t>
+  </si>
+  <si>
+    <t>3123-8555</t>
+  </si>
+  <si>
+    <t>R. ADOLFO GORDO, 100 – APTO. 96 - Campos Elísios - S. Paulo - SP</t>
   </si>
 </sst>
 </file>
@@ -4393,79 +4441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN149"/>
+  <dimension ref="A1:BN150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="96.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5648,54 +5628,57 @@
       <c r="C24" s="1">
         <v>21243</v>
       </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G24">
         <v>986716621</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1">
         <v>18250</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C26" s="1">
         <v>31513</v>
@@ -5704,42 +5687,42 @@
         <v>41564</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I26" t="s">
         <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" s="1">
         <v>29980</v>
       </c>
       <c r="R26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C27" s="1">
         <v>23284</v>
@@ -5748,34 +5731,34 @@
         <v>36414</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" s="1">
         <v>25053</v>
       </c>
       <c r="R27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="U27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y27" s="1">
         <v>38348</v>
@@ -5783,214 +5766,217 @@
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C28" s="1">
         <v>42219</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N28" s="1">
         <v>42066</v>
       </c>
       <c r="R28" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C29" s="1">
         <v>11637</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="1">
         <v>33382</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N30" s="1">
         <v>35981</v>
       </c>
       <c r="R30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s">
         <v>20</v>
       </c>
       <c r="U30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31" s="1">
         <v>32052</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="1">
         <v>21407</v>
       </c>
+      <c r="E32" t="s">
+        <v>288</v>
+      </c>
       <c r="F32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N32" s="1">
         <v>30933</v>
       </c>
       <c r="R32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="U32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="V32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Y32" s="1">
         <v>32237</v>
       </c>
       <c r="AC32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AE32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C33" s="1">
         <v>31472</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B34" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C34" s="1">
         <v>16825</v>
@@ -5999,108 +5985,108 @@
         <v>27726</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N34" s="1">
         <v>18443</v>
       </c>
       <c r="X34" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Y34" s="1">
         <v>30554</v>
       </c>
       <c r="AI34" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AJ34" s="1">
         <v>27921</v>
       </c>
       <c r="AN34" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AP34" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AQ34" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B35" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C35" s="1">
         <v>46112</v>
       </c>
       <c r="E35" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C36" s="1">
         <v>17599</v>
       </c>
       <c r="F36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C37" s="1">
         <v>25722</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G37" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C39" s="1">
         <v>27548</v>
@@ -6109,81 +6095,81 @@
         <v>36062</v>
       </c>
       <c r="E39" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G39" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J39" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N39" s="1">
         <v>28319</v>
       </c>
       <c r="R39" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="U39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y39" s="1">
         <v>35504</v>
       </c>
       <c r="AI39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AJ39" s="1">
         <v>36834</v>
       </c>
       <c r="AN39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B40" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C40" s="1">
         <v>30504</v>
       </c>
       <c r="G40" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M40" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N40" s="1">
         <v>40928</v>
       </c>
       <c r="X40" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y40" s="1">
         <v>41443</v>
@@ -6191,10 +6177,10 @@
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C41" s="1">
         <v>27665</v>
@@ -6203,43 +6189,43 @@
         <v>40084</v>
       </c>
       <c r="E41" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F41" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N41" s="1">
         <v>28088</v>
       </c>
       <c r="R41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="S41" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="U41" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="X41" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Y41" s="1">
         <v>41343</v>
       </c>
       <c r="AI41" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AJ41" s="1">
         <v>41343</v>
@@ -6247,67 +6233,70 @@
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C42" s="1">
         <v>42285</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C43" s="1">
         <v>29314</v>
       </c>
       <c r="E43" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="I43" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C44" s="1">
         <v>42369</v>
       </c>
+      <c r="E44" t="s">
+        <v>377</v>
+      </c>
       <c r="F44" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K44" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B45" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C45" s="1">
         <v>23504</v>
@@ -6316,46 +6305,46 @@
         <v>31976</v>
       </c>
       <c r="F45" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H45" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I45" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N45" s="1">
         <v>23454</v>
       </c>
       <c r="R45" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="T45" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U45" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="X45" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Y45" s="1">
         <v>38637</v>
       </c>
       <c r="AI45" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AJ45" s="1">
         <v>16075</v>
@@ -6363,80 +6352,80 @@
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E46" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G46" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H46" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C47" s="1">
         <v>19516</v>
       </c>
       <c r="F47" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G47" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N47" s="1">
         <v>33007</v>
       </c>
       <c r="R47" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T47" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="U47" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C48" s="1">
         <v>23312</v>
@@ -6445,84 +6434,84 @@
         <v>31493</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G48" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K48" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M48" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N48" s="1">
         <v>24372</v>
       </c>
       <c r="R48" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="S48" t="s">
         <v>20</v>
       </c>
       <c r="T48" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U48" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="X48" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Y48" s="1">
         <v>32806</v>
       </c>
       <c r="AC48" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AD48" t="s">
         <v>20</v>
       </c>
       <c r="AE48" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="AF48" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AI48" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AJ48" s="1">
         <v>33551</v>
       </c>
       <c r="AN48" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AO48" t="s">
         <v>20</v>
       </c>
       <c r="AP48" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AQ48" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C49" s="1">
         <v>23063</v>
@@ -6531,45 +6520,45 @@
         <v>32907</v>
       </c>
       <c r="F49" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G49" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H49" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="I49" t="s">
         <v>175</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M49" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N49" s="1">
         <v>22718</v>
       </c>
       <c r="R49" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="T49" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="U49" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B50" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C50" s="1">
         <v>21157</v>
@@ -6578,30 +6567,30 @@
         <v>35791</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H50" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="I50" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J50" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K50" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B51" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C51" s="1">
         <v>16925</v>
@@ -6610,27 +6599,27 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F51" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I51" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B52" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C52" s="1">
         <v>26871</v>
@@ -6639,37 +6628,37 @@
         <v>36050</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I52" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M52" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N52" s="1">
         <v>26032</v>
       </c>
       <c r="R52" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="T52" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="U52" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="X52" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Y52" s="1">
         <v>39707</v>
@@ -6677,54 +6666,54 @@
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C53" s="1">
         <v>35532</v>
       </c>
       <c r="E53" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F53" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G53" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="I53" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K53" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M53" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N53" s="1">
         <v>17867</v>
       </c>
       <c r="R53" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="T53" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="U53" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B54" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C54" s="1">
         <v>32973</v>
@@ -6733,39 +6722,39 @@
         <v>42070</v>
       </c>
       <c r="G54" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="I54" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="J54" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K54" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M54" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="N54" s="1">
         <v>33515</v>
       </c>
       <c r="R54" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T54" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="U54" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C55" s="1">
         <v>31705</v>
@@ -6774,37 +6763,37 @@
         <v>40578</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G55" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H55" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I55" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J55" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K55" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="M55" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="N55" s="1">
         <v>31506</v>
       </c>
       <c r="R55" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="U55" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="X55" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="Y55" s="1">
         <v>42007</v>
@@ -6812,10 +6801,10 @@
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B56" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C56" s="1">
         <v>30076</v>
@@ -6824,48 +6813,48 @@
         <v>42239</v>
       </c>
       <c r="E56" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F56" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H56" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I56" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="J56" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K56" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M56" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="N56" s="1">
         <v>29812</v>
       </c>
       <c r="R56" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="T56" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="U56" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B57" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C57" s="1">
         <v>17106</v>
@@ -6874,80 +6863,80 @@
         <v>58427037</v>
       </c>
       <c r="G57" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="I57" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J57" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K57" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B58" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E58" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H58" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="I58" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="J58" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K58" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C59" s="1">
         <v>19846</v>
       </c>
       <c r="E59" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F59" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G59" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H59" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I59" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J59" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="K59" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="M59" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="N59" s="1">
         <v>11947</v>
@@ -6955,10 +6944,10 @@
     </row>
     <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B60" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C60" s="1">
         <v>23452</v>
@@ -6967,31 +6956,31 @@
         <v>34944</v>
       </c>
       <c r="E60" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F60" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G60">
         <v>952793807</v>
       </c>
       <c r="I60" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="J60" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K60" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="M60" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="N60" s="1">
         <v>25707</v>
       </c>
       <c r="X60" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="Y60" s="1">
         <v>35118</v>
@@ -7000,7 +6989,7 @@
         <v>983976750</v>
       </c>
       <c r="AI60" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AJ60" s="1">
         <v>39731</v>
@@ -7008,10 +6997,10 @@
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B61" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C61" s="1">
         <v>23347</v>
@@ -7020,132 +7009,132 @@
         <v>31892</v>
       </c>
       <c r="E61" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F61" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G61" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H61" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="I61" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="J61" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="K61" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M61" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="N61" s="1">
         <v>22588</v>
       </c>
       <c r="R61" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="X61" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="Y61" s="1">
         <v>32831</v>
       </c>
       <c r="AC61" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AE61" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="AF61" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B62" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C62" s="1">
         <v>13624</v>
       </c>
       <c r="F62" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G62" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="J62" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="K62" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B63" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C63" s="1">
         <v>19365</v>
       </c>
       <c r="F63" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="K63" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B64" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="C64" s="1">
         <v>11437</v>
       </c>
       <c r="E64" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="K64" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M64" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="N64" s="1">
         <v>21074</v>
       </c>
       <c r="R64" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="T64" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="U64" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B65" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C65" s="1">
         <v>42276</v>
@@ -7154,45 +7143,45 @@
         <v>32914</v>
       </c>
       <c r="E65" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="G65" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I65" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="K65" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="M65" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="N65" s="1">
         <v>42029</v>
       </c>
       <c r="R65" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="T65" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="X65" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="Y65" s="1">
         <v>42041</v>
       </c>
       <c r="AF65" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="66" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B66" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C66" s="1">
         <v>25312</v>
@@ -7201,46 +7190,46 @@
         <v>33812</v>
       </c>
       <c r="E66" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F66" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G66" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I66" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J66" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K66" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="M66" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="N66" s="1">
         <v>26723</v>
       </c>
       <c r="R66" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="X66" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Y66" s="1">
         <v>34674</v>
       </c>
       <c r="AI66" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="AJ66" s="1">
         <v>37786</v>
       </c>
       <c r="AT66" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AU66" s="1">
         <v>38503</v>
@@ -7248,33 +7237,33 @@
     </row>
     <row r="67" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B67" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F67" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G67" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K67" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="69" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B69" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C69" s="1">
         <v>25901</v>
       </c>
       <c r="E69" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F69">
         <v>37390051</v>
@@ -7286,16 +7275,16 @@
         <v>37391224</v>
       </c>
       <c r="I69" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J69" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K69" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M69" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N69" s="1">
         <v>34671</v>
@@ -7304,15 +7293,15 @@
         <v>977852423</v>
       </c>
       <c r="U69" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B70" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="C70" s="1">
         <v>26933</v>
@@ -7321,121 +7310,121 @@
         <v>34251</v>
       </c>
       <c r="F70" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G70" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H70" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="I70" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="J70" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="K70" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M70" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="N70" s="1">
         <v>24393</v>
       </c>
       <c r="R70" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="T70" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="U70" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="X70" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Y70" s="1">
         <v>34412</v>
       </c>
       <c r="AF70" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AI70" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AJ70" s="1">
         <v>37057</v>
       </c>
       <c r="AN70" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AQ70" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AT70" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AU70" s="1">
         <v>37678</v>
       </c>
       <c r="AY70" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="BB70" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B71" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C71" s="1">
         <v>13397</v>
       </c>
       <c r="E71" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="F71">
         <v>47823061</v>
       </c>
       <c r="K71" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B72" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C72" s="1">
         <v>29829</v>
       </c>
       <c r="F72" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G72" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="I72" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="K72" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B73" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="C73" s="1">
         <v>42045</v>
@@ -7443,56 +7432,59 @@
       <c r="D73" s="1">
         <v>32760</v>
       </c>
+      <c r="E73" t="s">
+        <v>649</v>
+      </c>
       <c r="F73" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="I73" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K73" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="M73" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="N73" s="1">
         <v>42272</v>
       </c>
       <c r="R73" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="T73" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U73" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="X73" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Y73" s="1">
         <v>33030</v>
       </c>
       <c r="AC73" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="AF73" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AI73" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AJ73" s="1">
         <v>35415</v>
       </c>
       <c r="AN73" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="AQ73" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="AT73" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="AU73" s="1">
         <v>40203</v>
@@ -7500,10 +7492,10 @@
     </row>
     <row r="74" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B74" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C74" s="1">
         <v>30541</v>
@@ -7512,28 +7504,28 @@
         <v>40153</v>
       </c>
       <c r="F74" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G74" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="J74" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K74" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="M74" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="R74" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="U74" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="X74" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="Y74" s="1">
         <v>41995</v>
@@ -7541,10 +7533,10 @@
     </row>
     <row r="75" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B75" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C75" s="1">
         <v>42168</v>
@@ -7553,36 +7545,36 @@
         <v>29449</v>
       </c>
       <c r="G75" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I75" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="J75" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K75" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="M75" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="N75" s="1">
         <v>42109</v>
       </c>
       <c r="T75" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="U75" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B76" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C76" s="1">
         <v>17961</v>
@@ -7591,34 +7583,34 @@
         <v>25901</v>
       </c>
       <c r="F76" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G76" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="I76" t="s">
         <v>158</v>
       </c>
       <c r="J76" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="K76" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="M76" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="N76" s="1">
         <v>27432</v>
       </c>
       <c r="R76" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="T76" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="X76" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="Y76" s="1">
         <v>30506</v>
@@ -7627,18 +7619,18 @@
         <v>39613</v>
       </c>
       <c r="AC76" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="AE76" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B77" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C77" s="1">
         <v>16662</v>
@@ -7647,66 +7639,66 @@
         <v>29344</v>
       </c>
       <c r="F77" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="G77" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I77" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="J77" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="K77" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="M77" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="N77" s="1">
         <v>19975</v>
       </c>
       <c r="R77" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="U77" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="X77" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="Y77" s="1">
         <v>30035</v>
       </c>
       <c r="AC77" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="AE77" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="AF77" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="AI77" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="AJ77" s="1">
         <v>31533</v>
       </c>
       <c r="AN77" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="AP77" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="78" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B78" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C78" s="1">
         <v>30939</v>
@@ -7714,40 +7706,43 @@
       <c r="D78" s="1">
         <v>41237</v>
       </c>
+      <c r="E78" t="s">
+        <v>710</v>
+      </c>
       <c r="G78" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="I78" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="J78" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="K78" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="M78" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="N78" s="1">
         <v>31271</v>
       </c>
       <c r="R78" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="T78" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="U78" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="79" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B79" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C79" s="1">
         <v>13306</v>
@@ -7756,48 +7751,48 @@
         <v>25907</v>
       </c>
       <c r="E79" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="F79" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="G79" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="K79" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="M79" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="N79" s="1">
         <v>14608</v>
       </c>
       <c r="X79" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="Y79" s="1">
         <v>36213</v>
       </c>
       <c r="AC79" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="AI79" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="AJ79" s="1">
         <v>36811</v>
       </c>
       <c r="AN79" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B80" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C80" s="1">
         <v>11194</v>
@@ -7806,16 +7801,16 @@
         <v>22309</v>
       </c>
       <c r="F80" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G80" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="K80" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M80" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="N80" s="1">
         <v>11421</v>
@@ -7823,10 +7818,10 @@
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B81" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C81" s="1">
         <v>30670</v>
@@ -7835,95 +7830,95 @@
         <v>41930</v>
       </c>
       <c r="F81" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G81" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="I81" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="J81" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="K81" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="M81" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="N81" s="1">
         <v>32052</v>
       </c>
       <c r="R81" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="T81" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="U81" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B82" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C82" s="1">
         <v>15251</v>
       </c>
       <c r="E82" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="F82" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="G82" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="H82" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="I82" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J82" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="K82" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="M82" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="N82" s="1">
         <v>24594</v>
       </c>
       <c r="Q82" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="R82" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="S82" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="T82" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="U82" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B83" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C83" s="1">
         <v>17916</v>
@@ -7932,40 +7927,40 @@
         <v>27047</v>
       </c>
       <c r="E83" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="F83" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="G83" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="I83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J83" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="K83" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="M83" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="N83" s="1">
         <v>17605</v>
       </c>
       <c r="R83" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="T83" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="U83" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="X83" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="Y83" s="1">
         <v>31239</v>
@@ -7973,10 +7968,10 @@
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B84" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="C84" s="1">
         <v>28667</v>
@@ -7985,40 +7980,40 @@
         <v>39627</v>
       </c>
       <c r="F84" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="G84" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="I84" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="J84" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="K84" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="M84" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="N84" s="1">
         <v>29845</v>
       </c>
       <c r="R84" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="U84" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="X84" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="Y84" s="1">
         <v>40347</v>
       </c>
       <c r="AI84" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="AJ84" s="1">
         <v>41733</v>
@@ -8026,39 +8021,39 @@
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B85" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C85" s="1">
         <v>22238</v>
       </c>
       <c r="E85" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F85" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="G85" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="I85" t="s">
         <v>60</v>
       </c>
       <c r="J85" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="K85" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B86" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C86" s="1">
         <v>22754</v>
@@ -8067,36 +8062,36 @@
         <v>31115</v>
       </c>
       <c r="E86" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="F86" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="J86" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="K86" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="M86" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="N86" s="1">
         <v>24122</v>
       </c>
       <c r="R86" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="U86" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B87" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C87" s="1">
         <v>27175</v>
@@ -8105,84 +8100,84 @@
         <v>34826</v>
       </c>
       <c r="F87" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="G87" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="H87" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="I87" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="J87" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="K87" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="M87" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="N87" s="1">
         <v>28678</v>
       </c>
       <c r="R87" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="T87" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="U87" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="X87" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="Y87" s="1">
         <v>36345</v>
       </c>
       <c r="AC87" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="AF87" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="AI87" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="AJ87" s="1">
         <v>37638</v>
       </c>
       <c r="AN87" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="AQ87" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B89" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C89" s="1">
         <v>16047</v>
       </c>
       <c r="E89" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="F89">
         <v>37842984</v>
       </c>
       <c r="K89" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="M89" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="N89" s="1">
         <v>11547</v>
@@ -8193,10 +8188,10 @@
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B90" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C90" s="1">
         <v>18577</v>
@@ -8204,63 +8199,66 @@
       <c r="D90" s="1">
         <v>29384</v>
       </c>
+      <c r="E90" t="s">
+        <v>815</v>
+      </c>
       <c r="F90" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="G90" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="I90" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K90" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="M90" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="N90" s="1">
         <v>20410</v>
       </c>
       <c r="R90" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="S90" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="T90" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="U90" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B91" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C91" s="1">
         <v>32214</v>
       </c>
       <c r="I91" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J91" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="K91" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B92" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C92" s="1">
         <v>30176</v>
@@ -8269,36 +8267,36 @@
         <v>42266</v>
       </c>
       <c r="G92" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="I92" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J92" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="M92" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="R92" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="T92" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="U92" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="X92" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B93" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C93" s="1">
         <v>31160</v>
@@ -8307,28 +8305,28 @@
         <v>41601</v>
       </c>
       <c r="G93" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="I93" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="J93" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="K93" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="M93" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="N93" s="1">
         <v>31764</v>
       </c>
       <c r="R93" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="X93" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="Y93" s="1">
         <v>39489</v>
@@ -8336,42 +8334,42 @@
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B95" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C95" s="1">
         <v>30026</v>
       </c>
       <c r="G95" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="I95" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="J95" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="K95" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="M95" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="N95" s="1">
         <v>38008</v>
       </c>
       <c r="R95" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B96" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C96" s="1">
         <v>29399</v>
@@ -8380,37 +8378,37 @@
         <v>37401</v>
       </c>
       <c r="F96" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="G96" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="I96" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J96" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="K96" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="M96" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="N96" s="1">
         <v>26837</v>
       </c>
       <c r="R96" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="X96" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="Y96" s="1">
         <v>38634</v>
       </c>
       <c r="AI96" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="AJ96" s="1">
         <v>41073</v>
@@ -8418,36 +8416,36 @@
     </row>
     <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B97" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C97" s="1">
         <v>17959</v>
       </c>
       <c r="F97" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="G97" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I97" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="J97" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="K97" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
     </row>
     <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B98" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C98" s="1">
         <v>17714</v>
@@ -8456,71 +8454,71 @@
         <v>30786</v>
       </c>
       <c r="E98" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="F98" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="G98" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="I98" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="J98" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="K98" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="M98" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="N98" s="1">
         <v>22730</v>
       </c>
       <c r="R98" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="S98" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="T98" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="U98" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B99" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C99" s="1">
         <v>13107</v>
       </c>
       <c r="E99" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="F99" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="G99">
         <v>999080022</v>
       </c>
       <c r="K99" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
     </row>
     <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B100" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C100" s="1">
         <v>22722</v>
@@ -8529,45 +8527,45 @@
         <v>32795</v>
       </c>
       <c r="E100" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="F100" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="G100" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="I100" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="J100" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="K100" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="M100" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="N100" s="1">
         <v>25857</v>
       </c>
       <c r="R100" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="T100" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="U100" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
     </row>
     <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="B101" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="C101" s="1">
         <v>23348</v>
@@ -8576,22 +8574,22 @@
         <v>30058</v>
       </c>
       <c r="E101" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="F101" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="G101" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="I101" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="K101" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="M101" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="N101" s="1">
         <v>37224</v>
@@ -8600,15 +8598,15 @@
         <v>945455929</v>
       </c>
       <c r="U101" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
     </row>
     <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B102" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C102" s="1">
         <v>24305</v>
@@ -8617,46 +8615,46 @@
         <v>35882</v>
       </c>
       <c r="F102" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="G102" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="H102" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="I102" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="J102" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="K102" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="M102" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="N102" s="1">
         <v>26724</v>
       </c>
       <c r="R102" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="T102" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="U102" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="X102" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="Y102" s="1">
         <v>37514</v>
       </c>
       <c r="AI102" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="AJ102" s="1">
         <v>38596</v>
@@ -8664,10 +8662,10 @@
     </row>
     <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B103" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C103" s="1">
         <v>25918</v>
@@ -8675,44 +8673,47 @@
       <c r="D103" s="1">
         <v>36267</v>
       </c>
+      <c r="E103" t="s">
+        <v>913</v>
+      </c>
       <c r="F103" t="s">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="G103" t="s">
-        <v>908</v>
+        <v>915</v>
       </c>
       <c r="I103" t="s">
-        <v>909</v>
+        <v>916</v>
       </c>
       <c r="J103" t="s">
-        <v>910</v>
+        <v>917</v>
       </c>
       <c r="K103" t="s">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="M103" t="s">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="N103" s="1">
         <v>27189</v>
       </c>
       <c r="R103" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="T103" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="U103" t="s">
-        <v>914</v>
+        <v>921</v>
       </c>
       <c r="X103" t="s">
-        <v>915</v>
+        <v>922</v>
       </c>
       <c r="Y103" s="1">
         <v>38790</v>
       </c>
       <c r="AI103" t="s">
-        <v>916</v>
+        <v>923</v>
       </c>
       <c r="AJ103" s="1">
         <v>41029</v>
@@ -8720,10 +8721,10 @@
     </row>
     <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B104" t="s">
-        <v>917</v>
+        <v>924</v>
       </c>
       <c r="C104" s="1">
         <v>27889</v>
@@ -8732,40 +8733,40 @@
         <v>38619</v>
       </c>
       <c r="F104" t="s">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="G104" t="s">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="H104" t="s">
-        <v>920</v>
+        <v>927</v>
       </c>
       <c r="I104" t="s">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="J104" t="s">
-        <v>922</v>
+        <v>929</v>
       </c>
       <c r="K104" t="s">
-        <v>923</v>
+        <v>930</v>
       </c>
       <c r="M104" t="s">
-        <v>924</v>
+        <v>931</v>
       </c>
       <c r="N104" s="1">
         <v>30358</v>
       </c>
       <c r="R104" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="T104" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="U104" t="s">
-        <v>927</v>
+        <v>934</v>
       </c>
       <c r="X104" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="Y104" s="1">
         <v>39937</v>
@@ -8773,42 +8774,42 @@
     </row>
     <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="B105" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="C105" s="1">
         <v>19413</v>
       </c>
       <c r="E105" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="F105" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="G105" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="H105" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="I105" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="J105" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="K105" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="B106" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="C106" s="1">
         <v>24071</v>
@@ -8817,52 +8818,52 @@
         <v>41363</v>
       </c>
       <c r="E106" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="F106" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="G106" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="I106" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="J106" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="K106" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="M106" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
       <c r="N106" s="1">
         <v>24306</v>
       </c>
       <c r="R106" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="S106" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="T106" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="U106" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="X106" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="Y106" s="1">
         <v>36624</v>
       </c>
       <c r="AC106" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
       <c r="AI106" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="AJ106" s="1">
         <v>40119</v>
@@ -8870,10 +8871,10 @@
     </row>
     <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="B110" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="C110" s="1">
         <v>29422</v>
@@ -8882,43 +8883,43 @@
         <v>40110</v>
       </c>
       <c r="G110" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="H110" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="I110" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="J110" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="K110" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="M110" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="N110" s="1">
         <v>30129</v>
       </c>
       <c r="R110" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="T110" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="U110" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="X110" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="Y110" s="1">
         <v>40303</v>
       </c>
       <c r="AI110" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="AJ110" s="1">
         <v>41422</v>
@@ -8926,10 +8927,10 @@
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="B111" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="C111" s="1">
         <v>31442</v>
@@ -8938,48 +8939,48 @@
         <v>41258</v>
       </c>
       <c r="F111" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="G111" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="H111" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="I111" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="J111" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="K111" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="M111" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="N111" s="1">
         <v>32355</v>
       </c>
       <c r="R111" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="T111" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="U111" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="X111" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="B112" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="C112" s="1">
         <v>28308</v>
@@ -8987,781 +8988,816 @@
       <c r="D112" s="1">
         <v>40005</v>
       </c>
+      <c r="E112" t="s">
+        <v>987</v>
+      </c>
       <c r="F112" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="G112" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="I112" t="s">
         <v>196</v>
       </c>
       <c r="J112" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="K112" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="M112" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="N112" s="1">
         <v>27705</v>
       </c>
       <c r="R112" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="T112" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="U112" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="B113" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="C113" s="1">
         <v>42233</v>
       </c>
+      <c r="E113" t="s">
+        <v>997</v>
+      </c>
       <c r="G113" t="s">
-        <v>989</v>
+        <v>998</v>
       </c>
       <c r="K113" t="s">
-        <v>990</v>
+        <v>999</v>
       </c>
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="B114" t="s">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="G114" t="s">
-        <v>993</v>
+        <v>1002</v>
       </c>
       <c r="K114" t="s">
-        <v>994</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>995</v>
+        <v>1004</v>
       </c>
       <c r="B115" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="G115" t="s">
-        <v>996</v>
+        <v>1005</v>
       </c>
       <c r="K115" t="s">
-        <v>997</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>998</v>
+        <v>1007</v>
       </c>
       <c r="B116" t="s">
-        <v>999</v>
+        <v>1008</v>
       </c>
       <c r="F116" t="s">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="K116" t="s">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="M116" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="R116" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
       <c r="S116" t="s">
-        <v>1004</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1005</v>
+        <v>1014</v>
       </c>
       <c r="B117" t="s">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="G117" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B118" t="s">
-        <v>1008</v>
+        <v>1017</v>
       </c>
       <c r="F118" t="s">
-        <v>1009</v>
+        <v>1018</v>
       </c>
       <c r="G118" t="s">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="K118" t="s">
-        <v>1011</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="B119" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="D119" s="1">
         <v>28461</v>
       </c>
       <c r="F119" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="G119" t="s">
-        <v>1015</v>
+        <v>1024</v>
       </c>
       <c r="J119" t="s">
-        <v>1016</v>
+        <v>1025</v>
       </c>
       <c r="K119" t="s">
-        <v>1017</v>
+        <v>1026</v>
       </c>
       <c r="M119" t="s">
-        <v>1018</v>
+        <v>1027</v>
       </c>
       <c r="R119" t="s">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="S119" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="U119" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="B120" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="F120" t="s">
-        <v>1024</v>
+        <v>1033</v>
       </c>
       <c r="K120" t="s">
-        <v>1025</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1026</v>
+        <v>1035</v>
       </c>
       <c r="B121" t="s">
-        <v>1027</v>
+        <v>1036</v>
       </c>
       <c r="D121" s="1">
         <v>41971</v>
       </c>
       <c r="G121" t="s">
-        <v>1028</v>
+        <v>1037</v>
       </c>
       <c r="J121" t="s">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="K121" t="s">
-        <v>1030</v>
+        <v>1039</v>
       </c>
       <c r="M121" t="s">
-        <v>1031</v>
+        <v>1040</v>
       </c>
       <c r="R121" t="s">
-        <v>1032</v>
+        <v>1041</v>
       </c>
       <c r="U121" t="s">
-        <v>1033</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B122" t="s">
-        <v>1034</v>
+        <v>1043</v>
       </c>
       <c r="D122" s="1">
         <v>36603</v>
       </c>
+      <c r="E122" t="s">
+        <v>1044</v>
+      </c>
       <c r="G122" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="J122" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="K122" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="M122" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="X122" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B123" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="F123" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="G123" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="H123" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="J123" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="K123" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B124" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="F124" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="K124" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="M124" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="B125" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="D125" s="1">
         <v>40467</v>
       </c>
       <c r="F125" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="G125" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="J125" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K125" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="M125" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="X125" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="B126" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="F126" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="K126" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="B127" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="G127" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="K127" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="B128" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="F128" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="K128" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B129" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="D129" s="1">
         <v>31199</v>
       </c>
       <c r="F129" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="K129" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="M129" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="B130" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
       <c r="F130" s="2">
         <v>55798251</v>
       </c>
       <c r="G130" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="K130" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="B131" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="G131" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="J131" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="K131" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="M131" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="R131" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="U131" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="X131" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="AI131" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B132" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="D132" s="1">
         <v>30933</v>
       </c>
       <c r="F132" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="G132" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="H132" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="J132" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="K132" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="M132" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="R132" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="U132" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="X132" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="AI132" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="AQ132" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="B133" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="D133" s="1">
         <v>31962</v>
       </c>
       <c r="F133" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="K133" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="M133" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="U133" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B134" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="G134" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="K134" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B135" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="F135" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="G135" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="H135" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="K135" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B136" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="F136" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="G136" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="H136" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="J136" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="K136" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="B137" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="D137" s="1">
         <v>26235</v>
       </c>
       <c r="E137" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="F137" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="G137" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="J137" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="K137" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="M137" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="R137" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B138" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="F138" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="H138" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="K138" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="M138" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="B139" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="B140" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="G140" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="K140" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="M140" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B141" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="D141" s="1">
         <v>40096</v>
       </c>
       <c r="G141" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="J141" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="K141" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="M141" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="R141" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="U141" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="X141" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
       <c r="AI141" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="AT141" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B142" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="D142" s="1">
         <v>33117</v>
       </c>
       <c r="F142" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="G142" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="J142" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
       <c r="K142" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="M142" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
       <c r="X142" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B143" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
       <c r="F143" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="K143" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B144" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="G144" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
       <c r="J144" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="K144" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="B145" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="F145" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="K145" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="B146" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="F146" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="K146" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="B147" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="F147" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="G147" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="K147" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="B148" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
       <c r="F148" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="K148" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="B149" t="s">
-        <v>1182</v>
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>784</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C150" s="1">
+        <v>32685</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K150" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>

--- a/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
+++ b/listaFamilia/res/LISTA_FAMILIAS_2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="1228">
   <si>
     <t>Sobrenome</t>
   </si>
@@ -3453,9 +3453,6 @@
     <t>Rua Albino Puttini,97, CEP: 13209-462 - Vila Guarani, Jundiaí - SP</t>
   </si>
   <si>
-    <t>Rua Quipá, 64, apto 109-C, Jd. Umarizal, CEP: 05756-440 – São Paulo – SP</t>
-  </si>
-  <si>
     <t>Condomínio Fuji II, Chácara 4, Bairro dos Tenentes, Caixa Postal: 229, CEP: 37640-000 – Extrema - MG</t>
   </si>
   <si>
@@ -3649,14 +3646,79 @@
   </si>
   <si>
     <t>R. ADOLFO GORDO, 100 – APTO. 96 - Campos Elísios - S. Paulo - SP</t>
+  </si>
+  <si>
+    <t>danielPolato.jpg</t>
+  </si>
+  <si>
+    <t>Tradutor e Intérprete</t>
+  </si>
+  <si>
+    <t>Av. Nossa Sra.da Assunção, 780, apto 92, bloco B- Butantã, CEP: 05359-001 – São Paulo – SP</t>
+  </si>
+  <si>
+    <t>professora de espanhol</t>
+  </si>
+  <si>
+    <t>polato.jpg</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>Tatiana Bráz de Lima</t>
+  </si>
+  <si>
+    <t>R. Nelson Brisaque, 1230 - Pq Regina - CEP 05773-100</t>
+  </si>
+  <si>
+    <t>QUEIROZ</t>
+  </si>
+  <si>
+    <t>Luis Pereira de Queiroz</t>
+  </si>
+  <si>
+    <t>5814-9959</t>
+  </si>
+  <si>
+    <t>R. Francisco da Cruz Melão, 250 - B102 - apto 804 - Parque Munhoz - CEP 05782-351</t>
+  </si>
+  <si>
+    <t>Ana Maria Gomes de Souza Queiroz</t>
+  </si>
+  <si>
+    <t>VELLARDO</t>
+  </si>
+  <si>
+    <t>Alexandre Augustus Abhner Vellardo</t>
+  </si>
+  <si>
+    <t>3862-5267</t>
+  </si>
+  <si>
+    <t>99956-1322</t>
+  </si>
+  <si>
+    <t>admnegocioproprio@gmail.com</t>
+  </si>
+  <si>
+    <t>Rua Tabari, 365 - Perdizes - CEP 05002-010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3684,10 +3746,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4019,11 +4082,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT142"/>
+  <dimension ref="A1:BT145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD153"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4101,203 +4162,203 @@
     <col min="72" max="72" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="A1" t="s">
+    <row r="1" spans="1:72" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4360,11 +4421,12 @@
       <c r="C4" t="s">
         <v>907</v>
       </c>
+      <c r="D4" s="1"/>
       <c r="H4" t="s">
         <v>908</v>
       </c>
       <c r="L4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="5" spans="1:72">
@@ -4374,12 +4436,16 @@
       <c r="C5" t="s">
         <v>769</v>
       </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="H5" t="s">
         <v>910</v>
       </c>
       <c r="L5" t="s">
-        <v>1178</v>
-      </c>
+        <v>1177</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:72">
       <c r="A6" t="s">
@@ -4415,25 +4481,11 @@
       <c r="P6" s="1">
         <v>24793</v>
       </c>
-      <c r="S6" s="1"/>
       <c r="T6" t="s">
         <v>30</v>
       </c>
       <c r="V6" t="s">
         <v>1077</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>34961</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG6" s="1"/>
-      <c r="AH6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:72">
@@ -4467,7 +4519,6 @@
       <c r="P7" s="1">
         <v>32115</v>
       </c>
-      <c r="S7" s="1"/>
       <c r="T7" t="s">
         <v>38</v>
       </c>
@@ -4475,12 +4526,26 @@
         <v>39</v>
       </c>
       <c r="AA7" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="AB7" s="1">
-        <v>41812</v>
-      </c>
-      <c r="AE7" s="1"/>
+        <v>30554</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>27921</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>289</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="8" spans="1:72">
       <c r="A8" t="s">
@@ -4495,6 +4560,7 @@
       <c r="D8" s="1">
         <v>33490</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="H8" t="s">
         <v>42</v>
       </c>
@@ -4510,16 +4576,11 @@
       <c r="O8" t="s">
         <v>43</v>
       </c>
+      <c r="P8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="V8" t="s">
         <v>44</v>
       </c>
-      <c r="AA8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>42090</v>
-      </c>
-      <c r="AF8" s="1"/>
     </row>
     <row r="9" spans="1:72">
       <c r="A9" t="s">
@@ -4529,65 +4590,53 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1">
-        <v>26546</v>
+        <v>26510</v>
       </c>
       <c r="E9" s="1">
-        <v>39270</v>
+        <v>35812</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P9" s="1">
-        <v>27098</v>
+        <v>24988</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="W9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>40876</v>
-      </c>
-      <c r="AE9" s="1"/>
-      <c r="AM9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>41858</v>
-      </c>
-      <c r="AQ9" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AF9" s="1"/>
     </row>
     <row r="10" spans="1:72">
       <c r="A10" t="s">
@@ -4597,76 +4646,67 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
-        <v>26510</v>
+        <v>26546</v>
       </c>
       <c r="E10" s="1">
-        <v>35812</v>
-      </c>
-      <c r="F10" t="s">
-        <v>48</v>
+        <v>39270</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P10" s="1">
-        <v>24988</v>
-      </c>
-      <c r="R10" s="1"/>
+        <v>27098</v>
+      </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="AB10" s="1">
-        <v>36355</v>
-      </c>
-      <c r="AD10" s="1"/>
+        <v>32237</v>
+      </c>
       <c r="AF10" t="s">
-        <v>58</v>
+        <v>274</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>275</v>
       </c>
       <c r="AI10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>37550</v>
-      </c>
-      <c r="AP10" s="1"/>
-      <c r="AR10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>62</v>
+        <v>276</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="11" spans="1:72">
@@ -4707,6 +4747,8 @@
       <c r="W11" t="s">
         <v>80</v>
       </c>
+      <c r="AB11" s="1"/>
+      <c r="AF11" s="1"/>
     </row>
     <row r="12" spans="1:72">
       <c r="A12" t="s">
@@ -4718,6 +4760,7 @@
       <c r="D12" s="1">
         <v>23263</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
         <v>83</v>
       </c>
@@ -4743,13 +4786,6 @@
         <v>35963</v>
       </c>
       <c r="R12" s="1"/>
-      <c r="AA12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>37561</v>
-      </c>
-      <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:72">
       <c r="A13" t="s">
@@ -4761,6 +4797,7 @@
       <c r="D13" s="1">
         <v>19579</v>
       </c>
+      <c r="E13" s="1"/>
       <c r="F13" t="s">
         <v>91</v>
       </c>
@@ -4773,6 +4810,8 @@
       <c r="L13" t="s">
         <v>1084</v>
       </c>
+      <c r="P13" s="1"/>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:72">
       <c r="A14" t="s">
@@ -4811,14 +4850,13 @@
       <c r="P14" s="1">
         <v>40099</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="AA14" t="s">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="AB14" s="1">
-        <v>40099</v>
-      </c>
-      <c r="AC14" s="1"/>
+        <v>38348</v>
+      </c>
     </row>
     <row r="15" spans="1:72">
       <c r="A15" t="s">
@@ -4839,6 +4877,24 @@
       <c r="L15" t="s">
         <v>1086</v>
       </c>
+      <c r="AA15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>16925</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1099</v>
+      </c>
     </row>
     <row r="16" spans="1:72">
       <c r="A16" t="s">
@@ -4847,21 +4903,27 @@
       <c r="C16" t="s">
         <v>912</v>
       </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="G16" t="s">
         <v>913</v>
       </c>
       <c r="L16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="O16" t="s">
         <v>914</v>
       </c>
+      <c r="P16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" t="s">
         <v>915</v>
       </c>
       <c r="U16" t="s">
         <v>916</v>
       </c>
+      <c r="AB16" s="1"/>
+      <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:47">
       <c r="A17" t="s">
@@ -4888,6 +4950,8 @@
       <c r="L17" t="s">
         <v>1087</v>
       </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:47">
       <c r="A18" t="s">
@@ -4917,9 +4981,11 @@
       <c r="P18" s="1">
         <v>42074</v>
       </c>
-      <c r="S18" s="1"/>
       <c r="T18" t="s">
         <v>120</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:47">
@@ -4947,7 +5013,6 @@
       <c r="P19" s="1">
         <v>28723</v>
       </c>
-      <c r="S19" s="1"/>
       <c r="T19" t="s">
         <v>126</v>
       </c>
@@ -4995,7 +5060,7 @@
       <c r="P20" s="1">
         <v>20767</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>135</v>
       </c>
       <c r="V20" t="s">
@@ -5004,34 +5069,10 @@
       <c r="W20" t="s">
         <v>137</v>
       </c>
-      <c r="AA20" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>30687</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN20" s="1">
-        <v>31435</v>
-      </c>
-      <c r="AR20" s="1"/>
-      <c r="AT20" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>144</v>
-      </c>
+      <c r="AB20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AQ20" s="1"/>
     </row>
     <row r="21" spans="1:47">
       <c r="A21" t="s">
@@ -5041,65 +5082,49 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1">
-        <v>27925</v>
+        <v>28758</v>
       </c>
       <c r="E21" s="1">
-        <v>36471</v>
+        <v>37891</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="N21" t="s">
         <v>28</v>
       </c>
       <c r="O21" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="P21" s="1">
-        <v>27702</v>
+        <v>28001</v>
       </c>
       <c r="S21" s="1"/>
-      <c r="T21" t="s">
-        <v>162</v>
-      </c>
-      <c r="U21" t="s">
-        <v>163</v>
-      </c>
       <c r="V21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="W21" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>38775</v>
-      </c>
-      <c r="AE21" s="1"/>
-      <c r="AM21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN21" s="1">
-        <v>41867</v>
-      </c>
-      <c r="AQ21" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AR21" s="1"/>
     </row>
     <row r="22" spans="1:47">
       <c r="A22" t="s">
@@ -5109,58 +5134,59 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1">
-        <v>28758</v>
+        <v>27925</v>
       </c>
       <c r="E22" s="1">
-        <v>37891</v>
+        <v>36471</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="N22" t="s">
         <v>28</v>
       </c>
       <c r="O22" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="P22" s="1">
-        <v>28001</v>
+        <v>27702</v>
       </c>
       <c r="S22" s="1"/>
+      <c r="T22" t="s">
+        <v>162</v>
+      </c>
+      <c r="U22" t="s">
+        <v>163</v>
+      </c>
       <c r="V22" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="W22" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AA22" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="AB22" s="1">
-        <v>41251</v>
+        <v>41358</v>
       </c>
       <c r="AE22" s="1"/>
-      <c r="AM22" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN22" s="1">
-        <v>42055</v>
-      </c>
+      <c r="AN22" s="1"/>
       <c r="AQ22" s="1"/>
     </row>
     <row r="23" spans="1:47">
@@ -5185,6 +5211,20 @@
       <c r="L23" t="s">
         <v>1093</v>
       </c>
+      <c r="P23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="AA23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>38775</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>41867</v>
+      </c>
     </row>
     <row r="24" spans="1:47">
       <c r="A24" t="s">
@@ -5193,9 +5233,12 @@
       <c r="C24" t="s">
         <v>918</v>
       </c>
+      <c r="D24" s="1"/>
       <c r="H24" t="s">
         <v>919</v>
       </c>
+      <c r="P24" s="1"/>
+      <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:47">
       <c r="A25" t="s">
@@ -5205,43 +5248,83 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="D25" s="1">
-        <v>15258</v>
+        <v>22953</v>
       </c>
       <c r="E25" s="1">
-        <v>26796</v>
+        <v>36568</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>176</v>
+      </c>
+      <c r="I25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" t="s">
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>1094</v>
       </c>
       <c r="N25" t="s">
         <v>28</v>
       </c>
       <c r="O25" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P25" s="1">
-        <v>18108</v>
-      </c>
+        <v>20210</v>
+      </c>
+      <c r="S25" s="1"/>
       <c r="T25" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="U25" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" t="s">
+        <v>183</v>
       </c>
       <c r="W25" t="s">
-        <v>194</v>
+        <v>184</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>30687</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>31435</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:47">
@@ -5252,63 +5335,57 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1">
-        <v>22953</v>
+        <v>15258</v>
       </c>
       <c r="E26" s="1">
-        <v>36568</v>
+        <v>26796</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" t="s">
-        <v>177</v>
-      </c>
-      <c r="J26" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s">
-        <v>1094</v>
+        <v>191</v>
       </c>
       <c r="N26" t="s">
         <v>28</v>
       </c>
       <c r="O26" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="P26" s="1">
-        <v>20210</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="U26" t="s">
-        <v>182</v>
-      </c>
-      <c r="V26" t="s">
-        <v>183</v>
+        <v>18108</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" t="s">
+        <v>193</v>
       </c>
       <c r="W26" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AA26" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="AB26" s="1">
-        <v>41358</v>
-      </c>
-      <c r="AF26" s="1"/>
+        <v>41251</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>42055</v>
+      </c>
     </row>
     <row r="27" spans="1:47">
       <c r="A27" t="s">
@@ -5320,6 +5397,7 @@
       <c r="D27" s="1">
         <v>42305</v>
       </c>
+      <c r="E27" s="1"/>
       <c r="G27" t="s">
         <v>197</v>
       </c>
@@ -5341,7 +5419,6 @@
       <c r="P27" s="1">
         <v>42160</v>
       </c>
-      <c r="S27" s="1"/>
       <c r="T27" t="s">
         <v>202</v>
       </c>
@@ -5377,9 +5454,6 @@
       <c r="O28" t="s">
         <v>209</v>
       </c>
-      <c r="AA28" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="29" spans="1:47">
       <c r="A29" t="s">
@@ -5391,6 +5465,7 @@
       <c r="D29" s="1">
         <v>18250</v>
       </c>
+      <c r="E29" s="1"/>
       <c r="G29" t="s">
         <v>213</v>
       </c>
@@ -5400,6 +5475,9 @@
       <c r="L29" t="s">
         <v>1097</v>
       </c>
+      <c r="P29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
     </row>
     <row r="30" spans="1:47">
       <c r="A30" t="s">
@@ -5453,24 +5531,6 @@
       <c r="W30" t="s">
         <v>224</v>
       </c>
-      <c r="AA30" t="s">
-        <v>225</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>16925</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>1099</v>
-      </c>
     </row>
     <row r="31" spans="1:47">
       <c r="A31" t="s">
@@ -5512,19 +5572,20 @@
       <c r="P31" s="1">
         <v>25053</v>
       </c>
-      <c r="T31" s="1" t="s">
+      <c r="S31" s="1"/>
+      <c r="T31" t="s">
         <v>235</v>
       </c>
       <c r="W31" t="s">
         <v>236</v>
       </c>
       <c r="AA31" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="AB31" s="1">
-        <v>38348</v>
-      </c>
-      <c r="AF31" s="1"/>
+        <v>40099</v>
+      </c>
+      <c r="AD31" s="1"/>
     </row>
     <row r="32" spans="1:47">
       <c r="A32" t="s">
@@ -5548,7 +5609,6 @@
       <c r="P32" s="1">
         <v>42066</v>
       </c>
-      <c r="S32" s="1"/>
       <c r="T32" t="s">
         <v>241</v>
       </c>
@@ -5560,6 +5620,8 @@
       <c r="C33" t="s">
         <v>920</v>
       </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="G33" t="s">
         <v>921</v>
       </c>
@@ -5567,8 +5629,14 @@
         <v>922</v>
       </c>
       <c r="L33" t="s">
-        <v>1180</v>
-      </c>
+        <v>1179</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AQ33" s="1"/>
     </row>
     <row r="34" spans="1:47">
       <c r="A34" t="s">
@@ -5580,6 +5648,7 @@
       <c r="C34" t="s">
         <v>924</v>
       </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1">
         <v>28461</v>
       </c>
@@ -5596,7 +5665,7 @@
         <v>928</v>
       </c>
       <c r="L34" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="N34" t="s">
         <v>28</v>
@@ -5625,7 +5694,7 @@
         <v>935</v>
       </c>
       <c r="L35" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="36" spans="1:47">
@@ -5647,6 +5716,15 @@
       <c r="L36" t="s">
         <v>1102</v>
       </c>
+      <c r="AA36" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>37561</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AP36" s="1"/>
     </row>
     <row r="37" spans="1:47">
       <c r="A37" t="s">
@@ -5658,6 +5736,7 @@
       <c r="D37" s="1">
         <v>33382</v>
       </c>
+      <c r="E37" s="1"/>
       <c r="F37" t="s">
         <v>248</v>
       </c>
@@ -5682,13 +5761,16 @@
       <c r="P37" s="1">
         <v>35981</v>
       </c>
-      <c r="S37" s="1"/>
-      <c r="T37" t="s">
+      <c r="T37" s="1" t="s">
         <v>254</v>
       </c>
       <c r="W37" t="s">
         <v>255</v>
       </c>
+      <c r="AB37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AQ37" s="1"/>
     </row>
     <row r="38" spans="1:47">
       <c r="A38" t="s">
@@ -5700,6 +5782,7 @@
       <c r="D38" s="1">
         <v>32052</v>
       </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="s">
         <v>258</v>
       </c>
@@ -5717,6 +5800,21 @@
       </c>
       <c r="L38" t="s">
         <v>1104</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="AA38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>40876</v>
+      </c>
+      <c r="AF38" s="1"/>
+      <c r="AM38" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>41858</v>
       </c>
     </row>
     <row r="39" spans="1:47">
@@ -5724,85 +5822,99 @@
         <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="D39" s="1">
-        <v>31472</v>
+        <v>21407</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>266</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>269</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1105</v>
       </c>
       <c r="O39" t="s">
-        <v>281</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="P39" s="1">
+        <v>30933</v>
+      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" t="s">
+        <v>271</v>
+      </c>
+      <c r="W39" t="s">
+        <v>272</v>
+      </c>
+      <c r="X39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>42090</v>
+      </c>
+      <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:47">
       <c r="A40" t="s">
         <v>263</v>
       </c>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="D40" s="1">
-        <v>21407</v>
-      </c>
-      <c r="F40" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" t="s">
-        <v>266</v>
+        <v>31472</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="K40" t="s">
-        <v>269</v>
-      </c>
-      <c r="L40" t="s">
-        <v>1105</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s">
-        <v>270</v>
-      </c>
-      <c r="P40" s="1">
-        <v>30933</v>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="T40" t="s">
-        <v>271</v>
-      </c>
-      <c r="W40" t="s">
-        <v>272</v>
-      </c>
-      <c r="X40" t="s">
-        <v>1106</v>
+        <v>281</v>
       </c>
       <c r="AA40" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
       <c r="AB40" s="1">
-        <v>32237</v>
-      </c>
-      <c r="AF40" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>275</v>
+        <v>36355</v>
+      </c>
+      <c r="AE40" s="1"/>
+      <c r="AF40" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" t="s">
-        <v>276</v>
-      </c>
-      <c r="AJ40" t="s">
-        <v>1107</v>
+        <v>59</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>37550</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:47">
@@ -5839,28 +5951,17 @@
       <c r="P41" s="1">
         <v>18443</v>
       </c>
-      <c r="T41" s="1"/>
       <c r="AA41" t="s">
-        <v>287</v>
+        <v>31</v>
       </c>
       <c r="AB41" s="1">
-        <v>30554</v>
-      </c>
-      <c r="AF41" s="1"/>
-      <c r="AM41" t="s">
-        <v>288</v>
-      </c>
-      <c r="AN41" s="1">
-        <v>27921</v>
-      </c>
-      <c r="AR41" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AT41" t="s">
-        <v>290</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>291</v>
+        <v>34961</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:47">
@@ -5882,6 +5983,12 @@
       <c r="L42" t="s">
         <v>1109</v>
       </c>
+      <c r="AA42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>41812</v>
+      </c>
     </row>
     <row r="43" spans="1:47">
       <c r="A43" t="s">
@@ -5893,6 +6000,7 @@
       <c r="C43" t="s">
         <v>937</v>
       </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1">
         <v>41971</v>
       </c>
@@ -5903,7 +6011,7 @@
         <v>939</v>
       </c>
       <c r="L43" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="N43" t="s">
         <v>28</v>
@@ -5911,7 +6019,8 @@
       <c r="O43" t="s">
         <v>940</v>
       </c>
-      <c r="T43" t="s">
+      <c r="P43" s="1"/>
+      <c r="T43" s="1" t="s">
         <v>941</v>
       </c>
       <c r="W43" t="s">
@@ -5939,91 +6048,90 @@
       <c r="A45" t="s">
         <v>295</v>
       </c>
-      <c r="B45" t="s">
-        <v>24</v>
-      </c>
       <c r="C45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D45" s="1">
-        <v>27548</v>
-      </c>
-      <c r="E45" s="1">
-        <v>36062</v>
-      </c>
-      <c r="F45" t="s">
-        <v>303</v>
+        <v>25722</v>
       </c>
       <c r="G45" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H45" t="s">
-        <v>305</v>
-      </c>
-      <c r="K45" t="s">
-        <v>306</v>
+        <v>300</v>
+      </c>
+      <c r="J45" t="s">
+        <v>301</v>
       </c>
       <c r="L45" t="s">
-        <v>1112</v>
-      </c>
-      <c r="N45" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" t="s">
-        <v>307</v>
-      </c>
-      <c r="P45" s="1">
-        <v>28319</v>
-      </c>
+        <v>1111</v>
+      </c>
+      <c r="P45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" t="s">
-        <v>308</v>
-      </c>
-      <c r="V45" t="s">
-        <v>309</v>
-      </c>
-      <c r="W45" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB45" s="1">
-        <v>35504</v>
-      </c>
-      <c r="AE45" s="1"/>
-      <c r="AM45" t="s">
-        <v>312</v>
-      </c>
-      <c r="AN45" s="1">
-        <v>36834</v>
-      </c>
-      <c r="AQ45" s="1"/>
-      <c r="AR45" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="46" spans="1:47">
       <c r="A46" t="s">
         <v>295</v>
       </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
       <c r="C46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D46" s="1">
-        <v>25722</v>
+        <v>27548</v>
+      </c>
+      <c r="E46" s="1">
+        <v>36062</v>
+      </c>
+      <c r="F46" t="s">
+        <v>303</v>
       </c>
       <c r="G46" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H46" t="s">
-        <v>300</v>
-      </c>
-      <c r="J46" t="s">
-        <v>301</v>
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>306</v>
       </c>
       <c r="L46" t="s">
-        <v>1111</v>
+        <v>1112</v>
+      </c>
+      <c r="N46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O46" t="s">
+        <v>307</v>
+      </c>
+      <c r="P46" s="1">
+        <v>28319</v>
+      </c>
+      <c r="T46" t="s">
+        <v>308</v>
+      </c>
+      <c r="V46" t="s">
+        <v>309</v>
+      </c>
+      <c r="W46" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>35504</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>312</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>36834</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:47">
@@ -6036,6 +6144,7 @@
       <c r="C47" t="s">
         <v>943</v>
       </c>
+      <c r="D47" s="1"/>
       <c r="E47" s="1">
         <v>36603</v>
       </c>
@@ -6049,7 +6158,7 @@
         <v>946</v>
       </c>
       <c r="L47" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="N47" t="s">
         <v>28</v>
@@ -6057,6 +6166,8 @@
       <c r="O47" t="s">
         <v>947</v>
       </c>
+      <c r="P47" s="1"/>
+      <c r="S47" s="1"/>
       <c r="AA47" t="s">
         <v>948</v>
       </c>
@@ -6089,14 +6200,14 @@
       <c r="P48" s="1">
         <v>40928</v>
       </c>
-      <c r="R48" s="1"/>
+      <c r="Q48" s="1"/>
       <c r="AA48" t="s">
         <v>320</v>
       </c>
       <c r="AB48" s="1">
         <v>41443</v>
       </c>
-      <c r="AD48" s="1"/>
+      <c r="AF48" s="1"/>
     </row>
     <row r="49" spans="1:47">
       <c r="A49" t="s">
@@ -6189,6 +6300,7 @@
       <c r="D51" s="1">
         <v>29314</v>
       </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="s">
         <v>337</v>
       </c>
@@ -6297,6 +6409,7 @@
       <c r="C54" t="s">
         <v>950</v>
       </c>
+      <c r="D54" s="1"/>
       <c r="G54" t="s">
         <v>951</v>
       </c>
@@ -6310,7 +6423,7 @@
         <v>954</v>
       </c>
       <c r="L54" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="55" spans="1:47">
@@ -6320,6 +6433,7 @@
       <c r="C55" t="s">
         <v>359</v>
       </c>
+      <c r="D55" s="1"/>
       <c r="F55" t="s">
         <v>360</v>
       </c>
@@ -6353,7 +6467,7 @@
         <v>956</v>
       </c>
       <c r="L56" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O56" t="s">
         <v>957</v>
@@ -6369,6 +6483,7 @@
       <c r="C57" t="s">
         <v>959</v>
       </c>
+      <c r="D57" s="1"/>
       <c r="E57" s="1">
         <v>40467</v>
       </c>
@@ -6382,7 +6497,7 @@
         <v>962</v>
       </c>
       <c r="L57" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="N57" t="s">
         <v>28</v>
@@ -6390,6 +6505,8 @@
       <c r="O57" t="s">
         <v>963</v>
       </c>
+      <c r="P57" s="1"/>
+      <c r="S57" s="1"/>
       <c r="AA57" t="s">
         <v>964</v>
       </c>
@@ -6405,7 +6522,7 @@
         <v>967</v>
       </c>
       <c r="L58" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="59" spans="1:47">
@@ -6418,6 +6535,7 @@
       <c r="D59" s="1">
         <v>19516</v>
       </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="s">
         <v>368</v>
       </c>
@@ -6442,7 +6560,6 @@
       <c r="P59" s="1">
         <v>33007</v>
       </c>
-      <c r="S59" s="1"/>
       <c r="T59" t="s">
         <v>374</v>
       </c>
@@ -6493,13 +6610,14 @@
       <c r="P60" s="1">
         <v>24372</v>
       </c>
+      <c r="R60" s="1"/>
       <c r="T60" t="s">
         <v>384</v>
       </c>
       <c r="V60" t="s">
         <v>385</v>
       </c>
-      <c r="W60" s="1" t="s">
+      <c r="W60" t="s">
         <v>386</v>
       </c>
       <c r="AA60" t="s">
@@ -6508,13 +6626,14 @@
       <c r="AB60" s="1">
         <v>32806</v>
       </c>
+      <c r="AD60" s="1"/>
       <c r="AF60" t="s">
         <v>388</v>
       </c>
       <c r="AH60" t="s">
         <v>354</v>
       </c>
-      <c r="AI60" s="1" t="s">
+      <c r="AI60" t="s">
         <v>389</v>
       </c>
       <c r="AM60" t="s">
@@ -6529,7 +6648,7 @@
       <c r="AT60" t="s">
         <v>392</v>
       </c>
-      <c r="AU60" s="1" t="s">
+      <c r="AU60" t="s">
         <v>393</v>
       </c>
     </row>
@@ -6540,11 +6659,12 @@
       <c r="C61" t="s">
         <v>969</v>
       </c>
+      <c r="E61" s="1"/>
       <c r="H61" t="s">
         <v>970</v>
       </c>
       <c r="L61" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="62" spans="1:47">
@@ -6599,6 +6719,10 @@
       <c r="W62" t="s">
         <v>403</v>
       </c>
+      <c r="AB62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AN62" s="1"/>
+      <c r="AR62" s="1"/>
     </row>
     <row r="63" spans="1:47">
       <c r="A63" t="s">
@@ -6643,160 +6767,127 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:47">
       <c r="A65" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D65" s="1">
+        <v>30056</v>
+      </c>
+      <c r="H65">
+        <v>962418003</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47">
+      <c r="A66" t="s">
         <v>411</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>412</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <v>26871</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E66" s="1">
         <v>36050</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F66" t="s">
         <v>413</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G66" t="s">
         <v>414</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H66" t="s">
         <v>415</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J66" t="s">
         <v>416</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K66" t="s">
         <v>417</v>
       </c>
-      <c r="L65" t="s">
+      <c r="L66" t="s">
         <v>1123</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N66" t="s">
         <v>28</v>
       </c>
-      <c r="O65" t="s">
+      <c r="O66" t="s">
         <v>418</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P66" s="1">
         <v>26032</v>
       </c>
-      <c r="S65" s="1"/>
-      <c r="T65" t="s">
+      <c r="T66" t="s">
         <v>419</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V66" t="s">
         <v>420</v>
       </c>
-      <c r="W65" t="s">
+      <c r="W66" t="s">
         <v>421</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AA66" t="s">
         <v>422</v>
       </c>
-      <c r="AB65" s="1">
+      <c r="AB66" s="1">
         <v>39707</v>
       </c>
-      <c r="AE65" s="1"/>
-    </row>
-    <row r="66" spans="1:44">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:47">
+      <c r="A67" t="s">
         <v>423</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>424</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>35532</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>425</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G67" t="s">
         <v>426</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H67" t="s">
         <v>427</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J67" t="s">
         <v>428</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K67" t="s">
         <v>429</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L67" t="s">
         <v>1124</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O67" t="s">
         <v>430</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P67" s="1">
         <v>17867</v>
       </c>
-      <c r="T66" t="s">
+      <c r="T67" t="s">
         <v>431</v>
       </c>
-      <c r="U66" s="1"/>
-      <c r="V66" t="s">
+      <c r="V67" t="s">
         <v>432</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W67" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="1:44">
-      <c r="A67" t="s">
-        <v>434</v>
-      </c>
-      <c r="B67" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="1">
-        <v>32973</v>
-      </c>
-      <c r="E67" s="1">
-        <v>42070</v>
-      </c>
-      <c r="H67" t="s">
-        <v>436</v>
-      </c>
-      <c r="J67" t="s">
-        <v>437</v>
-      </c>
-      <c r="K67" t="s">
-        <v>438</v>
-      </c>
-      <c r="L67" t="s">
-        <v>1125</v>
-      </c>
-      <c r="N67" t="s">
-        <v>28</v>
-      </c>
-      <c r="O67" t="s">
-        <v>439</v>
-      </c>
-      <c r="P67" s="1">
-        <v>33515</v>
-      </c>
-      <c r="T67" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="V67" t="s">
-        <v>441</v>
-      </c>
-      <c r="W67" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:47">
       <c r="A68" t="s">
         <v>434</v>
       </c>
@@ -6804,208 +6895,234 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D68" s="1">
-        <v>31705</v>
+        <v>32973</v>
       </c>
       <c r="E68" s="1">
-        <v>40578</v>
-      </c>
-      <c r="G68" t="s">
-        <v>444</v>
+        <v>42070</v>
       </c>
       <c r="H68" t="s">
-        <v>445</v>
-      </c>
-      <c r="I68" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J68" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="K68" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="L68" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="N68" t="s">
         <v>28</v>
       </c>
       <c r="O68" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="P68" s="1">
-        <v>31506</v>
-      </c>
-      <c r="T68" s="1" t="s">
-        <v>450</v>
+        <v>33515</v>
+      </c>
+      <c r="S68" s="1"/>
+      <c r="T68" t="s">
+        <v>440</v>
+      </c>
+      <c r="V68" t="s">
+        <v>441</v>
       </c>
       <c r="W68" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>42007</v>
-      </c>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="1:44">
+        <v>442</v>
+      </c>
+      <c r="AB68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AQ68" s="1"/>
+    </row>
+    <row r="69" spans="1:47">
       <c r="A69" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D69" s="1">
-        <v>30076</v>
+        <v>31705</v>
       </c>
       <c r="E69" s="1">
-        <v>42239</v>
-      </c>
-      <c r="F69" t="s">
-        <v>455</v>
+        <v>40578</v>
       </c>
       <c r="G69" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="H69" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I69" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="J69" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="K69" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N69" t="s">
         <v>28</v>
       </c>
       <c r="O69" t="s">
+        <v>449</v>
+      </c>
+      <c r="P69" s="1">
+        <v>31506</v>
+      </c>
+      <c r="T69" t="s">
+        <v>450</v>
+      </c>
+      <c r="W69" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB69" s="1">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47">
+      <c r="A70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" t="s">
+        <v>454</v>
+      </c>
+      <c r="D70" s="1">
+        <v>30076</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42239</v>
+      </c>
+      <c r="F70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G70" t="s">
+        <v>456</v>
+      </c>
+      <c r="H70" t="s">
+        <v>457</v>
+      </c>
+      <c r="I70" t="s">
+        <v>458</v>
+      </c>
+      <c r="J70" t="s">
+        <v>459</v>
+      </c>
+      <c r="K70" t="s">
+        <v>460</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N70" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" t="s">
         <v>461</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P70" s="1">
         <v>29812</v>
       </c>
-      <c r="T69" t="s">
+      <c r="T70" t="s">
         <v>462</v>
       </c>
-      <c r="U69" s="1"/>
-      <c r="V69" t="s">
+      <c r="V70" t="s">
         <v>459</v>
       </c>
-      <c r="W69" t="s">
+      <c r="W70" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="70" spans="1:44">
-      <c r="A70" t="s">
+    <row r="71" spans="1:47">
+      <c r="A71" t="s">
         <v>464</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>465</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D71" s="1">
         <v>17106</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G71" s="2">
         <v>58427037</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>466</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J71" t="s">
         <v>467</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K71" t="s">
         <v>468</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L71" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="71" spans="1:44">
-      <c r="A71" t="s">
+    <row r="72" spans="1:47">
+      <c r="A72" t="s">
         <v>469</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>470</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E72" s="1"/>
+      <c r="F72" t="s">
         <v>471</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G72" t="s">
         <v>472</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H72" t="s">
         <v>473</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I72" t="s">
         <v>474</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J72" t="s">
         <v>475</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K72" t="s">
         <v>476</v>
       </c>
-      <c r="L71" t="s">
+      <c r="L72" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="72" spans="1:44">
-      <c r="A72" t="s">
+    <row r="73" spans="1:47">
+      <c r="A73" t="s">
         <v>971</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>972</v>
       </c>
-      <c r="G72" t="s">
+      <c r="E73" s="1"/>
+      <c r="G73" t="s">
         <v>973</v>
       </c>
-      <c r="L72" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:44">
-      <c r="A73" t="s">
-        <v>477</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" t="s">
-        <v>974</v>
-      </c>
-      <c r="E73" s="1">
-        <v>31199</v>
-      </c>
-      <c r="G73" t="s">
-        <v>975</v>
-      </c>
       <c r="L73" t="s">
-        <v>1191</v>
-      </c>
-      <c r="N73" t="s">
-        <v>28</v>
-      </c>
-      <c r="O73" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="74" spans="1:44">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47">
       <c r="A74" t="s">
         <v>477</v>
       </c>
@@ -7042,457 +7159,449 @@
       <c r="P74" s="1">
         <v>11947</v>
       </c>
-      <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="1:44">
+    </row>
+    <row r="75" spans="1:47">
       <c r="A75" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>487</v>
-      </c>
-      <c r="D75" s="1">
-        <v>23452</v>
-      </c>
+        <v>974</v>
+      </c>
+      <c r="D75" s="1"/>
       <c r="E75" s="1">
-        <v>34944</v>
-      </c>
-      <c r="F75" t="s">
-        <v>488</v>
+        <v>31199</v>
       </c>
       <c r="G75" t="s">
-        <v>489</v>
-      </c>
-      <c r="H75">
-        <v>952793807</v>
-      </c>
-      <c r="J75" t="s">
-        <v>490</v>
-      </c>
-      <c r="K75" t="s">
-        <v>491</v>
+        <v>975</v>
       </c>
       <c r="L75" t="s">
-        <v>1131</v>
+        <v>1190</v>
       </c>
       <c r="N75" t="s">
         <v>28</v>
       </c>
       <c r="O75" t="s">
-        <v>492</v>
-      </c>
-      <c r="P75" s="1">
-        <v>25707</v>
-      </c>
-      <c r="T75" s="1"/>
-      <c r="AA75" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB75" s="1">
-        <v>35118</v>
-      </c>
-      <c r="AF75" s="1">
-        <v>983976750</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>494</v>
-      </c>
-      <c r="AN75" s="1">
-        <v>39731</v>
-      </c>
-      <c r="AR75" s="1"/>
-    </row>
-    <row r="76" spans="1:44">
+        <v>976</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AG75" s="1"/>
+    </row>
+    <row r="76" spans="1:47">
       <c r="A76" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="D76" s="1">
-        <v>23347</v>
+        <v>23452</v>
       </c>
       <c r="E76" s="1">
-        <v>31892</v>
+        <v>34944</v>
       </c>
       <c r="F76" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G76" t="s">
-        <v>498</v>
-      </c>
-      <c r="H76" t="s">
-        <v>499</v>
-      </c>
-      <c r="I76" t="s">
-        <v>500</v>
+        <v>489</v>
+      </c>
+      <c r="H76">
+        <v>952793807</v>
       </c>
       <c r="J76" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="K76" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="L76" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="N76" t="s">
         <v>28</v>
       </c>
       <c r="O76" t="s">
+        <v>492</v>
+      </c>
+      <c r="P76" s="1">
+        <v>25707</v>
+      </c>
+      <c r="S76" s="1"/>
+      <c r="AA76" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>35118</v>
+      </c>
+      <c r="AF76">
+        <v>983976750</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>494</v>
+      </c>
+      <c r="AN76" s="1">
+        <v>39731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:47">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
+        <v>496</v>
+      </c>
+      <c r="D77" s="1">
+        <v>23347</v>
+      </c>
+      <c r="E77" s="1">
+        <v>31892</v>
+      </c>
+      <c r="F77" t="s">
+        <v>497</v>
+      </c>
+      <c r="G77" t="s">
+        <v>498</v>
+      </c>
+      <c r="H77" t="s">
+        <v>499</v>
+      </c>
+      <c r="I77" t="s">
+        <v>500</v>
+      </c>
+      <c r="J77" t="s">
+        <v>501</v>
+      </c>
+      <c r="K77" t="s">
+        <v>502</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1132</v>
+      </c>
+      <c r="N77" t="s">
+        <v>28</v>
+      </c>
+      <c r="O77" t="s">
         <v>503</v>
       </c>
-      <c r="P76" s="1">
+      <c r="P77" s="1">
         <v>22588</v>
       </c>
-      <c r="T76" s="1" t="s">
+      <c r="T77" t="s">
         <v>504</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="W77" s="1"/>
+      <c r="AA77" t="s">
         <v>505</v>
       </c>
-      <c r="AB76" s="1">
+      <c r="AB77" s="1">
         <v>32831</v>
       </c>
-      <c r="AF76" s="1" t="s">
+      <c r="AF77" t="s">
         <v>506</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AH77" t="s">
         <v>507</v>
       </c>
-      <c r="AI76" t="s">
+      <c r="AI77" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="77" spans="1:44">
-      <c r="A77" t="s">
+      <c r="AN77" s="1"/>
+      <c r="AU77" s="1"/>
+    </row>
+    <row r="78" spans="1:47">
+      <c r="A78" t="s">
         <v>977</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>978</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G78" s="2">
         <v>55798251</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H78" t="s">
         <v>979</v>
       </c>
-      <c r="L77" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:44">
-      <c r="A78" t="s">
-        <v>514</v>
-      </c>
-      <c r="C78" t="s">
-        <v>515</v>
-      </c>
-      <c r="D78" s="1">
-        <v>19365</v>
-      </c>
-      <c r="F78" t="s">
-        <v>516</v>
-      </c>
-      <c r="G78" t="s">
-        <v>517</v>
-      </c>
-      <c r="H78" t="s">
-        <v>518</v>
-      </c>
       <c r="L78" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="79" spans="1:44">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="79" spans="1:47">
       <c r="A79" t="s">
         <v>514</v>
       </c>
       <c r="C79" t="s">
+        <v>515</v>
+      </c>
+      <c r="D79" s="1">
+        <v>19365</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>517</v>
+      </c>
+      <c r="H79" t="s">
+        <v>518</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:47">
+      <c r="A80" t="s">
+        <v>514</v>
+      </c>
+      <c r="C80" t="s">
         <v>519</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D80" s="1">
         <v>11437</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F80" t="s">
         <v>520</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L80" t="s">
         <v>1135</v>
       </c>
-      <c r="O79" t="s">
+      <c r="O80" t="s">
         <v>521</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P80" s="1">
         <v>21074</v>
       </c>
-      <c r="S79" s="1"/>
-      <c r="T79" t="s">
+      <c r="T80" t="s">
         <v>522</v>
       </c>
-      <c r="V79" t="s">
+      <c r="V80" t="s">
         <v>523</v>
       </c>
-      <c r="W79" t="s">
+      <c r="W80" t="s">
         <v>524</v>
-      </c>
-    </row>
-    <row r="80" spans="1:44">
-      <c r="A80" t="s">
-        <v>509</v>
-      </c>
-      <c r="C80" t="s">
-        <v>510</v>
-      </c>
-      <c r="D80" s="1">
-        <v>13624</v>
-      </c>
-      <c r="G80" t="s">
-        <v>511</v>
-      </c>
-      <c r="H80" t="s">
-        <v>512</v>
-      </c>
-      <c r="K80" t="s">
-        <v>513</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="81" spans="1:59">
       <c r="A81" t="s">
-        <v>525</v>
-      </c>
-      <c r="B81" t="s">
-        <v>24</v>
+        <v>509</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D81" s="1">
-        <v>42276</v>
-      </c>
-      <c r="E81" s="1">
-        <v>32914</v>
-      </c>
-      <c r="F81" t="s">
-        <v>527</v>
+        <v>13624</v>
+      </c>
+      <c r="G81" t="s">
+        <v>511</v>
       </c>
       <c r="H81" t="s">
-        <v>528</v>
-      </c>
-      <c r="J81" t="s">
-        <v>529</v>
+        <v>512</v>
+      </c>
+      <c r="K81" t="s">
+        <v>513</v>
       </c>
       <c r="L81" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N81" t="s">
-        <v>28</v>
-      </c>
-      <c r="O81" t="s">
-        <v>530</v>
-      </c>
-      <c r="P81" s="1">
-        <v>42029</v>
-      </c>
-      <c r="T81" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="V81" t="s">
-        <v>532</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>533</v>
-      </c>
-      <c r="AB81" s="1">
-        <v>42041</v>
-      </c>
-      <c r="AF81" s="1"/>
-      <c r="AI81" t="s">
-        <v>534</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="82" spans="1:59">
       <c r="A82" t="s">
-        <v>980</v>
+        <v>525</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>981</v>
+        <v>526</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42276</v>
+      </c>
+      <c r="E82" s="1">
+        <v>32914</v>
+      </c>
+      <c r="F82" t="s">
+        <v>527</v>
       </c>
       <c r="H82" t="s">
-        <v>982</v>
-      </c>
-      <c r="K82" t="s">
-        <v>983</v>
+        <v>528</v>
+      </c>
+      <c r="J82" t="s">
+        <v>529</v>
       </c>
       <c r="L82" t="s">
-        <v>1193</v>
+        <v>1136</v>
       </c>
       <c r="N82" t="s">
         <v>28</v>
       </c>
       <c r="O82" t="s">
-        <v>984</v>
+        <v>530</v>
+      </c>
+      <c r="P82" s="1">
+        <v>42029</v>
       </c>
       <c r="T82" t="s">
-        <v>985</v>
-      </c>
-      <c r="W82" t="s">
-        <v>986</v>
+        <v>531</v>
+      </c>
+      <c r="V82" t="s">
+        <v>532</v>
       </c>
       <c r="AA82" t="s">
-        <v>987</v>
-      </c>
-      <c r="AM82" t="s">
-        <v>988</v>
+        <v>533</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>42041</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="83" spans="1:59">
       <c r="A83" t="s">
-        <v>535</v>
+        <v>980</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>536</v>
-      </c>
-      <c r="D83" s="1">
-        <v>25312</v>
-      </c>
-      <c r="E83" s="1">
-        <v>33812</v>
-      </c>
-      <c r="F83" t="s">
-        <v>537</v>
-      </c>
-      <c r="G83" t="s">
-        <v>538</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
       <c r="H83" t="s">
-        <v>539</v>
-      </c>
-      <c r="J83" t="s">
-        <v>540</v>
+        <v>982</v>
       </c>
       <c r="K83" t="s">
-        <v>541</v>
+        <v>983</v>
       </c>
       <c r="L83" t="s">
-        <v>1137</v>
+        <v>1192</v>
       </c>
       <c r="N83" t="s">
         <v>28</v>
       </c>
       <c r="O83" t="s">
-        <v>542</v>
-      </c>
-      <c r="P83" s="1">
-        <v>26723</v>
-      </c>
-      <c r="S83" s="1"/>
+        <v>984</v>
+      </c>
+      <c r="P83" s="1"/>
       <c r="T83" t="s">
-        <v>543</v>
+        <v>985</v>
+      </c>
+      <c r="U83" s="1"/>
+      <c r="W83" t="s">
+        <v>986</v>
       </c>
       <c r="AA83" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB83" s="1">
-        <v>34674</v>
-      </c>
-      <c r="AE83" s="1"/>
+        <v>987</v>
+      </c>
+      <c r="AB83" s="1"/>
+      <c r="AG83" s="1"/>
       <c r="AM83" t="s">
-        <v>545</v>
-      </c>
-      <c r="AN83" s="1">
-        <v>37786</v>
-      </c>
-      <c r="AQ83" s="1"/>
-      <c r="AY83" t="s">
-        <v>546</v>
-      </c>
-      <c r="AZ83" s="1">
-        <v>38503</v>
-      </c>
-      <c r="BC83" s="1"/>
+        <v>988</v>
+      </c>
+      <c r="AN83" s="1"/>
+      <c r="AS83" s="1"/>
     </row>
     <row r="84" spans="1:59">
       <c r="A84" t="s">
-        <v>547</v>
+        <v>535</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>548</v>
+        <v>536</v>
+      </c>
+      <c r="D84" s="1">
+        <v>25312</v>
+      </c>
+      <c r="E84" s="1">
+        <v>33812</v>
+      </c>
+      <c r="F84" t="s">
+        <v>537</v>
       </c>
       <c r="G84" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H84" t="s">
-        <v>550</v>
+        <v>539</v>
+      </c>
+      <c r="J84" t="s">
+        <v>540</v>
+      </c>
+      <c r="K84" t="s">
+        <v>541</v>
       </c>
       <c r="L84" t="s">
-        <v>1138</v>
+        <v>1137</v>
+      </c>
+      <c r="N84" t="s">
+        <v>28</v>
+      </c>
+      <c r="O84" t="s">
+        <v>542</v>
+      </c>
+      <c r="P84" s="1">
+        <v>26723</v>
+      </c>
+      <c r="S84" s="1"/>
+      <c r="T84" t="s">
+        <v>543</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>544</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>34674</v>
+      </c>
+      <c r="AE84" s="1"/>
+      <c r="AM84" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN84" s="1">
+        <v>37786</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>546</v>
+      </c>
+      <c r="AZ84" s="1">
+        <v>38503</v>
       </c>
     </row>
     <row r="85" spans="1:59">
       <c r="A85" t="s">
-        <v>551</v>
-      </c>
-      <c r="B85" t="s">
-        <v>24</v>
+        <v>547</v>
       </c>
       <c r="C85" t="s">
-        <v>989</v>
-      </c>
-      <c r="E85" s="1">
-        <v>30933</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="D85" s="1"/>
       <c r="G85" t="s">
-        <v>990</v>
+        <v>549</v>
       </c>
       <c r="H85" t="s">
-        <v>991</v>
-      </c>
-      <c r="I85" t="s">
-        <v>992</v>
-      </c>
-      <c r="K85" t="s">
-        <v>993</v>
+        <v>550</v>
       </c>
       <c r="L85" t="s">
-        <v>1194</v>
-      </c>
-      <c r="N85" t="s">
-        <v>28</v>
-      </c>
-      <c r="O85" t="s">
-        <v>994</v>
-      </c>
-      <c r="T85" t="s">
-        <v>995</v>
-      </c>
-      <c r="W85" t="s">
-        <v>996</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>997</v>
-      </c>
-      <c r="AM85" t="s">
-        <v>998</v>
-      </c>
-      <c r="AU85" t="s">
-        <v>999</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="P85" s="1"/>
+      <c r="U85" s="1"/>
     </row>
     <row r="86" spans="1:59">
       <c r="A86" t="s">
@@ -7504,6 +7613,7 @@
       <c r="D86" s="1">
         <v>25901</v>
       </c>
+      <c r="E86" s="1"/>
       <c r="F86" t="s">
         <v>553</v>
       </c>
@@ -7531,13 +7641,14 @@
       <c r="P86" s="1">
         <v>34671</v>
       </c>
-      <c r="S86" s="1"/>
-      <c r="T86">
+      <c r="T86" s="1">
         <v>977852423</v>
       </c>
       <c r="W86" t="s">
         <v>557</v>
       </c>
+      <c r="AB86" s="1"/>
+      <c r="AF86" s="1"/>
     </row>
     <row r="87" spans="1:59">
       <c r="A87" t="s">
@@ -7585,10 +7696,10 @@
       <c r="P87" s="1">
         <v>24393</v>
       </c>
-      <c r="S87" s="1"/>
       <c r="T87" t="s">
         <v>566</v>
       </c>
+      <c r="U87" s="1"/>
       <c r="V87" t="s">
         <v>467</v>
       </c>
@@ -7601,7 +7712,6 @@
       <c r="AB87" s="1">
         <v>34412</v>
       </c>
-      <c r="AE87" s="1"/>
       <c r="AI87" t="s">
         <v>569</v>
       </c>
@@ -7611,7 +7721,6 @@
       <c r="AN87" s="1">
         <v>37057</v>
       </c>
-      <c r="AQ87" s="1"/>
       <c r="AR87" t="s">
         <v>571</v>
       </c>
@@ -7624,7 +7733,6 @@
       <c r="AZ87" s="1">
         <v>37678</v>
       </c>
-      <c r="BC87" s="1"/>
       <c r="BD87" t="s">
         <v>574</v>
       </c>
@@ -7645,7 +7753,7 @@
       <c r="F88" t="s">
         <v>577</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>47823061</v>
       </c>
       <c r="L88" t="s">
@@ -7654,156 +7762,159 @@
     </row>
     <row r="89" spans="1:59">
       <c r="A89" t="s">
-        <v>578</v>
+        <v>551</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
       </c>
       <c r="C89" t="s">
-        <v>579</v>
-      </c>
-      <c r="D89" s="1">
-        <v>29829</v>
+        <v>989</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1">
+        <v>30933</v>
       </c>
       <c r="G89" t="s">
-        <v>580</v>
+        <v>990</v>
       </c>
       <c r="H89" t="s">
-        <v>581</v>
-      </c>
-      <c r="J89" t="s">
-        <v>582</v>
+        <v>991</v>
+      </c>
+      <c r="I89" t="s">
+        <v>992</v>
+      </c>
+      <c r="K89" t="s">
+        <v>993</v>
       </c>
       <c r="L89" t="s">
-        <v>1142</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>1193</v>
+      </c>
+      <c r="N89" t="s">
+        <v>28</v>
+      </c>
+      <c r="O89" t="s">
+        <v>994</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="T89" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="W89" t="s">
+        <v>996</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>997</v>
+      </c>
+      <c r="AB89" s="1"/>
+      <c r="AF89" s="1"/>
+      <c r="AM89" t="s">
+        <v>998</v>
+      </c>
+      <c r="AN89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AU89" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="90" spans="1:59">
       <c r="A90" t="s">
-        <v>583</v>
-      </c>
-      <c r="B90" t="s">
-        <v>24</v>
+        <v>578</v>
       </c>
       <c r="C90" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D90" s="1">
-        <v>42045</v>
-      </c>
-      <c r="E90" s="1">
-        <v>32760</v>
-      </c>
-      <c r="F90" t="s">
-        <v>585</v>
+        <v>29829</v>
       </c>
       <c r="G90" t="s">
-        <v>586</v>
+        <v>580</v>
+      </c>
+      <c r="H90" t="s">
+        <v>581</v>
       </c>
       <c r="J90" t="s">
-        <v>317</v>
+        <v>582</v>
       </c>
       <c r="L90" t="s">
-        <v>1143</v>
-      </c>
-      <c r="N90" t="s">
-        <v>28</v>
-      </c>
-      <c r="O90" t="s">
-        <v>587</v>
-      </c>
-      <c r="P90" s="1">
-        <v>42272</v>
-      </c>
-      <c r="S90" s="1"/>
-      <c r="T90" t="s">
-        <v>588</v>
-      </c>
-      <c r="V90" t="s">
-        <v>317</v>
-      </c>
-      <c r="W90" t="s">
-        <v>589</v>
-      </c>
-      <c r="AA90" t="s">
-        <v>590</v>
-      </c>
-      <c r="AB90" s="1">
-        <v>33030</v>
-      </c>
-      <c r="AE90" s="1"/>
-      <c r="AF90" t="s">
-        <v>591</v>
-      </c>
-      <c r="AI90" t="s">
-        <v>592</v>
-      </c>
-      <c r="AM90" t="s">
-        <v>593</v>
-      </c>
-      <c r="AN90" s="1">
-        <v>35415</v>
-      </c>
-      <c r="AQ90" s="1"/>
-      <c r="AR90" t="s">
-        <v>594</v>
-      </c>
-      <c r="AU90" t="s">
-        <v>595</v>
-      </c>
-      <c r="AY90" t="s">
-        <v>596</v>
-      </c>
-      <c r="AZ90" s="1">
-        <v>40203</v>
-      </c>
-      <c r="BC90" s="1"/>
+        <v>1142</v>
+      </c>
     </row>
     <row r="91" spans="1:59">
       <c r="A91" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B91" t="s">
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D91" s="1">
-        <v>30541</v>
+        <v>42045</v>
       </c>
       <c r="E91" s="1">
-        <v>40153</v>
+        <v>32760</v>
+      </c>
+      <c r="F91" t="s">
+        <v>585</v>
       </c>
       <c r="G91" t="s">
-        <v>599</v>
-      </c>
-      <c r="H91" t="s">
-        <v>600</v>
-      </c>
-      <c r="K91" t="s">
-        <v>601</v>
+        <v>586</v>
+      </c>
+      <c r="J91" t="s">
+        <v>317</v>
       </c>
       <c r="L91" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="N91" t="s">
         <v>28</v>
       </c>
       <c r="O91" t="s">
-        <v>602</v>
+        <v>587</v>
+      </c>
+      <c r="P91" s="1">
+        <v>42272</v>
       </c>
       <c r="T91" t="s">
-        <v>603</v>
+        <v>588</v>
+      </c>
+      <c r="V91" t="s">
+        <v>317</v>
       </c>
       <c r="W91" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="AA91" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="AB91" s="1">
-        <v>41995</v>
-      </c>
-      <c r="AF91" s="1"/>
+        <v>33030</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>591</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>592</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>593</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>35415</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>594</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>595</v>
+      </c>
+      <c r="AY91" t="s">
+        <v>596</v>
+      </c>
+      <c r="AZ91" s="1">
+        <v>40203</v>
+      </c>
     </row>
     <row r="92" spans="1:59">
       <c r="A92" t="s">
@@ -7813,216 +7924,231 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D92" s="1">
-        <v>42168</v>
+        <v>30541</v>
       </c>
       <c r="E92" s="1">
-        <v>29449</v>
+        <v>40153</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G92" t="s">
+        <v>599</v>
       </c>
       <c r="H92" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="J92" t="s">
-        <v>608</v>
+        <v>1210</v>
       </c>
       <c r="K92" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="L92" t="s">
-        <v>1145</v>
+        <v>1211</v>
       </c>
       <c r="N92" t="s">
         <v>28</v>
       </c>
       <c r="O92" t="s">
-        <v>610</v>
-      </c>
-      <c r="P92" s="1">
-        <v>42109</v>
-      </c>
-      <c r="T92" s="1"/>
+        <v>602</v>
+      </c>
+      <c r="T92" t="s">
+        <v>603</v>
+      </c>
       <c r="V92" t="s">
-        <v>611</v>
+        <v>1212</v>
       </c>
       <c r="W92" t="s">
-        <v>612</v>
+        <v>604</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>41995</v>
       </c>
     </row>
     <row r="93" spans="1:59">
       <c r="A93" t="s">
-        <v>1000</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
         <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>1001</v>
+        <v>606</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42168</v>
       </c>
       <c r="E93" s="1">
-        <v>31962</v>
-      </c>
-      <c r="G93" t="s">
-        <v>1002</v>
+        <v>29449</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H93" t="s">
+        <v>607</v>
+      </c>
+      <c r="J93" t="s">
+        <v>608</v>
+      </c>
+      <c r="K93" t="s">
+        <v>609</v>
       </c>
       <c r="L93" t="s">
-        <v>1195</v>
+        <v>1144</v>
       </c>
       <c r="N93" t="s">
         <v>28</v>
       </c>
       <c r="O93" t="s">
-        <v>1003</v>
+        <v>610</v>
+      </c>
+      <c r="P93" s="1">
+        <v>42109</v>
+      </c>
+      <c r="T93" s="1"/>
+      <c r="V93" t="s">
+        <v>611</v>
       </c>
       <c r="W93" t="s">
-        <v>1004</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:59">
       <c r="A94" t="s">
-        <v>613</v>
+        <v>1000</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>614</v>
-      </c>
-      <c r="D94" s="1">
-        <v>17961</v>
+        <v>1001</v>
       </c>
       <c r="E94" s="1">
-        <v>25901</v>
+        <v>31962</v>
       </c>
       <c r="G94" t="s">
-        <v>615</v>
-      </c>
-      <c r="H94" t="s">
-        <v>616</v>
-      </c>
-      <c r="J94" t="s">
-        <v>143</v>
-      </c>
-      <c r="K94" t="s">
-        <v>617</v>
+        <v>1002</v>
       </c>
       <c r="L94" t="s">
-        <v>1146</v>
+        <v>1194</v>
+      </c>
+      <c r="N94" t="s">
+        <v>28</v>
       </c>
       <c r="O94" t="s">
-        <v>618</v>
-      </c>
-      <c r="P94" s="1">
-        <v>27432</v>
-      </c>
-      <c r="S94" s="1"/>
-      <c r="T94" t="s">
-        <v>619</v>
-      </c>
-      <c r="V94" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB94" s="1">
-        <v>30506</v>
-      </c>
-      <c r="AC94" s="1">
-        <v>39613</v>
-      </c>
-      <c r="AE94" s="1"/>
-      <c r="AF94" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="AH94" t="s">
-        <v>623</v>
+        <v>1003</v>
+      </c>
+      <c r="W94" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="95" spans="1:59">
       <c r="A95" t="s">
-        <v>613</v>
+        <v>1217</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1006</v>
+        <v>1218</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1219</v>
       </c>
       <c r="L95" t="s">
-        <v>1196</v>
+        <v>1220</v>
+      </c>
+      <c r="N95" t="s">
+        <v>28</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P95" s="1">
+        <v>25962</v>
       </c>
     </row>
     <row r="96" spans="1:59">
       <c r="A96" t="s">
-        <v>624</v>
-      </c>
-      <c r="B96" t="s">
-        <v>24</v>
+        <v>613</v>
       </c>
       <c r="C96" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="D96" s="1">
-        <v>30939</v>
+        <v>17961</v>
       </c>
       <c r="E96" s="1">
-        <v>41237</v>
-      </c>
-      <c r="F96" t="s">
-        <v>642</v>
+        <v>25901</v>
+      </c>
+      <c r="G96" t="s">
+        <v>615</v>
       </c>
       <c r="H96" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="J96" t="s">
-        <v>644</v>
+        <v>143</v>
       </c>
       <c r="K96" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="L96" t="s">
-        <v>1148</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="O96" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="P96" s="1">
-        <v>31271</v>
+        <v>27432</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="V96" t="s">
-        <v>644</v>
-      </c>
-      <c r="W96" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="97" spans="1:47">
+        <v>620</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>30506</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>39613</v>
+      </c>
+      <c r="AF96" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN96" s="1"/>
+      <c r="AR96" s="1"/>
+    </row>
+    <row r="97" spans="1:55">
       <c r="A97" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C97" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1008</v>
-      </c>
+        <v>1005</v>
+      </c>
+      <c r="D97" s="1"/>
       <c r="H97" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I97" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="L97" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="98" spans="1:47">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:55">
       <c r="A98" t="s">
         <v>624</v>
       </c>
@@ -8054,7 +8180,7 @@
         <v>630</v>
       </c>
       <c r="L98" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="N98" t="s">
         <v>28</v>
@@ -8065,10 +8191,9 @@
       <c r="P98" s="1">
         <v>19975</v>
       </c>
-      <c r="T98" t="s">
+      <c r="T98" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="U98" s="1"/>
       <c r="W98" t="s">
         <v>633</v>
       </c>
@@ -8078,10 +8203,9 @@
       <c r="AB98" s="1">
         <v>30035</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AF98" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="AG98" s="1"/>
       <c r="AH98" t="s">
         <v>636</v>
       </c>
@@ -8097,468 +8221,432 @@
       <c r="AR98" t="s">
         <v>639</v>
       </c>
-      <c r="AS98" s="1"/>
       <c r="AT98" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="1:47">
+    <row r="99" spans="1:55">
       <c r="A99" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D99" s="1">
-        <v>13306</v>
+        <v>30939</v>
       </c>
       <c r="E99" s="1">
-        <v>25907</v>
+        <v>41237</v>
       </c>
       <c r="F99" t="s">
-        <v>651</v>
-      </c>
-      <c r="G99" t="s">
-        <v>652</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="G99" s="2"/>
       <c r="H99" t="s">
-        <v>653</v>
+        <v>643</v>
+      </c>
+      <c r="J99" t="s">
+        <v>644</v>
+      </c>
+      <c r="K99" t="s">
+        <v>645</v>
       </c>
       <c r="L99" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="N99" t="s">
         <v>28</v>
       </c>
       <c r="O99" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="P99" s="1">
-        <v>14608</v>
-      </c>
-      <c r="R99" s="1"/>
-      <c r="AA99" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB99" s="1">
-        <v>36213</v>
-      </c>
-      <c r="AD99" s="1"/>
-      <c r="AF99" t="s">
-        <v>656</v>
-      </c>
-      <c r="AM99" t="s">
-        <v>657</v>
-      </c>
-      <c r="AN99" s="1">
-        <v>36811</v>
-      </c>
-      <c r="AP99" s="1"/>
-      <c r="AR99" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="100" spans="1:47">
+        <v>31271</v>
+      </c>
+      <c r="T99" t="s">
+        <v>647</v>
+      </c>
+      <c r="V99" t="s">
+        <v>644</v>
+      </c>
+      <c r="W99" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="100" spans="1:55">
       <c r="A100" t="s">
+        <v>624</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:55">
+      <c r="A101" t="s">
         <v>649</v>
-      </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>659</v>
-      </c>
-      <c r="D100" s="1">
-        <v>11194</v>
-      </c>
-      <c r="E100" s="1">
-        <v>22309</v>
-      </c>
-      <c r="G100" t="s">
-        <v>498</v>
-      </c>
-      <c r="H100" t="s">
-        <v>660</v>
-      </c>
-      <c r="L100" t="s">
-        <v>1132</v>
-      </c>
-      <c r="N100" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" t="s">
-        <v>661</v>
-      </c>
-      <c r="P100" s="1">
-        <v>11421</v>
-      </c>
-      <c r="T100" s="1"/>
-    </row>
-    <row r="101" spans="1:47">
-      <c r="A101" t="s">
-        <v>662</v>
       </c>
       <c r="B101" t="s">
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D101" s="1">
-        <v>30670</v>
+        <v>13306</v>
       </c>
       <c r="E101" s="1">
-        <v>41930</v>
+        <v>25907</v>
+      </c>
+      <c r="F101" t="s">
+        <v>651</v>
       </c>
       <c r="G101" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="H101" t="s">
-        <v>665</v>
-      </c>
-      <c r="J101" t="s">
-        <v>483</v>
-      </c>
-      <c r="K101" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="L101" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N101" t="s">
         <v>28</v>
       </c>
       <c r="O101" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="P101" s="1">
-        <v>32052</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="V101" t="s">
-        <v>483</v>
-      </c>
-      <c r="W101" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="102" spans="1:47">
+        <v>14608</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>36213</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>656</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>657</v>
+      </c>
+      <c r="AN101" s="1">
+        <v>36811</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="102" spans="1:55">
       <c r="A102" t="s">
-        <v>670</v>
+        <v>649</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D102" s="1">
-        <v>15251</v>
-      </c>
-      <c r="F102" t="s">
-        <v>672</v>
+        <v>11194</v>
+      </c>
+      <c r="E102" s="1">
+        <v>22309</v>
       </c>
       <c r="G102" t="s">
-        <v>673</v>
+        <v>498</v>
       </c>
       <c r="H102" t="s">
-        <v>674</v>
-      </c>
-      <c r="I102" t="s">
-        <v>675</v>
-      </c>
-      <c r="J102" t="s">
-        <v>354</v>
-      </c>
-      <c r="K102" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="L102" t="s">
-        <v>1151</v>
+        <v>1132</v>
+      </c>
+      <c r="N102" t="s">
+        <v>28</v>
       </c>
       <c r="O102" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="P102" s="1">
-        <v>24594</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="T102" t="s">
-        <v>679</v>
-      </c>
-      <c r="U102" t="s">
-        <v>680</v>
-      </c>
-      <c r="V102" t="s">
-        <v>681</v>
-      </c>
-      <c r="W102" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="103" spans="1:47">
+        <v>11421</v>
+      </c>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:55">
       <c r="A103" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="B103" t="s">
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="D103" s="1">
-        <v>17916</v>
+        <v>30670</v>
       </c>
       <c r="E103" s="1">
-        <v>27047</v>
-      </c>
-      <c r="F103" t="s">
-        <v>684</v>
+        <v>41930</v>
       </c>
       <c r="G103" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="H103" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="J103" t="s">
-        <v>261</v>
+        <v>483</v>
       </c>
       <c r="K103" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="L103" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="N103" t="s">
         <v>28</v>
       </c>
       <c r="O103" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="P103" s="1">
-        <v>17605</v>
-      </c>
-      <c r="S103" s="1"/>
+        <v>32052</v>
+      </c>
       <c r="T103" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="V103" t="s">
-        <v>690</v>
+        <v>483</v>
       </c>
       <c r="W103" t="s">
-        <v>691</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>692</v>
-      </c>
-      <c r="AB103" s="1">
-        <v>31239</v>
-      </c>
-      <c r="AE103" s="1"/>
-    </row>
-    <row r="104" spans="1:47">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="104" spans="1:55">
       <c r="A104" t="s">
         <v>670</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>671</v>
+      </c>
+      <c r="D104" s="1">
+        <v>15251</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" t="s">
+        <v>672</v>
+      </c>
+      <c r="G104" t="s">
+        <v>673</v>
+      </c>
+      <c r="H104" t="s">
+        <v>674</v>
+      </c>
+      <c r="I104" t="s">
+        <v>675</v>
+      </c>
+      <c r="J104" t="s">
+        <v>354</v>
+      </c>
+      <c r="K104" t="s">
+        <v>676</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O104" t="s">
+        <v>677</v>
+      </c>
+      <c r="P104" s="1">
+        <v>24594</v>
+      </c>
+      <c r="S104" t="s">
+        <v>678</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="U104" t="s">
+        <v>680</v>
+      </c>
+      <c r="V104" t="s">
+        <v>681</v>
+      </c>
+      <c r="W104" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB104" s="1"/>
+      <c r="AF104" s="1"/>
+    </row>
+    <row r="105" spans="1:55">
+      <c r="A105" t="s">
+        <v>670</v>
+      </c>
+      <c r="B105" t="s">
         <v>24</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
+        <v>683</v>
+      </c>
+      <c r="D105" s="1">
+        <v>17916</v>
+      </c>
+      <c r="E105" s="1">
+        <v>27047</v>
+      </c>
+      <c r="F105" t="s">
+        <v>684</v>
+      </c>
+      <c r="G105" t="s">
+        <v>685</v>
+      </c>
+      <c r="H105" t="s">
+        <v>686</v>
+      </c>
+      <c r="J105" t="s">
+        <v>261</v>
+      </c>
+      <c r="K105" t="s">
+        <v>687</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1151</v>
+      </c>
+      <c r="N105" t="s">
+        <v>28</v>
+      </c>
+      <c r="O105" t="s">
+        <v>688</v>
+      </c>
+      <c r="P105" s="1">
+        <v>17605</v>
+      </c>
+      <c r="T105" t="s">
+        <v>689</v>
+      </c>
+      <c r="V105" t="s">
+        <v>690</v>
+      </c>
+      <c r="W105" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB105" s="1">
+        <v>31239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:55">
+      <c r="A106" t="s">
+        <v>670</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
         <v>693</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D106" s="1">
         <v>28667</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E106" s="1">
         <v>39627</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G106" t="s">
         <v>694</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H106" t="s">
         <v>695</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J106" t="s">
         <v>696</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K106" t="s">
         <v>697</v>
       </c>
-      <c r="L104" t="s">
+      <c r="L106" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N106" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" t="s">
+        <v>698</v>
+      </c>
+      <c r="P106" s="1">
+        <v>29845</v>
+      </c>
+      <c r="S106" s="1"/>
+      <c r="T106" t="s">
+        <v>699</v>
+      </c>
+      <c r="W106" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>701</v>
+      </c>
+      <c r="AB106" s="1">
+        <v>40347</v>
+      </c>
+      <c r="AE106" s="1"/>
+      <c r="AM106" t="s">
+        <v>702</v>
+      </c>
+      <c r="AN106" s="1">
+        <v>41733</v>
+      </c>
+      <c r="AQ106" s="1"/>
+      <c r="AZ106" s="1"/>
+      <c r="BC106" s="1"/>
+    </row>
+    <row r="107" spans="1:55">
+      <c r="A107" t="s">
+        <v>703</v>
+      </c>
+      <c r="C107" t="s">
+        <v>704</v>
+      </c>
+      <c r="D107" s="1">
+        <v>22238</v>
+      </c>
+      <c r="F107" t="s">
+        <v>705</v>
+      </c>
+      <c r="G107" t="s">
+        <v>706</v>
+      </c>
+      <c r="H107" t="s">
+        <v>707</v>
+      </c>
+      <c r="J107" t="s">
+        <v>55</v>
+      </c>
+      <c r="K107" t="s">
+        <v>708</v>
+      </c>
+      <c r="L107" t="s">
         <v>1153</v>
       </c>
-      <c r="N104" t="s">
-        <v>28</v>
-      </c>
-      <c r="O104" t="s">
-        <v>698</v>
-      </c>
-      <c r="P104" s="1">
-        <v>29845</v>
-      </c>
-      <c r="S104" s="1"/>
-      <c r="T104" t="s">
-        <v>699</v>
-      </c>
-      <c r="W104" t="s">
-        <v>700</v>
-      </c>
-      <c r="AA104" t="s">
-        <v>701</v>
-      </c>
-      <c r="AB104" s="1">
-        <v>40347</v>
-      </c>
-      <c r="AE104" s="1"/>
-      <c r="AM104" t="s">
-        <v>702</v>
-      </c>
-      <c r="AN104" s="1">
-        <v>41733</v>
-      </c>
-      <c r="AQ104" s="1"/>
-    </row>
-    <row r="105" spans="1:47">
-      <c r="A105" t="s">
-        <v>703</v>
-      </c>
-      <c r="C105" t="s">
-        <v>704</v>
-      </c>
-      <c r="D105" s="1">
-        <v>22238</v>
-      </c>
-      <c r="F105" t="s">
-        <v>705</v>
-      </c>
-      <c r="G105" t="s">
-        <v>706</v>
-      </c>
-      <c r="H105" t="s">
-        <v>707</v>
-      </c>
-      <c r="J105" t="s">
-        <v>55</v>
-      </c>
-      <c r="K105" t="s">
-        <v>708</v>
-      </c>
-      <c r="L105" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="106" spans="1:47">
-      <c r="A106" t="s">
-        <v>709</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D106" s="1">
-        <v>32685</v>
-      </c>
-      <c r="F106" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G106" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H106" t="s">
-        <v>1072</v>
-      </c>
-      <c r="I106" t="s">
-        <v>1073</v>
-      </c>
-      <c r="L106" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="107" spans="1:47">
-      <c r="A107" t="s">
-        <v>709</v>
-      </c>
-      <c r="B107" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" t="s">
-        <v>717</v>
-      </c>
-      <c r="D107" s="1">
-        <v>27175</v>
-      </c>
-      <c r="E107" s="1">
-        <v>34826</v>
-      </c>
-      <c r="G107" t="s">
-        <v>718</v>
-      </c>
-      <c r="H107" t="s">
-        <v>719</v>
-      </c>
-      <c r="I107" t="s">
-        <v>720</v>
-      </c>
-      <c r="J107" t="s">
-        <v>721</v>
-      </c>
-      <c r="K107" t="s">
-        <v>722</v>
-      </c>
-      <c r="L107" t="s">
-        <v>1156</v>
-      </c>
-      <c r="N107" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" t="s">
-        <v>723</v>
-      </c>
-      <c r="P107" s="1">
-        <v>28678</v>
-      </c>
-      <c r="Q107" s="1"/>
-      <c r="T107" t="s">
-        <v>724</v>
-      </c>
-      <c r="V107" t="s">
-        <v>354</v>
-      </c>
-      <c r="W107" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA107" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB107" s="1">
-        <v>36345</v>
-      </c>
-      <c r="AC107" s="1"/>
-      <c r="AF107" t="s">
-        <v>727</v>
-      </c>
-      <c r="AI107" t="s">
-        <v>728</v>
-      </c>
-      <c r="AM107" t="s">
-        <v>729</v>
-      </c>
-      <c r="AN107" s="1">
-        <v>37638</v>
-      </c>
-      <c r="AO107" s="1"/>
-      <c r="AR107" t="s">
-        <v>730</v>
-      </c>
-      <c r="AU107" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="108" spans="1:47">
+    </row>
+    <row r="108" spans="1:55">
       <c r="A108" t="s">
         <v>709</v>
       </c>
@@ -8584,7 +8672,7 @@
         <v>713</v>
       </c>
       <c r="L108" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="N108" t="s">
         <v>28</v>
@@ -8595,7 +8683,6 @@
       <c r="P108" s="1">
         <v>24122</v>
       </c>
-      <c r="S108" s="1"/>
       <c r="T108" t="s">
         <v>715</v>
       </c>
@@ -8603,30 +8690,85 @@
         <v>716</v>
       </c>
     </row>
-    <row r="109" spans="1:47">
+    <row r="109" spans="1:55">
       <c r="A109" t="s">
         <v>709</v>
       </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
       <c r="C109" t="s">
-        <v>1011</v>
+        <v>717</v>
+      </c>
+      <c r="D109" s="1">
+        <v>27175</v>
+      </c>
+      <c r="E109" s="1">
+        <v>34826</v>
       </c>
       <c r="G109" t="s">
-        <v>1012</v>
+        <v>718</v>
       </c>
       <c r="H109" t="s">
-        <v>1013</v>
+        <v>719</v>
       </c>
       <c r="I109" t="s">
-        <v>1014</v>
+        <v>720</v>
+      </c>
+      <c r="J109" t="s">
+        <v>721</v>
       </c>
       <c r="K109" t="s">
-        <v>1015</v>
+        <v>722</v>
       </c>
       <c r="L109" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="110" spans="1:47">
+        <v>1155</v>
+      </c>
+      <c r="N109" t="s">
+        <v>28</v>
+      </c>
+      <c r="O109" t="s">
+        <v>723</v>
+      </c>
+      <c r="P109" s="1">
+        <v>28678</v>
+      </c>
+      <c r="S109" s="1"/>
+      <c r="T109" t="s">
+        <v>724</v>
+      </c>
+      <c r="V109" t="s">
+        <v>354</v>
+      </c>
+      <c r="W109" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB109" s="1">
+        <v>36345</v>
+      </c>
+      <c r="AF109" t="s">
+        <v>727</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>728</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>729</v>
+      </c>
+      <c r="AN109" s="1">
+        <v>37638</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>730</v>
+      </c>
+      <c r="AU109" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="110" spans="1:55">
       <c r="A110" t="s">
         <v>709</v>
       </c>
@@ -8646,7 +8788,7 @@
         <v>37842984</v>
       </c>
       <c r="L110" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="N110" t="s">
         <v>28</v>
@@ -8657,113 +8799,113 @@
       <c r="P110" s="1">
         <v>11547</v>
       </c>
-      <c r="T110" s="1">
+      <c r="T110">
         <v>952039239</v>
       </c>
     </row>
-    <row r="111" spans="1:47">
+    <row r="111" spans="1:55">
       <c r="A111" t="s">
         <v>709</v>
       </c>
-      <c r="B111" t="s">
-        <v>24</v>
-      </c>
       <c r="C111" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E111" s="1">
-        <v>26235</v>
-      </c>
-      <c r="F111" t="s">
-        <v>1017</v>
-      </c>
+        <v>1011</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
       <c r="G111" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="H111" t="s">
-        <v>1019</v>
+        <v>1013</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1014</v>
       </c>
       <c r="K111" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="L111" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N111" t="s">
-        <v>28</v>
-      </c>
-      <c r="O111" t="s">
-        <v>1021</v>
-      </c>
-      <c r="T111" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="112" spans="1:47">
+        <v>1197</v>
+      </c>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AN111" s="1"/>
+      <c r="AO111" s="1"/>
+    </row>
+    <row r="112" spans="1:55">
       <c r="A112" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B112" t="s">
         <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>747</v>
-      </c>
-      <c r="D112" s="1">
-        <v>30176</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="D112" s="1"/>
       <c r="E112" s="1">
-        <v>42266</v>
+        <v>26235</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1018</v>
       </c>
       <c r="H112" t="s">
-        <v>748</v>
-      </c>
-      <c r="J112" t="s">
-        <v>279</v>
+        <v>1019</v>
       </c>
       <c r="K112" t="s">
-        <v>749</v>
+        <v>1020</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1198</v>
       </c>
       <c r="N112" t="s">
         <v>28</v>
       </c>
       <c r="O112" t="s">
-        <v>750</v>
-      </c>
+        <v>1021</v>
+      </c>
+      <c r="P112" s="1"/>
+      <c r="S112" s="1"/>
       <c r="T112" t="s">
-        <v>751</v>
-      </c>
-      <c r="V112" t="s">
-        <v>268</v>
-      </c>
-      <c r="W112" t="s">
-        <v>752</v>
-      </c>
-      <c r="AA112" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="113" spans="1:51">
+        <v>1022</v>
+      </c>
+      <c r="AB112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AN112" s="1"/>
+      <c r="AQ112" s="1"/>
+    </row>
+    <row r="113" spans="1:55">
       <c r="A113" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="C113" t="s">
-        <v>745</v>
+        <v>1069</v>
       </c>
       <c r="D113" s="1">
-        <v>32214</v>
-      </c>
-      <c r="J113" t="s">
-        <v>275</v>
-      </c>
-      <c r="K113" t="s">
-        <v>746</v>
+        <v>32685</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1073</v>
       </c>
       <c r="L113" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:51">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55">
       <c r="A114" t="s">
         <v>735</v>
       </c>
@@ -8792,8 +8934,9 @@
         <v>279</v>
       </c>
       <c r="L114" t="s">
-        <v>1158</v>
-      </c>
+        <v>1157</v>
+      </c>
+      <c r="M114" s="2"/>
       <c r="N114" t="s">
         <v>28</v>
       </c>
@@ -8803,7 +8946,7 @@
       <c r="P114" s="1">
         <v>20410</v>
       </c>
-      <c r="T114" s="1" t="s">
+      <c r="T114" t="s">
         <v>741</v>
       </c>
       <c r="U114" t="s">
@@ -8816,91 +8959,82 @@
         <v>744</v>
       </c>
     </row>
-    <row r="115" spans="1:51">
+    <row r="115" spans="1:55">
       <c r="A115" t="s">
-        <v>754</v>
-      </c>
-      <c r="B115" t="s">
+        <v>735</v>
+      </c>
+      <c r="C115" t="s">
+        <v>745</v>
+      </c>
+      <c r="D115" s="1">
+        <v>32214</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="J115" t="s">
+        <v>275</v>
+      </c>
+      <c r="K115" t="s">
+        <v>746</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AN115" s="1"/>
+      <c r="AQ115" s="1"/>
+      <c r="AZ115" s="1"/>
+      <c r="BC115" s="1"/>
+    </row>
+    <row r="116" spans="1:55">
+      <c r="A116" t="s">
+        <v>735</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>747</v>
+      </c>
+      <c r="D116" s="1">
+        <v>30176</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42266</v>
+      </c>
+      <c r="H116" t="s">
+        <v>748</v>
+      </c>
+      <c r="J116" t="s">
+        <v>279</v>
+      </c>
+      <c r="K116" t="s">
+        <v>749</v>
+      </c>
+      <c r="N116" t="s">
         <v>28</v>
       </c>
-      <c r="C115" t="s">
-        <v>755</v>
-      </c>
-      <c r="D115" s="1">
-        <v>31160</v>
-      </c>
-      <c r="E115" s="1">
-        <v>41601</v>
-      </c>
-      <c r="H115" t="s">
-        <v>756</v>
-      </c>
-      <c r="J115" t="s">
-        <v>757</v>
-      </c>
-      <c r="K115" t="s">
-        <v>758</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1160</v>
-      </c>
-      <c r="N115" t="s">
-        <v>24</v>
-      </c>
-      <c r="O115" t="s">
-        <v>759</v>
-      </c>
-      <c r="P115" s="1">
-        <v>31764</v>
-      </c>
-      <c r="S115" s="1"/>
-      <c r="T115" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA115" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB115" s="1">
-        <v>39489</v>
-      </c>
-      <c r="AE115" s="1"/>
-    </row>
-    <row r="116" spans="1:51">
-      <c r="A116" t="s">
-        <v>754</v>
-      </c>
-      <c r="C116" t="s">
-        <v>762</v>
-      </c>
-      <c r="D116" s="1">
-        <v>30026</v>
-      </c>
-      <c r="F116" t="s">
-        <v>763</v>
-      </c>
-      <c r="H116" t="s">
-        <v>764</v>
-      </c>
-      <c r="J116" t="s">
-        <v>765</v>
-      </c>
-      <c r="K116" t="s">
-        <v>766</v>
-      </c>
-      <c r="L116" t="s">
-        <v>1161</v>
-      </c>
       <c r="O116" t="s">
-        <v>767</v>
-      </c>
-      <c r="P116" s="1">
-        <v>38008</v>
-      </c>
-      <c r="T116" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="117" spans="1:51">
+        <v>750</v>
+      </c>
+      <c r="T116" t="s">
+        <v>751</v>
+      </c>
+      <c r="V116" t="s">
+        <v>268</v>
+      </c>
+      <c r="W116" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB116" s="1"/>
+      <c r="AF116" s="1"/>
+    </row>
+    <row r="117" spans="1:55">
       <c r="A117" t="s">
         <v>754</v>
       </c>
@@ -8908,160 +9042,176 @@
         <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D117" s="1">
-        <v>29399</v>
+        <v>31160</v>
       </c>
       <c r="E117" s="1">
-        <v>37401</v>
-      </c>
-      <c r="F117" t="s">
-        <v>770</v>
-      </c>
-      <c r="G117" t="s">
-        <v>771</v>
+        <v>41601</v>
       </c>
       <c r="H117" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="J117" t="s">
-        <v>301</v>
+        <v>757</v>
       </c>
       <c r="K117" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="L117" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="N117" t="s">
         <v>24</v>
       </c>
       <c r="O117" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="P117" s="1">
-        <v>26837</v>
-      </c>
-      <c r="S117" s="1"/>
-      <c r="T117" t="s">
-        <v>775</v>
+        <v>31764</v>
+      </c>
+      <c r="T117" s="1" t="s">
+        <v>760</v>
       </c>
       <c r="AA117" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="AB117" s="1">
-        <v>38634</v>
-      </c>
-      <c r="AE117" s="1"/>
-      <c r="AM117" t="s">
-        <v>777</v>
-      </c>
-      <c r="AN117" s="1">
-        <v>41073</v>
-      </c>
-      <c r="AQ117" s="1"/>
-    </row>
-    <row r="118" spans="1:51">
+        <v>39489</v>
+      </c>
+    </row>
+    <row r="118" spans="1:55">
       <c r="A118" t="s">
         <v>754</v>
       </c>
       <c r="C118" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="D118" s="1">
-        <v>17959</v>
-      </c>
-      <c r="G118" t="s">
-        <v>779</v>
+        <v>30026</v>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" t="s">
+        <v>763</v>
       </c>
       <c r="H118" t="s">
-        <v>245</v>
+        <v>764</v>
       </c>
       <c r="J118" t="s">
-        <v>467</v>
+        <v>765</v>
       </c>
       <c r="K118" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="L118" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="119" spans="1:51">
+        <v>1160</v>
+      </c>
+      <c r="O118" t="s">
+        <v>767</v>
+      </c>
+      <c r="P118" s="1">
+        <v>38008</v>
+      </c>
+      <c r="S118" s="1"/>
+      <c r="T118" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+    </row>
+    <row r="119" spans="1:55">
       <c r="A119" t="s">
         <v>754</v>
       </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
       <c r="C119" t="s">
-        <v>1023</v>
+        <v>769</v>
+      </c>
+      <c r="D119" s="1">
+        <v>29399</v>
+      </c>
+      <c r="E119" s="1">
+        <v>37401</v>
+      </c>
+      <c r="F119" t="s">
+        <v>770</v>
       </c>
       <c r="G119" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I119" t="s">
-        <v>1025</v>
+        <v>771</v>
+      </c>
+      <c r="H119" t="s">
+        <v>772</v>
+      </c>
+      <c r="J119" t="s">
+        <v>301</v>
+      </c>
+      <c r="K119" t="s">
+        <v>773</v>
       </c>
       <c r="L119" t="s">
-        <v>1200</v>
+        <v>1161</v>
+      </c>
+      <c r="N119" t="s">
+        <v>24</v>
       </c>
       <c r="O119" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="120" spans="1:51">
+        <v>774</v>
+      </c>
+      <c r="P119" s="1">
+        <v>26837</v>
+      </c>
+      <c r="T119" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>776</v>
+      </c>
+      <c r="AB119" s="1">
+        <v>38634</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN119" s="1">
+        <v>41073</v>
+      </c>
+    </row>
+    <row r="120" spans="1:55">
       <c r="A120" t="s">
         <v>754</v>
       </c>
-      <c r="B120" t="s">
-        <v>24</v>
-      </c>
       <c r="C120" t="s">
-        <v>795</v>
+        <v>778</v>
       </c>
       <c r="D120" s="1">
-        <v>22722</v>
-      </c>
-      <c r="E120" s="1">
-        <v>32795</v>
-      </c>
-      <c r="F120" t="s">
-        <v>796</v>
-      </c>
+        <v>17959</v>
+      </c>
+      <c r="E120" s="1"/>
       <c r="G120" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="H120" t="s">
-        <v>798</v>
+        <v>245</v>
       </c>
       <c r="J120" t="s">
-        <v>799</v>
+        <v>467</v>
       </c>
       <c r="K120" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="L120" t="s">
-        <v>1166</v>
-      </c>
-      <c r="N120" t="s">
-        <v>28</v>
-      </c>
-      <c r="O120" t="s">
-        <v>801</v>
-      </c>
-      <c r="P120" s="1">
-        <v>25857</v>
-      </c>
-      <c r="T120" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="V120" t="s">
-        <v>803</v>
-      </c>
-      <c r="W120" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="121" spans="1:51">
+        <v>1162</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="P120" s="1"/>
+      <c r="T120" s="1"/>
+    </row>
+    <row r="121" spans="1:55">
       <c r="A121" t="s">
         <v>754</v>
       </c>
@@ -9093,7 +9243,7 @@
         <v>786</v>
       </c>
       <c r="L121" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N121" t="s">
         <v>28</v>
@@ -9104,7 +9254,6 @@
       <c r="P121" s="1">
         <v>22730</v>
       </c>
-      <c r="S121" s="1"/>
       <c r="T121" t="s">
         <v>788</v>
       </c>
@@ -9118,7 +9267,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="122" spans="1:51">
+    <row r="122" spans="1:55">
       <c r="A122" t="s">
         <v>754</v>
       </c>
@@ -9128,6 +9277,7 @@
       <c r="D122" s="1">
         <v>13107</v>
       </c>
+      <c r="E122" s="1"/>
       <c r="F122" t="s">
         <v>793</v>
       </c>
@@ -9138,234 +9288,246 @@
         <v>999080022</v>
       </c>
       <c r="L122" t="s">
+        <v>1164</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AN122" s="1"/>
+      <c r="AS122" s="1"/>
+    </row>
+    <row r="123" spans="1:55">
+      <c r="A123" t="s">
+        <v>754</v>
+      </c>
+      <c r="B123" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" t="s">
+        <v>795</v>
+      </c>
+      <c r="D123" s="1">
+        <v>22722</v>
+      </c>
+      <c r="E123" s="1">
+        <v>32795</v>
+      </c>
+      <c r="F123" t="s">
+        <v>796</v>
+      </c>
+      <c r="G123" t="s">
+        <v>797</v>
+      </c>
+      <c r="H123" t="s">
+        <v>798</v>
+      </c>
+      <c r="J123" t="s">
+        <v>799</v>
+      </c>
+      <c r="K123" t="s">
+        <v>800</v>
+      </c>
+      <c r="L123" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="123" spans="1:51">
-      <c r="A123" t="s">
+      <c r="N123" t="s">
+        <v>28</v>
+      </c>
+      <c r="O123" t="s">
+        <v>801</v>
+      </c>
+      <c r="P123" s="1">
+        <v>25857</v>
+      </c>
+      <c r="R123" s="1"/>
+      <c r="T123" t="s">
+        <v>802</v>
+      </c>
+      <c r="V123" t="s">
+        <v>803</v>
+      </c>
+      <c r="W123" t="s">
+        <v>804</v>
+      </c>
+      <c r="AB123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AP123" s="1"/>
+    </row>
+    <row r="124" spans="1:55">
+      <c r="A124" t="s">
+        <v>754</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1199</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="125" spans="1:55">
+      <c r="A125" t="s">
         <v>1027</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C125" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="124" spans="1:51">
-      <c r="A124" t="s">
+    <row r="126" spans="1:55">
+      <c r="A126" t="s">
         <v>805</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C126" t="s">
         <v>806</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D126" s="1">
         <v>23348</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E126" s="1">
         <v>30058</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F126" t="s">
         <v>807</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G126" t="s">
         <v>808</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H126" t="s">
         <v>809</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J126" t="s">
         <v>810</v>
       </c>
-      <c r="L124" t="s">
-        <v>1167</v>
-      </c>
-      <c r="O124" t="s">
+      <c r="L126" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O126" t="s">
         <v>811</v>
       </c>
-      <c r="P124" s="1">
+      <c r="P126" s="1">
         <v>37224</v>
       </c>
-      <c r="S124" s="1"/>
-      <c r="T124">
+      <c r="T126" s="1">
         <v>945455929</v>
       </c>
-      <c r="W124" t="s">
+      <c r="W126" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="125" spans="1:51">
-      <c r="A125" t="s">
+    <row r="127" spans="1:55">
+      <c r="A127" t="s">
         <v>1029</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C127" t="s">
         <v>1030</v>
       </c>
-      <c r="H125" t="s">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="H127" t="s">
         <v>1031</v>
       </c>
-      <c r="L125" t="s">
-        <v>1201</v>
-      </c>
-      <c r="O125" t="s">
+      <c r="L127" t="s">
+        <v>1200</v>
+      </c>
+      <c r="O127" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="126" spans="1:51">
-      <c r="A126" t="s">
+      <c r="P127" s="1"/>
+      <c r="T127" s="1"/>
+    </row>
+    <row r="128" spans="1:55">
+      <c r="A128" t="s">
         <v>1033</v>
-      </c>
-      <c r="B126" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E126" s="1">
-        <v>40096</v>
-      </c>
-      <c r="H126" t="s">
-        <v>1035</v>
-      </c>
-      <c r="K126" t="s">
-        <v>1036</v>
-      </c>
-      <c r="L126" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N126" t="s">
-        <v>28</v>
-      </c>
-      <c r="O126" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T126" t="s">
-        <v>1038</v>
-      </c>
-      <c r="W126" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AA126" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AM126" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AY126" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="127" spans="1:51">
-      <c r="A127" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B127" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E127" s="1">
-        <v>33117</v>
-      </c>
-      <c r="G127" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H127" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K127" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L127" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N127" t="s">
-        <v>28</v>
-      </c>
-      <c r="O127" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AA127" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="128" spans="1:51">
-      <c r="A128" t="s">
-        <v>813</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>836</v>
-      </c>
-      <c r="D128" s="1">
-        <v>27889</v>
-      </c>
+        <v>1034</v>
+      </c>
+      <c r="D128" s="1"/>
       <c r="E128" s="1">
-        <v>38619</v>
-      </c>
-      <c r="F128" t="s">
-        <v>837</v>
-      </c>
-      <c r="G128" t="s">
-        <v>838</v>
+        <v>40096</v>
       </c>
       <c r="H128" t="s">
-        <v>839</v>
-      </c>
-      <c r="I128" t="s">
-        <v>840</v>
-      </c>
-      <c r="J128" t="s">
-        <v>841</v>
+        <v>1035</v>
       </c>
       <c r="K128" t="s">
-        <v>842</v>
+        <v>1036</v>
       </c>
       <c r="L128" t="s">
-        <v>1170</v>
+        <v>1201</v>
       </c>
       <c r="N128" t="s">
         <v>28</v>
       </c>
       <c r="O128" t="s">
-        <v>843</v>
-      </c>
-      <c r="P128" s="1">
-        <v>30358</v>
-      </c>
+        <v>1037</v>
+      </c>
+      <c r="P128" s="1"/>
       <c r="T128" t="s">
-        <v>844</v>
-      </c>
-      <c r="U128" s="1"/>
-      <c r="V128" t="s">
-        <v>845</v>
-      </c>
+        <v>1038</v>
+      </c>
+      <c r="V128" s="1"/>
       <c r="W128" t="s">
-        <v>846</v>
+        <v>1039</v>
       </c>
       <c r="AA128" t="s">
-        <v>847</v>
-      </c>
-      <c r="AB128" s="1">
-        <v>39937</v>
-      </c>
-      <c r="AG128" s="1"/>
-    </row>
-    <row r="129" spans="1:45">
+        <v>1040</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AY128" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="129" spans="1:43">
       <c r="A129" t="s">
-        <v>813</v>
+        <v>1033</v>
+      </c>
+      <c r="B129" t="s">
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>1049</v>
+        <v>1043</v>
+      </c>
+      <c r="E129" s="1">
+        <v>33117</v>
       </c>
       <c r="G129" t="s">
-        <v>1050</v>
+        <v>1044</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K129" t="s">
+        <v>1046</v>
       </c>
       <c r="L129" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:45">
+        <v>1202</v>
+      </c>
+      <c r="N129" t="s">
+        <v>28</v>
+      </c>
+      <c r="O129" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AA129" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="130" spans="1:43">
       <c r="A130" t="s">
         <v>813</v>
       </c>
@@ -9373,67 +9535,64 @@
         <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D130" s="1">
-        <v>25918</v>
+        <v>24305</v>
       </c>
       <c r="E130" s="1">
-        <v>36267</v>
-      </c>
-      <c r="F130" t="s">
-        <v>826</v>
+        <v>35882</v>
       </c>
       <c r="G130" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="H130" t="s">
-        <v>828</v>
+        <v>816</v>
+      </c>
+      <c r="I130" t="s">
+        <v>817</v>
       </c>
       <c r="J130" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="K130" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="L130" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="N130" t="s">
         <v>28</v>
       </c>
       <c r="O130" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="P130" s="1">
-        <v>27189</v>
-      </c>
-      <c r="T130" t="s">
-        <v>832</v>
-      </c>
-      <c r="U130" s="1"/>
+        <v>26724</v>
+      </c>
+      <c r="T130" s="1" t="s">
+        <v>821</v>
+      </c>
       <c r="V130" t="s">
-        <v>467</v>
+        <v>620</v>
       </c>
       <c r="W130" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="AA130" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="AB130" s="1">
-        <v>38790</v>
-      </c>
-      <c r="AG130" s="1"/>
+        <v>37514</v>
+      </c>
       <c r="AM130" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="AN130" s="1">
-        <v>41029</v>
-      </c>
-      <c r="AS130" s="1"/>
-    </row>
-    <row r="131" spans="1:45">
+        <v>38596</v>
+      </c>
+    </row>
+    <row r="131" spans="1:43">
       <c r="A131" t="s">
         <v>813</v>
       </c>
@@ -9441,28 +9600,28 @@
         <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="D131" s="1">
-        <v>24305</v>
+        <v>25918</v>
       </c>
       <c r="E131" s="1">
-        <v>35882</v>
+        <v>36267</v>
+      </c>
+      <c r="F131" t="s">
+        <v>826</v>
       </c>
       <c r="G131" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="H131" t="s">
-        <v>816</v>
-      </c>
-      <c r="I131" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
       <c r="J131" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="K131" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
       <c r="L131" t="s">
         <v>1168</v>
@@ -9471,415 +9630,517 @@
         <v>28</v>
       </c>
       <c r="O131" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="P131" s="1">
-        <v>26724</v>
-      </c>
-      <c r="T131" s="1" t="s">
-        <v>821</v>
+        <v>27189</v>
+      </c>
+      <c r="S131" s="1"/>
+      <c r="T131" t="s">
+        <v>832</v>
       </c>
       <c r="V131" t="s">
-        <v>620</v>
+        <v>467</v>
       </c>
       <c r="W131" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="AA131" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="AB131" s="1">
-        <v>37514</v>
-      </c>
-      <c r="AF131" s="1"/>
+        <v>38790</v>
+      </c>
       <c r="AM131" t="s">
-        <v>824</v>
+        <v>835</v>
       </c>
       <c r="AN131" s="1">
-        <v>38596</v>
-      </c>
-      <c r="AR131" s="1"/>
-    </row>
-    <row r="132" spans="1:45">
+        <v>41029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:43">
       <c r="A132" t="s">
         <v>813</v>
       </c>
+      <c r="B132" t="s">
+        <v>24</v>
+      </c>
       <c r="C132" t="s">
+        <v>836</v>
+      </c>
+      <c r="D132" s="1">
+        <v>27889</v>
+      </c>
+      <c r="E132" s="1">
+        <v>38619</v>
+      </c>
+      <c r="F132" t="s">
+        <v>837</v>
+      </c>
+      <c r="G132" t="s">
+        <v>838</v>
+      </c>
+      <c r="H132" t="s">
+        <v>839</v>
+      </c>
+      <c r="I132" t="s">
+        <v>840</v>
+      </c>
+      <c r="J132" t="s">
+        <v>841</v>
+      </c>
+      <c r="K132" t="s">
+        <v>842</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N132" t="s">
+        <v>28</v>
+      </c>
+      <c r="O132" t="s">
+        <v>843</v>
+      </c>
+      <c r="P132" s="1">
+        <v>30358</v>
+      </c>
+      <c r="S132" s="1"/>
+      <c r="T132" t="s">
+        <v>844</v>
+      </c>
+      <c r="V132" t="s">
+        <v>845</v>
+      </c>
+      <c r="W132" t="s">
+        <v>846</v>
+      </c>
+      <c r="AA132" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB132" s="1">
+        <v>39937</v>
+      </c>
+      <c r="AE132" s="1"/>
+    </row>
+    <row r="133" spans="1:43">
+      <c r="A133" t="s">
+        <v>813</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D133" s="1"/>
+      <c r="G133" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:43">
+      <c r="A134" t="s">
+        <v>813</v>
+      </c>
+      <c r="C134" t="s">
         <v>1051</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H134" t="s">
         <v>1052</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K134" t="s">
         <v>1053</v>
       </c>
-      <c r="L132" t="s">
+      <c r="L134" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:43">
+      <c r="A135" t="s">
+        <v>848</v>
+      </c>
+      <c r="C135" t="s">
+        <v>849</v>
+      </c>
+      <c r="D135" s="1">
+        <v>19413</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" t="s">
+        <v>850</v>
+      </c>
+      <c r="G135" t="s">
+        <v>851</v>
+      </c>
+      <c r="H135" t="s">
+        <v>852</v>
+      </c>
+      <c r="I135" t="s">
+        <v>853</v>
+      </c>
+      <c r="J135" t="s">
+        <v>854</v>
+      </c>
+      <c r="K135" t="s">
+        <v>855</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="AB135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AQ135" s="1"/>
+    </row>
+    <row r="136" spans="1:43">
+      <c r="A136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L136" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="133" spans="1:45">
-      <c r="A133" t="s">
-        <v>848</v>
-      </c>
-      <c r="C133" t="s">
-        <v>849</v>
-      </c>
-      <c r="D133" s="1">
-        <v>19413</v>
-      </c>
-      <c r="F133" t="s">
-        <v>850</v>
-      </c>
-      <c r="G133" t="s">
-        <v>851</v>
-      </c>
-      <c r="H133" t="s">
-        <v>852</v>
-      </c>
-      <c r="I133" t="s">
-        <v>853</v>
-      </c>
-      <c r="J133" t="s">
+    <row r="137" spans="1:43">
+      <c r="A137" t="s">
+        <v>856</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+      <c r="C137" t="s">
+        <v>857</v>
+      </c>
+      <c r="D137" s="1">
+        <v>24071</v>
+      </c>
+      <c r="E137" s="1">
+        <v>41363</v>
+      </c>
+      <c r="F137" t="s">
+        <v>858</v>
+      </c>
+      <c r="G137" t="s">
+        <v>859</v>
+      </c>
+      <c r="H137" t="s">
+        <v>860</v>
+      </c>
+      <c r="J137" t="s">
+        <v>861</v>
+      </c>
+      <c r="K137" t="s">
+        <v>862</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N137" t="s">
+        <v>28</v>
+      </c>
+      <c r="O137" t="s">
+        <v>863</v>
+      </c>
+      <c r="P137" s="1">
+        <v>24306</v>
+      </c>
+      <c r="T137" t="s">
+        <v>864</v>
+      </c>
+      <c r="U137" t="s">
+        <v>865</v>
+      </c>
+      <c r="V137" t="s">
+        <v>866</v>
+      </c>
+      <c r="W137" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA137" t="s">
+        <v>868</v>
+      </c>
+      <c r="AB137" s="1">
+        <v>36624</v>
+      </c>
+      <c r="AF137" t="s">
+        <v>869</v>
+      </c>
+      <c r="AM137" t="s">
+        <v>870</v>
+      </c>
+      <c r="AN137" s="1">
+        <v>40119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:43">
+      <c r="A138" t="s">
+        <v>871</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" t="s">
+        <v>872</v>
+      </c>
+      <c r="D138" s="1">
+        <v>29422</v>
+      </c>
+      <c r="E138" s="1">
+        <v>40110</v>
+      </c>
+      <c r="H138" t="s">
+        <v>873</v>
+      </c>
+      <c r="I138" t="s">
+        <v>874</v>
+      </c>
+      <c r="J138" t="s">
+        <v>447</v>
+      </c>
+      <c r="K138" t="s">
+        <v>875</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1172</v>
+      </c>
+      <c r="N138" t="s">
+        <v>28</v>
+      </c>
+      <c r="O138" t="s">
+        <v>876</v>
+      </c>
+      <c r="P138" s="1">
+        <v>30129</v>
+      </c>
+      <c r="T138" t="s">
+        <v>877</v>
+      </c>
+      <c r="V138" t="s">
+        <v>878</v>
+      </c>
+      <c r="W138" t="s">
+        <v>879</v>
+      </c>
+      <c r="AA138" t="s">
+        <v>880</v>
+      </c>
+      <c r="AB138" s="1">
+        <v>40303</v>
+      </c>
+      <c r="AM138" t="s">
+        <v>881</v>
+      </c>
+      <c r="AN138" s="1">
+        <v>41422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:43">
+      <c r="A139" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:43">
+      <c r="A140" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:43">
+      <c r="A141" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D141" s="1">
+        <v>30975</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="142" spans="1:43">
+      <c r="A142" t="s">
+        <v>882</v>
+      </c>
+      <c r="B142" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" t="s">
+        <v>883</v>
+      </c>
+      <c r="D142" s="1">
+        <v>31442</v>
+      </c>
+      <c r="E142" s="1">
+        <v>41258</v>
+      </c>
+      <c r="G142" t="s">
+        <v>884</v>
+      </c>
+      <c r="H142" t="s">
+        <v>885</v>
+      </c>
+      <c r="I142" t="s">
+        <v>886</v>
+      </c>
+      <c r="J142" t="s">
+        <v>887</v>
+      </c>
+      <c r="K142" t="s">
+        <v>888</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N142" t="s">
+        <v>24</v>
+      </c>
+      <c r="O142" t="s">
+        <v>889</v>
+      </c>
+      <c r="P142" s="1">
+        <v>32355</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="V142" t="s">
+        <v>891</v>
+      </c>
+      <c r="W142" t="s">
+        <v>892</v>
+      </c>
+      <c r="AA142" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="143" spans="1:43">
+      <c r="A143" t="s">
+        <v>882</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" t="s">
+        <v>894</v>
+      </c>
+      <c r="D143" s="1">
+        <v>28308</v>
+      </c>
+      <c r="E143" s="1">
+        <v>40005</v>
+      </c>
+      <c r="F143" t="s">
+        <v>895</v>
+      </c>
+      <c r="G143" t="s">
+        <v>896</v>
+      </c>
+      <c r="H143" t="s">
+        <v>897</v>
+      </c>
+      <c r="J143" t="s">
+        <v>178</v>
+      </c>
+      <c r="K143" t="s">
+        <v>898</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1174</v>
+      </c>
+      <c r="N143" t="s">
+        <v>28</v>
+      </c>
+      <c r="O143" t="s">
+        <v>899</v>
+      </c>
+      <c r="P143" s="1">
+        <v>27705</v>
+      </c>
+      <c r="T143" t="s">
+        <v>900</v>
+      </c>
+      <c r="V143" t="s">
         <v>854</v>
       </c>
-      <c r="K133" t="s">
-        <v>855</v>
-      </c>
-      <c r="L133" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:45">
-      <c r="A134" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G134" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L134" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="135" spans="1:45">
-      <c r="A135" t="s">
-        <v>856</v>
-      </c>
-      <c r="B135" t="s">
-        <v>24</v>
-      </c>
-      <c r="C135" t="s">
-        <v>857</v>
-      </c>
-      <c r="D135" s="1">
-        <v>24071</v>
-      </c>
-      <c r="E135" s="1">
-        <v>41363</v>
-      </c>
-      <c r="F135" t="s">
-        <v>858</v>
-      </c>
-      <c r="G135" t="s">
-        <v>859</v>
-      </c>
-      <c r="H135" t="s">
-        <v>860</v>
-      </c>
-      <c r="J135" t="s">
-        <v>861</v>
-      </c>
-      <c r="K135" t="s">
-        <v>862</v>
-      </c>
-      <c r="L135" t="s">
-        <v>1172</v>
-      </c>
-      <c r="N135" t="s">
-        <v>28</v>
-      </c>
-      <c r="O135" t="s">
-        <v>863</v>
-      </c>
-      <c r="P135" s="1">
-        <v>24306</v>
-      </c>
-      <c r="Q135" s="1"/>
-      <c r="T135" t="s">
-        <v>864</v>
-      </c>
-      <c r="U135" t="s">
-        <v>865</v>
-      </c>
-      <c r="V135" t="s">
-        <v>866</v>
-      </c>
-      <c r="W135" t="s">
-        <v>867</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>868</v>
-      </c>
-      <c r="AB135" s="1">
-        <v>36624</v>
-      </c>
-      <c r="AC135" s="1"/>
-      <c r="AF135" t="s">
-        <v>869</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>870</v>
-      </c>
-      <c r="AN135" s="1">
-        <v>40119</v>
-      </c>
-      <c r="AO135" s="1"/>
-    </row>
-    <row r="136" spans="1:45">
-      <c r="A136" t="s">
-        <v>871</v>
-      </c>
-      <c r="B136" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" t="s">
-        <v>872</v>
-      </c>
-      <c r="D136" s="1">
-        <v>29422</v>
-      </c>
-      <c r="E136" s="1">
-        <v>40110</v>
-      </c>
-      <c r="H136" t="s">
-        <v>873</v>
-      </c>
-      <c r="I136" t="s">
-        <v>874</v>
-      </c>
-      <c r="J136" t="s">
-        <v>447</v>
-      </c>
-      <c r="K136" t="s">
-        <v>875</v>
-      </c>
-      <c r="L136" t="s">
-        <v>1173</v>
-      </c>
-      <c r="N136" t="s">
-        <v>28</v>
-      </c>
-      <c r="O136" t="s">
-        <v>876</v>
-      </c>
-      <c r="P136" s="1">
-        <v>30129</v>
-      </c>
-      <c r="S136" s="1"/>
-      <c r="T136" t="s">
-        <v>877</v>
-      </c>
-      <c r="V136" t="s">
-        <v>878</v>
-      </c>
-      <c r="W136" t="s">
-        <v>879</v>
-      </c>
-      <c r="AA136" t="s">
-        <v>880</v>
-      </c>
-      <c r="AB136" s="1">
-        <v>40303</v>
-      </c>
-      <c r="AE136" s="1"/>
-      <c r="AM136" t="s">
-        <v>881</v>
-      </c>
-      <c r="AN136" s="1">
-        <v>41422</v>
-      </c>
-      <c r="AQ136" s="1"/>
-    </row>
-    <row r="137" spans="1:45">
-      <c r="A137" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L137" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="138" spans="1:45">
-      <c r="A138" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H138" t="s">
-        <v>1063</v>
-      </c>
-      <c r="L138" t="s">
+      <c r="W143" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="144" spans="1:43">
+      <c r="A144" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L144" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="139" spans="1:45">
-      <c r="A139" t="s">
-        <v>882</v>
-      </c>
-      <c r="B139" t="s">
-        <v>24</v>
-      </c>
-      <c r="C139" t="s">
-        <v>894</v>
-      </c>
-      <c r="D139" s="1">
-        <v>28308</v>
-      </c>
-      <c r="E139" s="1">
-        <v>40005</v>
-      </c>
-      <c r="F139" t="s">
-        <v>895</v>
-      </c>
-      <c r="G139" t="s">
-        <v>896</v>
-      </c>
-      <c r="H139" t="s">
-        <v>897</v>
-      </c>
-      <c r="J139" t="s">
-        <v>178</v>
-      </c>
-      <c r="K139" t="s">
-        <v>898</v>
-      </c>
-      <c r="L139" t="s">
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>902</v>
+      </c>
+      <c r="C145" t="s">
+        <v>903</v>
+      </c>
+      <c r="D145" s="1">
+        <v>42233</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" t="s">
+        <v>904</v>
+      </c>
+      <c r="H145" t="s">
+        <v>905</v>
+      </c>
+      <c r="L145" t="s">
         <v>1175</v>
       </c>
-      <c r="N139" t="s">
-        <v>28</v>
-      </c>
-      <c r="O139" t="s">
-        <v>899</v>
-      </c>
-      <c r="P139" s="1">
-        <v>27705</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="V139" t="s">
-        <v>854</v>
-      </c>
-      <c r="W139" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="140" spans="1:45">
-      <c r="A140" t="s">
-        <v>882</v>
-      </c>
-      <c r="B140" t="s">
-        <v>28</v>
-      </c>
-      <c r="C140" t="s">
-        <v>883</v>
-      </c>
-      <c r="D140" s="1">
-        <v>31442</v>
-      </c>
-      <c r="E140" s="1">
-        <v>41258</v>
-      </c>
-      <c r="G140" t="s">
-        <v>884</v>
-      </c>
-      <c r="H140" t="s">
-        <v>885</v>
-      </c>
-      <c r="I140" t="s">
-        <v>886</v>
-      </c>
-      <c r="J140" t="s">
-        <v>887</v>
-      </c>
-      <c r="K140" t="s">
-        <v>888</v>
-      </c>
-      <c r="L140" t="s">
-        <v>1174</v>
-      </c>
-      <c r="N140" t="s">
-        <v>24</v>
-      </c>
-      <c r="O140" t="s">
-        <v>889</v>
-      </c>
-      <c r="P140" s="1">
-        <v>32355</v>
-      </c>
-      <c r="T140" t="s">
-        <v>890</v>
-      </c>
-      <c r="V140" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="W140" t="s">
-        <v>892</v>
-      </c>
-      <c r="AA140" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="141" spans="1:45">
-      <c r="A141" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G141" t="s">
-        <v>1066</v>
-      </c>
-      <c r="L141" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="142" spans="1:45">
-      <c r="A142" t="s">
-        <v>902</v>
-      </c>
-      <c r="C142" t="s">
-        <v>903</v>
-      </c>
-      <c r="D142" s="1">
-        <v>42233</v>
-      </c>
-      <c r="F142" t="s">
-        <v>904</v>
-      </c>
-      <c r="H142" t="s">
-        <v>905</v>
-      </c>
-      <c r="L142" t="s">
-        <v>1176</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:BT149">
-    <sortCondition ref="A2:A149"/>
-    <sortCondition ref="C2:C149"/>
+  <sortState ref="A2:BT152">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
